--- a/config_hlw/shoping_config.xlsx
+++ b/config_hlw/shoping_config.xlsx
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6524" uniqueCount="2336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6665" uniqueCount="2382">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9953,6 +9953,144 @@
   <si>
     <t>55000,150000</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币","7元现金",</t>
+  </si>
+  <si>
+    <t>全返礼包II</t>
+  </si>
+  <si>
+    <t>"100万金币","30元现金",</t>
+  </si>
+  <si>
+    <t>1000000,</t>
+  </si>
+  <si>
+    <t>"600万金币","198元现金",</t>
+  </si>
+  <si>
+    <t>6000000,</t>
+  </si>
+  <si>
+    <t>每日特惠礼包</t>
+  </si>
+  <si>
+    <t>"5万金币","15万金币","锁定*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+  </si>
+  <si>
+    <t>200000,1,</t>
+  </si>
+  <si>
+    <t>"15万金币","35万金币","锁定*2",</t>
+  </si>
+  <si>
+    <t>500000,2,</t>
+  </si>
+  <si>
+    <t>"30万金币","60万金币","锁定*3",</t>
+  </si>
+  <si>
+    <t>900000,3,</t>
+  </si>
+  <si>
+    <t>"30万金币","50万金币","锁定*3",</t>
+  </si>
+  <si>
+    <t>800000,3,</t>
+  </si>
+  <si>
+    <t>小额用户10元</t>
+  </si>
+  <si>
+    <t>"50万金币","70万金币","10万小游戏币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+  </si>
+  <si>
+    <t>1200000,100000,</t>
+  </si>
+  <si>
+    <t>"90万金币","110万金币","20万小游戏币",</t>
+  </si>
+  <si>
+    <t>2000000,200000,</t>
+  </si>
+  <si>
+    <t>v1-3用户18元</t>
+  </si>
+  <si>
+    <t>"90万金币","100万金币","10万小游戏币",</t>
+  </si>
+  <si>
+    <t>1900000,100000,</t>
+  </si>
+  <si>
+    <t>v1-3用户48元</t>
+  </si>
+  <si>
+    <t>"240万金币","260万金币","10万小游戏币",</t>
+  </si>
+  <si>
+    <t>5000000,100000,</t>
+  </si>
+  <si>
+    <t>v1-3用户98元</t>
+  </si>
+  <si>
+    <t>"490万金币","520万金币","20万小游戏币",</t>
+  </si>
+  <si>
+    <t>10100000,200000,</t>
+  </si>
+  <si>
+    <t>v4-7用户48元</t>
+  </si>
+  <si>
+    <t>v4-7用户98元</t>
+  </si>
+  <si>
+    <t>v4-7用户198元</t>
+  </si>
+  <si>
+    <t>"990万金币","1070万金币","30万小游戏币",</t>
+  </si>
+  <si>
+    <t>20600000,300000,</t>
+  </si>
+  <si>
+    <t>v8以上用户98元</t>
+  </si>
+  <si>
+    <t>v8以上用户198元</t>
+  </si>
+  <si>
+    <t>v8以上用户498元</t>
+  </si>
+  <si>
+    <t>"2490万金币","2640万金币","50万小游戏币",</t>
+  </si>
+  <si>
+    <t>51300000,500000,</t>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户6元</t>
+  </si>
+  <si>
+    <t>"30万金币","40万金币","5万小游戏币",</t>
+  </si>
+  <si>
+    <t>700000,50000,</t>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户48元</t>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户98元</t>
   </si>
 </sst>
 </file>
@@ -12719,13 +12857,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AM849"/>
+  <dimension ref="A1:AM870"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AB826" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H842" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B846" sqref="B846:B849"/>
+      <selection pane="bottomRight" activeCell="A852" sqref="A852:A870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -67885,10 +68023,10 @@
       </c>
     </row>
     <row r="847" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A847" s="48">
+      <c r="A847" s="38">
         <v>846</v>
       </c>
-      <c r="B847" s="48">
+      <c r="B847" s="38">
         <v>10772</v>
       </c>
       <c r="F847" s="38">
@@ -67956,10 +68094,10 @@
       </c>
     </row>
     <row r="848" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A848" s="48">
+      <c r="A848" s="38">
         <v>847</v>
       </c>
-      <c r="B848" s="48">
+      <c r="B848" s="38">
         <v>10773</v>
       </c>
       <c r="F848" s="38">
@@ -68027,10 +68165,10 @@
       </c>
     </row>
     <row r="849" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A849" s="48">
+      <c r="A849" s="38">
         <v>848</v>
       </c>
-      <c r="B849" s="48">
+      <c r="B849" s="38">
         <v>10774</v>
       </c>
       <c r="F849" s="38">
@@ -68094,6 +68232,1410 @@
         <v>1</v>
       </c>
       <c r="AL849" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A850" s="38">
+        <v>849</v>
+      </c>
+      <c r="B850" s="38">
+        <v>10775</v>
+      </c>
+      <c r="F850" s="38">
+        <v>1</v>
+      </c>
+      <c r="G850" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="I850" s="38" t="s">
+        <v>2336</v>
+      </c>
+      <c r="K850" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L850" s="38">
+        <v>0</v>
+      </c>
+      <c r="M850" s="38">
+        <v>0</v>
+      </c>
+      <c r="N850" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O850" s="38">
+        <v>600</v>
+      </c>
+      <c r="P850" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q850" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="V850" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="W850" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X850" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y850" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z850" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG850" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH850" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK850" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL850" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A851" s="38">
+        <v>850</v>
+      </c>
+      <c r="B851" s="38">
+        <v>10776</v>
+      </c>
+      <c r="F851" s="38">
+        <v>1</v>
+      </c>
+      <c r="G851" s="38" t="s">
+        <v>2337</v>
+      </c>
+      <c r="I851" s="38" t="s">
+        <v>2338</v>
+      </c>
+      <c r="K851" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L851" s="38">
+        <v>0</v>
+      </c>
+      <c r="M851" s="38">
+        <v>0</v>
+      </c>
+      <c r="N851" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O851" s="38">
+        <v>3000</v>
+      </c>
+      <c r="P851" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q851" s="41" t="s">
+        <v>2339</v>
+      </c>
+      <c r="V851" s="38" t="s">
+        <v>879</v>
+      </c>
+      <c r="W851" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X851" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y851" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="AG851" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH851" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK851" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL851" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A852" s="38">
+        <v>851</v>
+      </c>
+      <c r="B852" s="38">
+        <v>10777</v>
+      </c>
+      <c r="F852" s="38">
+        <v>1</v>
+      </c>
+      <c r="G852" s="38" t="s">
+        <v>515</v>
+      </c>
+      <c r="I852" s="38" t="s">
+        <v>2340</v>
+      </c>
+      <c r="K852" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L852" s="38">
+        <v>0</v>
+      </c>
+      <c r="M852" s="38">
+        <v>0</v>
+      </c>
+      <c r="N852" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O852" s="38">
+        <v>19800</v>
+      </c>
+      <c r="P852" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q852" s="41" t="s">
+        <v>2341</v>
+      </c>
+      <c r="V852" s="38" t="s">
+        <v>879</v>
+      </c>
+      <c r="W852" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X852" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y852" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="AG852" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH852" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK852" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL852" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A853" s="38">
+        <v>852</v>
+      </c>
+      <c r="B853" s="38">
+        <v>10778</v>
+      </c>
+      <c r="F853" s="9">
+        <v>1</v>
+      </c>
+      <c r="G853" s="9" t="s">
+        <v>2377</v>
+      </c>
+      <c r="I853" s="9" t="s">
+        <v>2378</v>
+      </c>
+      <c r="K853" s="9">
+        <v>-28</v>
+      </c>
+      <c r="L853" s="9">
+        <v>0</v>
+      </c>
+      <c r="M853" s="9">
+        <v>0</v>
+      </c>
+      <c r="N853" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O853" s="9">
+        <v>600</v>
+      </c>
+      <c r="P853" s="9" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q853" s="14" t="s">
+        <v>2379</v>
+      </c>
+      <c r="V853" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="W853" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X853" s="9">
+        <v>1581377400</v>
+      </c>
+      <c r="Y853" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z853" s="9">
+        <v>14</v>
+      </c>
+      <c r="AG853" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH853" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK853" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL853" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A854" s="38">
+        <v>853</v>
+      </c>
+      <c r="B854" s="38">
+        <v>10779</v>
+      </c>
+      <c r="F854" s="9">
+        <v>1</v>
+      </c>
+      <c r="G854" s="9" t="s">
+        <v>2380</v>
+      </c>
+      <c r="I854" s="9" t="s">
+        <v>2362</v>
+      </c>
+      <c r="K854" s="9">
+        <v>-28</v>
+      </c>
+      <c r="L854" s="9">
+        <v>0</v>
+      </c>
+      <c r="M854" s="9">
+        <v>0</v>
+      </c>
+      <c r="N854" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O854" s="9">
+        <v>4800</v>
+      </c>
+      <c r="P854" s="9" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q854" s="14" t="s">
+        <v>2363</v>
+      </c>
+      <c r="V854" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="W854" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X854" s="9">
+        <v>1581377400</v>
+      </c>
+      <c r="Y854" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z854" s="9">
+        <v>14</v>
+      </c>
+      <c r="AG854" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH854" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK854" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL854" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A855" s="38">
+        <v>854</v>
+      </c>
+      <c r="B855" s="38">
+        <v>10780</v>
+      </c>
+      <c r="F855" s="9">
+        <v>1</v>
+      </c>
+      <c r="G855" s="9" t="s">
+        <v>2381</v>
+      </c>
+      <c r="I855" s="9" t="s">
+        <v>2365</v>
+      </c>
+      <c r="K855" s="9">
+        <v>-28</v>
+      </c>
+      <c r="L855" s="9">
+        <v>0</v>
+      </c>
+      <c r="M855" s="9">
+        <v>0</v>
+      </c>
+      <c r="N855" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O855" s="9">
+        <v>9800</v>
+      </c>
+      <c r="P855" s="9" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q855" s="14" t="s">
+        <v>2366</v>
+      </c>
+      <c r="V855" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="W855" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X855" s="9">
+        <v>1581377400</v>
+      </c>
+      <c r="Y855" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z855" s="9">
+        <v>14</v>
+      </c>
+      <c r="AG855" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH855" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK855" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL855" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A856" s="38">
+        <v>855</v>
+      </c>
+      <c r="B856" s="38">
+        <v>10781</v>
+      </c>
+      <c r="F856" s="38">
+        <v>1</v>
+      </c>
+      <c r="G856" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H856" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="I856" s="38" t="s">
+        <v>2343</v>
+      </c>
+      <c r="K856" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L856" s="38">
+        <v>0</v>
+      </c>
+      <c r="M856" s="38">
+        <v>0</v>
+      </c>
+      <c r="N856" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O856" s="38">
+        <v>100</v>
+      </c>
+      <c r="P856" s="38" t="s">
+        <v>2344</v>
+      </c>
+      <c r="Q856" s="41" t="s">
+        <v>2345</v>
+      </c>
+      <c r="V856" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W856" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X856" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y856" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z856" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG856" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH856" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK856" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL856" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A857" s="38">
+        <v>856</v>
+      </c>
+      <c r="B857" s="38">
+        <v>10782</v>
+      </c>
+      <c r="F857" s="38">
+        <v>1</v>
+      </c>
+      <c r="G857" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H857" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="I857" s="38" t="s">
+        <v>2346</v>
+      </c>
+      <c r="K857" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L857" s="38">
+        <v>0</v>
+      </c>
+      <c r="M857" s="38">
+        <v>0</v>
+      </c>
+      <c r="N857" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O857" s="38">
+        <v>300</v>
+      </c>
+      <c r="P857" s="38" t="s">
+        <v>2344</v>
+      </c>
+      <c r="Q857" s="41" t="s">
+        <v>2347</v>
+      </c>
+      <c r="V857" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W857" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X857" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y857" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z857" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG857" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH857" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK857" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL857" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A858" s="38">
+        <v>857</v>
+      </c>
+      <c r="B858" s="38">
+        <v>10783</v>
+      </c>
+      <c r="F858" s="38">
+        <v>1</v>
+      </c>
+      <c r="G858" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H858" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="I858" s="38" t="s">
+        <v>2348</v>
+      </c>
+      <c r="K858" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L858" s="38">
+        <v>0</v>
+      </c>
+      <c r="M858" s="38">
+        <v>0</v>
+      </c>
+      <c r="N858" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O858" s="38">
+        <v>600</v>
+      </c>
+      <c r="P858" s="38" t="s">
+        <v>2344</v>
+      </c>
+      <c r="Q858" s="41" t="s">
+        <v>2349</v>
+      </c>
+      <c r="V858" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W858" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X858" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y858" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z858" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG858" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH858" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK858" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL858" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A859" s="38">
+        <v>858</v>
+      </c>
+      <c r="B859" s="38">
+        <v>10784</v>
+      </c>
+      <c r="F859" s="38">
+        <v>1</v>
+      </c>
+      <c r="G859" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H859" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="I859" s="38" t="s">
+        <v>2350</v>
+      </c>
+      <c r="K859" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L859" s="38">
+        <v>0</v>
+      </c>
+      <c r="M859" s="38">
+        <v>0</v>
+      </c>
+      <c r="N859" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O859" s="38">
+        <v>600</v>
+      </c>
+      <c r="P859" s="38" t="s">
+        <v>2344</v>
+      </c>
+      <c r="Q859" s="41" t="s">
+        <v>2351</v>
+      </c>
+      <c r="V859" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W859" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X859" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y859" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z859" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG859" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH859" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK859" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL859" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A860" s="38">
+        <v>859</v>
+      </c>
+      <c r="B860" s="38">
+        <v>10785</v>
+      </c>
+      <c r="F860" s="38">
+        <v>1</v>
+      </c>
+      <c r="G860" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H860" s="38" t="s">
+        <v>2352</v>
+      </c>
+      <c r="I860" s="38" t="s">
+        <v>2353</v>
+      </c>
+      <c r="K860" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L860" s="38">
+        <v>0</v>
+      </c>
+      <c r="M860" s="38">
+        <v>0</v>
+      </c>
+      <c r="N860" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O860" s="38">
+        <v>1000</v>
+      </c>
+      <c r="P860" s="38" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q860" s="41" t="s">
+        <v>2355</v>
+      </c>
+      <c r="V860" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W860" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X860" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y860" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z860" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG860" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH860" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK860" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL860" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A861" s="38">
+        <v>860</v>
+      </c>
+      <c r="B861" s="38">
+        <v>10786</v>
+      </c>
+      <c r="F861" s="38">
+        <v>1</v>
+      </c>
+      <c r="G861" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H861" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="I861" s="38" t="s">
+        <v>2356</v>
+      </c>
+      <c r="K861" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L861" s="38">
+        <v>0</v>
+      </c>
+      <c r="M861" s="38">
+        <v>0</v>
+      </c>
+      <c r="N861" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O861" s="38">
+        <v>1800</v>
+      </c>
+      <c r="P861" s="38" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q861" s="41" t="s">
+        <v>2357</v>
+      </c>
+      <c r="V861" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W861" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X861" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y861" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z861" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG861" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH861" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK861" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL861" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A862" s="38">
+        <v>861</v>
+      </c>
+      <c r="B862" s="38">
+        <v>10787</v>
+      </c>
+      <c r="F862" s="38">
+        <v>1</v>
+      </c>
+      <c r="G862" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H862" s="38" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I862" s="38" t="s">
+        <v>2359</v>
+      </c>
+      <c r="K862" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L862" s="38">
+        <v>0</v>
+      </c>
+      <c r="M862" s="38">
+        <v>0</v>
+      </c>
+      <c r="N862" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O862" s="38">
+        <v>1800</v>
+      </c>
+      <c r="P862" s="38" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q862" s="41" t="s">
+        <v>2360</v>
+      </c>
+      <c r="V862" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W862" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X862" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y862" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z862" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG862" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH862" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK862" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL862" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A863" s="38">
+        <v>862</v>
+      </c>
+      <c r="B863" s="38">
+        <v>10788</v>
+      </c>
+      <c r="F863" s="38">
+        <v>1</v>
+      </c>
+      <c r="G863" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H863" s="38" t="s">
+        <v>2361</v>
+      </c>
+      <c r="I863" s="38" t="s">
+        <v>2362</v>
+      </c>
+      <c r="K863" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L863" s="38">
+        <v>0</v>
+      </c>
+      <c r="M863" s="38">
+        <v>0</v>
+      </c>
+      <c r="N863" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O863" s="38">
+        <v>4800</v>
+      </c>
+      <c r="P863" s="38" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q863" s="41" t="s">
+        <v>2363</v>
+      </c>
+      <c r="V863" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W863" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X863" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y863" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z863" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG863" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH863" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK863" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL863" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A864" s="38">
+        <v>863</v>
+      </c>
+      <c r="B864" s="38">
+        <v>10789</v>
+      </c>
+      <c r="F864" s="38">
+        <v>1</v>
+      </c>
+      <c r="G864" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H864" s="38" t="s">
+        <v>2364</v>
+      </c>
+      <c r="I864" s="38" t="s">
+        <v>2365</v>
+      </c>
+      <c r="K864" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L864" s="38">
+        <v>0</v>
+      </c>
+      <c r="M864" s="38">
+        <v>0</v>
+      </c>
+      <c r="N864" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O864" s="38">
+        <v>9800</v>
+      </c>
+      <c r="P864" s="38" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q864" s="41" t="s">
+        <v>2366</v>
+      </c>
+      <c r="V864" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W864" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X864" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y864" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z864" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG864" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH864" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK864" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL864" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A865" s="38">
+        <v>864</v>
+      </c>
+      <c r="B865" s="38">
+        <v>10790</v>
+      </c>
+      <c r="F865" s="38">
+        <v>1</v>
+      </c>
+      <c r="G865" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H865" s="38" t="s">
+        <v>2367</v>
+      </c>
+      <c r="I865" s="38" t="s">
+        <v>2362</v>
+      </c>
+      <c r="K865" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L865" s="38">
+        <v>0</v>
+      </c>
+      <c r="M865" s="38">
+        <v>0</v>
+      </c>
+      <c r="N865" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O865" s="38">
+        <v>4800</v>
+      </c>
+      <c r="P865" s="38" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q865" s="41" t="s">
+        <v>2363</v>
+      </c>
+      <c r="V865" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W865" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X865" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y865" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z865" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG865" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH865" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK865" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL865" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A866" s="38">
+        <v>865</v>
+      </c>
+      <c r="B866" s="38">
+        <v>10791</v>
+      </c>
+      <c r="F866" s="38">
+        <v>1</v>
+      </c>
+      <c r="G866" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H866" s="38" t="s">
+        <v>2368</v>
+      </c>
+      <c r="I866" s="38" t="s">
+        <v>2365</v>
+      </c>
+      <c r="K866" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L866" s="38">
+        <v>0</v>
+      </c>
+      <c r="M866" s="38">
+        <v>0</v>
+      </c>
+      <c r="N866" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O866" s="38">
+        <v>9800</v>
+      </c>
+      <c r="P866" s="38" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q866" s="41" t="s">
+        <v>2366</v>
+      </c>
+      <c r="V866" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W866" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X866" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y866" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z866" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG866" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH866" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK866" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL866" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A867" s="38">
+        <v>866</v>
+      </c>
+      <c r="B867" s="38">
+        <v>10792</v>
+      </c>
+      <c r="F867" s="38">
+        <v>1</v>
+      </c>
+      <c r="G867" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H867" s="38" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I867" s="38" t="s">
+        <v>2370</v>
+      </c>
+      <c r="K867" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L867" s="38">
+        <v>0</v>
+      </c>
+      <c r="M867" s="38">
+        <v>0</v>
+      </c>
+      <c r="N867" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O867" s="38">
+        <v>19800</v>
+      </c>
+      <c r="P867" s="38" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q867" s="41" t="s">
+        <v>2371</v>
+      </c>
+      <c r="V867" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W867" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X867" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y867" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z867" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG867" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH867" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK867" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL867" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A868" s="38">
+        <v>867</v>
+      </c>
+      <c r="B868" s="38">
+        <v>10793</v>
+      </c>
+      <c r="F868" s="38">
+        <v>1</v>
+      </c>
+      <c r="G868" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H868" s="38" t="s">
+        <v>2372</v>
+      </c>
+      <c r="I868" s="38" t="s">
+        <v>2365</v>
+      </c>
+      <c r="K868" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L868" s="38">
+        <v>0</v>
+      </c>
+      <c r="M868" s="38">
+        <v>0</v>
+      </c>
+      <c r="N868" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O868" s="38">
+        <v>9800</v>
+      </c>
+      <c r="P868" s="38" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q868" s="41" t="s">
+        <v>2366</v>
+      </c>
+      <c r="V868" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W868" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X868" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y868" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z868" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG868" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH868" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK868" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL868" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A869" s="38">
+        <v>868</v>
+      </c>
+      <c r="B869" s="38">
+        <v>10794</v>
+      </c>
+      <c r="F869" s="38">
+        <v>1</v>
+      </c>
+      <c r="G869" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H869" s="38" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I869" s="38" t="s">
+        <v>2370</v>
+      </c>
+      <c r="K869" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L869" s="38">
+        <v>0</v>
+      </c>
+      <c r="M869" s="38">
+        <v>0</v>
+      </c>
+      <c r="N869" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O869" s="38">
+        <v>19800</v>
+      </c>
+      <c r="P869" s="38" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q869" s="41" t="s">
+        <v>2371</v>
+      </c>
+      <c r="V869" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W869" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X869" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y869" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z869" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG869" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH869" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK869" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL869" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A870" s="38">
+        <v>869</v>
+      </c>
+      <c r="B870" s="38">
+        <v>10795</v>
+      </c>
+      <c r="F870" s="38">
+        <v>1</v>
+      </c>
+      <c r="G870" s="38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H870" s="38" t="s">
+        <v>2374</v>
+      </c>
+      <c r="I870" s="38" t="s">
+        <v>2375</v>
+      </c>
+      <c r="K870" s="38">
+        <v>-28</v>
+      </c>
+      <c r="L870" s="38">
+        <v>0</v>
+      </c>
+      <c r="M870" s="38">
+        <v>0</v>
+      </c>
+      <c r="N870" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O870" s="38">
+        <v>49800</v>
+      </c>
+      <c r="P870" s="38" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q870" s="41" t="s">
+        <v>2376</v>
+      </c>
+      <c r="V870" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="W870" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X870" s="38">
+        <v>1581377400</v>
+      </c>
+      <c r="Y870" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z870" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG870" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH870" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK870" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL870" s="38">
         <v>1</v>
       </c>
     </row>
@@ -68111,8 +69653,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_hlw/shoping_config.xlsx
+++ b/config_hlw/shoping_config.xlsx
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6665" uniqueCount="2382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="2471">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9964,15 +9964,9 @@
     <t>"100万金币","30元现金",</t>
   </si>
   <si>
-    <t>1000000,</t>
-  </si>
-  <si>
     <t>"600万金币","198元现金",</t>
   </si>
   <si>
-    <t>6000000,</t>
-  </si>
-  <si>
     <t>每日特惠礼包</t>
   </si>
   <si>
@@ -9982,27 +9976,15 @@
     <t>"jing_bi","prop_3d_fish_lock",</t>
   </si>
   <si>
-    <t>200000,1,</t>
-  </si>
-  <si>
     <t>"15万金币","35万金币","锁定*2",</t>
   </si>
   <si>
-    <t>500000,2,</t>
-  </si>
-  <si>
     <t>"30万金币","60万金币","锁定*3",</t>
   </si>
   <si>
-    <t>900000,3,</t>
-  </si>
-  <si>
     <t>"30万金币","50万金币","锁定*3",</t>
   </si>
   <si>
-    <t>800000,3,</t>
-  </si>
-  <si>
     <t>小额用户10元</t>
   </si>
   <si>
@@ -10012,42 +9994,27 @@
     <t>"jing_bi","prop_tiny_game_coin",</t>
   </si>
   <si>
-    <t>1200000,100000,</t>
-  </si>
-  <si>
     <t>"90万金币","110万金币","20万小游戏币",</t>
   </si>
   <si>
-    <t>2000000,200000,</t>
-  </si>
-  <si>
     <t>v1-3用户18元</t>
   </si>
   <si>
     <t>"90万金币","100万金币","10万小游戏币",</t>
   </si>
   <si>
-    <t>1900000,100000,</t>
-  </si>
-  <si>
     <t>v1-3用户48元</t>
   </si>
   <si>
     <t>"240万金币","260万金币","10万小游戏币",</t>
   </si>
   <si>
-    <t>5000000,100000,</t>
-  </si>
-  <si>
     <t>v1-3用户98元</t>
   </si>
   <si>
     <t>"490万金币","520万金币","20万小游戏币",</t>
   </si>
   <si>
-    <t>10100000,200000,</t>
-  </si>
-  <si>
     <t>v4-7用户48元</t>
   </si>
   <si>
@@ -10060,9 +10027,6 @@
     <t>"990万金币","1070万金币","30万小游戏币",</t>
   </si>
   <si>
-    <t>20600000,300000,</t>
-  </si>
-  <si>
     <t>v8以上用户98元</t>
   </si>
   <si>
@@ -10075,29 +10039,372 @@
     <t>"2490万金币","2640万金币","50万小游戏币",</t>
   </si>
   <si>
-    <t>51300000,500000,</t>
-  </si>
-  <si>
     <t>每日特惠礼包新用户6元</t>
   </si>
   <si>
     <t>"30万金币","40万金币","5万小游戏币",</t>
   </si>
   <si>
-    <t>700000,50000,</t>
-  </si>
-  <si>
     <t>每日特惠礼包新用户48元</t>
   </si>
   <si>
     <t>每日特惠礼包新用户98元</t>
+  </si>
+  <si>
+    <t>聚划算8元-1</t>
+  </si>
+  <si>
+    <t>聚划算8元1</t>
+  </si>
+  <si>
+    <t>"80万金币","2.4万金币",</t>
+  </si>
+  <si>
+    <t>聚划算8元-2</t>
+  </si>
+  <si>
+    <t>聚划算8元2</t>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币",</t>
+  </si>
+  <si>
+    <t>聚划算8元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算8元2（10min）</t>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币","0.8万",</t>
+  </si>
+  <si>
+    <t>聚划算38元-1</t>
+  </si>
+  <si>
+    <t>聚划算38元1</t>
+  </si>
+  <si>
+    <t>"380万金币","11万金币",</t>
+  </si>
+  <si>
+    <t>聚划算38元-2</t>
+  </si>
+  <si>
+    <t>聚划算38元2</t>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币",</t>
+  </si>
+  <si>
+    <t>聚划算38元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元2（10min）</t>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币","3.8万",</t>
+  </si>
+  <si>
+    <t>聚划算98元-1</t>
+  </si>
+  <si>
+    <t>聚划算98元1</t>
+  </si>
+  <si>
+    <t>"980万金币","29万金币",</t>
+  </si>
+  <si>
+    <t>聚划算98元-2</t>
+  </si>
+  <si>
+    <t>聚划算98元2</t>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币",</t>
+  </si>
+  <si>
+    <t>聚划算98元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算98元2（10min）</t>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币","9.8万",</t>
+  </si>
+  <si>
+    <t>聚划算198元-1</t>
+  </si>
+  <si>
+    <t>聚划算198元1</t>
+  </si>
+  <si>
+    <t>"1980万金币","59万金币",</t>
+  </si>
+  <si>
+    <t>聚划算198元-2</t>
+  </si>
+  <si>
+    <t>聚划算198元2</t>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币",</t>
+  </si>
+  <si>
+    <t>聚划算198元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算198元2（10min）</t>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币","19.8万",</t>
+  </si>
+  <si>
+    <t>聚划算498元-1</t>
+  </si>
+  <si>
+    <t>聚划算498元1</t>
+  </si>
+  <si>
+    <t>"4980万金币","149万金币",</t>
+  </si>
+  <si>
+    <t>聚划算498元-2</t>
+  </si>
+  <si>
+    <t>聚划算498元2</t>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币",</t>
+  </si>
+  <si>
+    <t>聚划算498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算498元2（10min）</t>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币","49.8万",</t>
+  </si>
+  <si>
+    <t>聚划算998元-1</t>
+  </si>
+  <si>
+    <t>聚划算998元1</t>
+  </si>
+  <si>
+    <t>"9980万金币","299万金币",</t>
+  </si>
+  <si>
+    <t>聚划算998元-2</t>
+  </si>
+  <si>
+    <t>聚划算998元2</t>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币",</t>
+  </si>
+  <si>
+    <t>聚划算998元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算998元2（10min）</t>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币","99.8万",</t>
+  </si>
+  <si>
+    <t>聚划算2498元-1</t>
+  </si>
+  <si>
+    <t>聚划算2498元1</t>
+  </si>
+  <si>
+    <t>"24980万金币","749万金币",</t>
+  </si>
+  <si>
+    <t>聚划算2498元-2</t>
+  </si>
+  <si>
+    <t>聚划算2498元2</t>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币",</t>
+  </si>
+  <si>
+    <t>聚划算2498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算2498元2（10min）</t>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币","249.8万",</t>
+  </si>
+  <si>
+    <t>82400,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>84800,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>85600,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>391000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>402800,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>406600,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1038800,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1048600,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2039000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2098800,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2118600,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5129000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5278800,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5328600,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10279000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10578800,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10678600,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>25729000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>26478800,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>26728600,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000,10000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,20000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>190000,10000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,10000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010000,20000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,10000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010000,20000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2060000,30000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2060000,30000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5130000,50000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>70000,5000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,10000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10190,8 +10497,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10246,6 +10559,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -10289,7 +10608,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10442,6 +10761,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12857,13 +13182,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AM870"/>
+  <dimension ref="A1:AM891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H842" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H845" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A852" sqref="A852:A870"/>
+      <selection pane="bottomRight" activeCell="J851" sqref="J851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -68270,7 +68595,7 @@
         <v>117</v>
       </c>
       <c r="Q850" s="41" t="s">
-        <v>120</v>
+        <v>2468</v>
       </c>
       <c r="V850" s="38" t="s">
         <v>775</v>
@@ -68335,7 +68660,7 @@
         <v>117</v>
       </c>
       <c r="Q851" s="41" t="s">
-        <v>2339</v>
+        <v>2469</v>
       </c>
       <c r="V851" s="38" t="s">
         <v>879</v>
@@ -68376,7 +68701,7 @@
         <v>515</v>
       </c>
       <c r="I852" s="38" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="K852" s="38">
         <v>-28</v>
@@ -68397,7 +68722,7 @@
         <v>117</v>
       </c>
       <c r="Q852" s="41" t="s">
-        <v>2341</v>
+        <v>2470</v>
       </c>
       <c r="V852" s="38" t="s">
         <v>879</v>
@@ -68435,10 +68760,10 @@
         <v>1</v>
       </c>
       <c r="G853" s="9" t="s">
-        <v>2377</v>
+        <v>2364</v>
       </c>
       <c r="I853" s="9" t="s">
-        <v>2378</v>
+        <v>2365</v>
       </c>
       <c r="K853" s="9">
         <v>-28</v>
@@ -68456,10 +68781,10 @@
         <v>600</v>
       </c>
       <c r="P853" s="9" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q853" s="14" t="s">
-        <v>2379</v>
+        <v>2466</v>
       </c>
       <c r="V853" s="9" t="s">
         <v>778</v>
@@ -68500,10 +68825,10 @@
         <v>1</v>
       </c>
       <c r="G854" s="9" t="s">
-        <v>2380</v>
+        <v>2366</v>
       </c>
       <c r="I854" s="9" t="s">
-        <v>2362</v>
+        <v>2353</v>
       </c>
       <c r="K854" s="9">
         <v>-28</v>
@@ -68521,10 +68846,10 @@
         <v>4800</v>
       </c>
       <c r="P854" s="9" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q854" s="14" t="s">
-        <v>2363</v>
+        <v>2467</v>
       </c>
       <c r="V854" s="9" t="s">
         <v>778</v>
@@ -68565,10 +68890,10 @@
         <v>1</v>
       </c>
       <c r="G855" s="9" t="s">
-        <v>2381</v>
+        <v>2367</v>
       </c>
       <c r="I855" s="9" t="s">
-        <v>2365</v>
+        <v>2355</v>
       </c>
       <c r="K855" s="9">
         <v>-28</v>
@@ -68586,10 +68911,10 @@
         <v>9800</v>
       </c>
       <c r="P855" s="9" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q855" s="14" t="s">
-        <v>2366</v>
+        <v>2461</v>
       </c>
       <c r="V855" s="9" t="s">
         <v>778</v>
@@ -68630,13 +68955,13 @@
         <v>1</v>
       </c>
       <c r="G856" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H856" s="38" t="s">
         <v>518</v>
       </c>
       <c r="I856" s="38" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="K856" s="38">
         <v>-28</v>
@@ -68654,10 +68979,10 @@
         <v>100</v>
       </c>
       <c r="P856" s="38" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="Q856" s="41" t="s">
-        <v>2345</v>
+        <v>2452</v>
       </c>
       <c r="V856" s="38" t="s">
         <v>778</v>
@@ -68698,13 +69023,13 @@
         <v>1</v>
       </c>
       <c r="G857" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H857" s="38" t="s">
         <v>521</v>
       </c>
       <c r="I857" s="38" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="K857" s="38">
         <v>-28</v>
@@ -68722,10 +69047,10 @@
         <v>300</v>
       </c>
       <c r="P857" s="38" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="Q857" s="41" t="s">
-        <v>2347</v>
+        <v>2465</v>
       </c>
       <c r="V857" s="38" t="s">
         <v>778</v>
@@ -68766,13 +69091,13 @@
         <v>1</v>
       </c>
       <c r="G858" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H858" s="38" t="s">
         <v>524</v>
       </c>
       <c r="I858" s="38" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="K858" s="38">
         <v>-28</v>
@@ -68790,10 +69115,10 @@
         <v>600</v>
       </c>
       <c r="P858" s="38" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="Q858" s="41" t="s">
-        <v>2349</v>
+        <v>2453</v>
       </c>
       <c r="V858" s="38" t="s">
         <v>778</v>
@@ -68834,13 +69159,13 @@
         <v>1</v>
       </c>
       <c r="G859" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H859" s="38" t="s">
         <v>527</v>
       </c>
       <c r="I859" s="38" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="K859" s="38">
         <v>-28</v>
@@ -68858,10 +69183,10 @@
         <v>600</v>
       </c>
       <c r="P859" s="38" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="Q859" s="41" t="s">
-        <v>2351</v>
+        <v>2454</v>
       </c>
       <c r="V859" s="38" t="s">
         <v>778</v>
@@ -68902,13 +69227,13 @@
         <v>1</v>
       </c>
       <c r="G860" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H860" s="38" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="I860" s="38" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="K860" s="38">
         <v>-28</v>
@@ -68926,10 +69251,10 @@
         <v>1000</v>
       </c>
       <c r="P860" s="38" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q860" s="41" t="s">
-        <v>2355</v>
+        <v>2455</v>
       </c>
       <c r="V860" s="38" t="s">
         <v>778</v>
@@ -68970,13 +69295,13 @@
         <v>1</v>
       </c>
       <c r="G861" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H861" s="38" t="s">
         <v>533</v>
       </c>
       <c r="I861" s="38" t="s">
-        <v>2356</v>
+        <v>2349</v>
       </c>
       <c r="K861" s="38">
         <v>-28</v>
@@ -68994,10 +69319,10 @@
         <v>1800</v>
       </c>
       <c r="P861" s="38" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q861" s="41" t="s">
-        <v>2357</v>
+        <v>2456</v>
       </c>
       <c r="V861" s="38" t="s">
         <v>778</v>
@@ -69038,13 +69363,13 @@
         <v>1</v>
       </c>
       <c r="G862" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H862" s="38" t="s">
-        <v>2358</v>
+        <v>2350</v>
       </c>
       <c r="I862" s="38" t="s">
-        <v>2359</v>
+        <v>2351</v>
       </c>
       <c r="K862" s="38">
         <v>-28</v>
@@ -69062,10 +69387,10 @@
         <v>1800</v>
       </c>
       <c r="P862" s="38" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q862" s="41" t="s">
-        <v>2360</v>
+        <v>2457</v>
       </c>
       <c r="V862" s="38" t="s">
         <v>778</v>
@@ -69106,13 +69431,13 @@
         <v>1</v>
       </c>
       <c r="G863" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H863" s="38" t="s">
-        <v>2361</v>
+        <v>2352</v>
       </c>
       <c r="I863" s="38" t="s">
-        <v>2362</v>
+        <v>2353</v>
       </c>
       <c r="K863" s="38">
         <v>-28</v>
@@ -69130,10 +69455,10 @@
         <v>4800</v>
       </c>
       <c r="P863" s="38" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q863" s="41" t="s">
-        <v>2363</v>
+        <v>2458</v>
       </c>
       <c r="V863" s="38" t="s">
         <v>778</v>
@@ -69174,13 +69499,13 @@
         <v>1</v>
       </c>
       <c r="G864" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H864" s="38" t="s">
-        <v>2364</v>
+        <v>2354</v>
       </c>
       <c r="I864" s="38" t="s">
-        <v>2365</v>
+        <v>2355</v>
       </c>
       <c r="K864" s="38">
         <v>-28</v>
@@ -69198,10 +69523,10 @@
         <v>9800</v>
       </c>
       <c r="P864" s="38" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q864" s="41" t="s">
-        <v>2366</v>
+        <v>2459</v>
       </c>
       <c r="V864" s="38" t="s">
         <v>778</v>
@@ -69242,13 +69567,13 @@
         <v>1</v>
       </c>
       <c r="G865" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H865" s="38" t="s">
-        <v>2367</v>
+        <v>2356</v>
       </c>
       <c r="I865" s="38" t="s">
-        <v>2362</v>
+        <v>2353</v>
       </c>
       <c r="K865" s="38">
         <v>-28</v>
@@ -69266,10 +69591,10 @@
         <v>4800</v>
       </c>
       <c r="P865" s="38" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q865" s="41" t="s">
-        <v>2363</v>
+        <v>2460</v>
       </c>
       <c r="V865" s="38" t="s">
         <v>778</v>
@@ -69310,13 +69635,13 @@
         <v>1</v>
       </c>
       <c r="G866" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H866" s="38" t="s">
-        <v>2368</v>
+        <v>2357</v>
       </c>
       <c r="I866" s="38" t="s">
-        <v>2365</v>
+        <v>2355</v>
       </c>
       <c r="K866" s="38">
         <v>-28</v>
@@ -69334,10 +69659,10 @@
         <v>9800</v>
       </c>
       <c r="P866" s="38" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q866" s="41" t="s">
-        <v>2366</v>
+        <v>2461</v>
       </c>
       <c r="V866" s="38" t="s">
         <v>778</v>
@@ -69378,13 +69703,13 @@
         <v>1</v>
       </c>
       <c r="G867" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H867" s="38" t="s">
-        <v>2369</v>
+        <v>2358</v>
       </c>
       <c r="I867" s="38" t="s">
-        <v>2370</v>
+        <v>2359</v>
       </c>
       <c r="K867" s="38">
         <v>-28</v>
@@ -69402,10 +69727,10 @@
         <v>19800</v>
       </c>
       <c r="P867" s="38" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q867" s="41" t="s">
-        <v>2371</v>
+        <v>2462</v>
       </c>
       <c r="V867" s="38" t="s">
         <v>778</v>
@@ -69446,13 +69771,13 @@
         <v>1</v>
       </c>
       <c r="G868" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H868" s="38" t="s">
-        <v>2372</v>
+        <v>2360</v>
       </c>
       <c r="I868" s="38" t="s">
-        <v>2365</v>
+        <v>2355</v>
       </c>
       <c r="K868" s="38">
         <v>-28</v>
@@ -69470,10 +69795,10 @@
         <v>9800</v>
       </c>
       <c r="P868" s="38" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q868" s="41" t="s">
-        <v>2366</v>
+        <v>2461</v>
       </c>
       <c r="V868" s="38" t="s">
         <v>778</v>
@@ -69514,13 +69839,13 @@
         <v>1</v>
       </c>
       <c r="G869" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H869" s="38" t="s">
-        <v>2373</v>
+        <v>2361</v>
       </c>
       <c r="I869" s="38" t="s">
-        <v>2370</v>
+        <v>2359</v>
       </c>
       <c r="K869" s="38">
         <v>-28</v>
@@ -69538,10 +69863,10 @@
         <v>19800</v>
       </c>
       <c r="P869" s="38" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q869" s="41" t="s">
-        <v>2371</v>
+        <v>2463</v>
       </c>
       <c r="V869" s="38" t="s">
         <v>778</v>
@@ -69582,13 +69907,13 @@
         <v>1</v>
       </c>
       <c r="G870" s="38" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H870" s="38" t="s">
-        <v>2374</v>
+        <v>2362</v>
       </c>
       <c r="I870" s="38" t="s">
-        <v>2375</v>
+        <v>2363</v>
       </c>
       <c r="K870" s="38">
         <v>-28</v>
@@ -69606,10 +69931,10 @@
         <v>49800</v>
       </c>
       <c r="P870" s="38" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="Q870" s="41" t="s">
-        <v>2376</v>
+        <v>2464</v>
       </c>
       <c r="V870" s="38" t="s">
         <v>778</v>
@@ -69636,6 +69961,1413 @@
         <v>1</v>
       </c>
       <c r="AL870" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A871" s="38">
+        <v>870</v>
+      </c>
+      <c r="B871" s="38">
+        <v>10796</v>
+      </c>
+      <c r="F871" s="51">
+        <v>1</v>
+      </c>
+      <c r="G871" s="51" t="s">
+        <v>2368</v>
+      </c>
+      <c r="H871" s="51" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I871" s="51" t="s">
+        <v>2370</v>
+      </c>
+      <c r="K871" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L871" s="51">
+        <v>0</v>
+      </c>
+      <c r="M871" s="51">
+        <v>0</v>
+      </c>
+      <c r="N871" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O871" s="51">
+        <v>800</v>
+      </c>
+      <c r="P871" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q871" s="52" t="s">
+        <v>2431</v>
+      </c>
+      <c r="V871" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W871" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X871" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y871" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z871" s="51">
+        <v>52</v>
+      </c>
+      <c r="AG871" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH871" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK871" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL871" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A872" s="38">
+        <v>871</v>
+      </c>
+      <c r="B872" s="38">
+        <v>10797</v>
+      </c>
+      <c r="F872" s="51">
+        <v>1</v>
+      </c>
+      <c r="G872" s="51" t="s">
+        <v>2371</v>
+      </c>
+      <c r="H872" s="51" t="s">
+        <v>2372</v>
+      </c>
+      <c r="I872" s="51" t="s">
+        <v>2373</v>
+      </c>
+      <c r="K872" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L872" s="51">
+        <v>0</v>
+      </c>
+      <c r="M872" s="51">
+        <v>0</v>
+      </c>
+      <c r="N872" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O872" s="51">
+        <v>800</v>
+      </c>
+      <c r="P872" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q872" s="52" t="s">
+        <v>2432</v>
+      </c>
+      <c r="V872" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W872" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X872" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y872" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="AG872" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH872" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK872" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL872" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A873" s="38">
+        <v>872</v>
+      </c>
+      <c r="B873" s="38">
+        <v>10798</v>
+      </c>
+      <c r="F873" s="51">
+        <v>1</v>
+      </c>
+      <c r="G873" s="51" t="s">
+        <v>2374</v>
+      </c>
+      <c r="H873" s="51" t="s">
+        <v>2375</v>
+      </c>
+      <c r="I873" s="51" t="s">
+        <v>2376</v>
+      </c>
+      <c r="K873" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L873" s="51">
+        <v>0</v>
+      </c>
+      <c r="M873" s="51">
+        <v>0</v>
+      </c>
+      <c r="N873" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O873" s="51">
+        <v>800</v>
+      </c>
+      <c r="P873" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q873" s="52" t="s">
+        <v>2433</v>
+      </c>
+      <c r="V873" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W873" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X873" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y873" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z873" s="51">
+        <v>53</v>
+      </c>
+      <c r="AG873" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH873" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK873" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL873" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A874" s="38">
+        <v>873</v>
+      </c>
+      <c r="B874" s="38">
+        <v>10799</v>
+      </c>
+      <c r="F874" s="51">
+        <v>1</v>
+      </c>
+      <c r="G874" s="51" t="s">
+        <v>2377</v>
+      </c>
+      <c r="H874" s="51" t="s">
+        <v>2378</v>
+      </c>
+      <c r="I874" s="51" t="s">
+        <v>2379</v>
+      </c>
+      <c r="K874" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L874" s="51">
+        <v>0</v>
+      </c>
+      <c r="M874" s="51">
+        <v>0</v>
+      </c>
+      <c r="N874" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O874" s="51">
+        <v>3800</v>
+      </c>
+      <c r="P874" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q874" s="52" t="s">
+        <v>2434</v>
+      </c>
+      <c r="V874" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W874" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X874" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y874" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z874" s="51">
+        <v>54</v>
+      </c>
+      <c r="AG874" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH874" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK874" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL874" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A875" s="38">
+        <v>874</v>
+      </c>
+      <c r="B875" s="38">
+        <v>10800</v>
+      </c>
+      <c r="F875" s="51">
+        <v>1</v>
+      </c>
+      <c r="G875" s="51" t="s">
+        <v>2380</v>
+      </c>
+      <c r="H875" s="51" t="s">
+        <v>2381</v>
+      </c>
+      <c r="I875" s="51" t="s">
+        <v>2382</v>
+      </c>
+      <c r="K875" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L875" s="51">
+        <v>0</v>
+      </c>
+      <c r="M875" s="51">
+        <v>0</v>
+      </c>
+      <c r="N875" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O875" s="51">
+        <v>3800</v>
+      </c>
+      <c r="P875" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q875" s="52" t="s">
+        <v>2435</v>
+      </c>
+      <c r="V875" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W875" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X875" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y875" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="AG875" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH875" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK875" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL875" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:38" s="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A876" s="38">
+        <v>875</v>
+      </c>
+      <c r="B876" s="38">
+        <v>10801</v>
+      </c>
+      <c r="F876" s="51">
+        <v>1</v>
+      </c>
+      <c r="G876" s="51" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H876" s="51" t="s">
+        <v>2384</v>
+      </c>
+      <c r="I876" s="51" t="s">
+        <v>2385</v>
+      </c>
+      <c r="K876" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L876" s="51">
+        <v>0</v>
+      </c>
+      <c r="M876" s="51">
+        <v>0</v>
+      </c>
+      <c r="N876" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O876" s="51">
+        <v>3800</v>
+      </c>
+      <c r="P876" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q876" s="52" t="s">
+        <v>2436</v>
+      </c>
+      <c r="V876" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W876" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X876" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y876" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z876" s="51">
+        <v>55</v>
+      </c>
+      <c r="AG876" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH876" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK876" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL876" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A877" s="38">
+        <v>876</v>
+      </c>
+      <c r="B877" s="38">
+        <v>10802</v>
+      </c>
+      <c r="F877" s="51">
+        <v>1</v>
+      </c>
+      <c r="G877" s="51" t="s">
+        <v>2386</v>
+      </c>
+      <c r="H877" s="51" t="s">
+        <v>2387</v>
+      </c>
+      <c r="I877" s="51" t="s">
+        <v>2388</v>
+      </c>
+      <c r="K877" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L877" s="51">
+        <v>0</v>
+      </c>
+      <c r="M877" s="51">
+        <v>0</v>
+      </c>
+      <c r="N877" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O877" s="51">
+        <v>9800</v>
+      </c>
+      <c r="P877" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q877" s="52" t="s">
+        <v>2437</v>
+      </c>
+      <c r="V877" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W877" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X877" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y877" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z877" s="51">
+        <v>56</v>
+      </c>
+      <c r="AG877" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH877" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK877" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL877" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A878" s="38">
+        <v>877</v>
+      </c>
+      <c r="B878" s="38">
+        <v>10803</v>
+      </c>
+      <c r="F878" s="51">
+        <v>1</v>
+      </c>
+      <c r="G878" s="51" t="s">
+        <v>2389</v>
+      </c>
+      <c r="H878" s="51" t="s">
+        <v>2390</v>
+      </c>
+      <c r="I878" s="51" t="s">
+        <v>2391</v>
+      </c>
+      <c r="K878" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L878" s="51">
+        <v>0</v>
+      </c>
+      <c r="M878" s="51">
+        <v>0</v>
+      </c>
+      <c r="N878" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O878" s="51">
+        <v>9800</v>
+      </c>
+      <c r="P878" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q878" s="52" t="s">
+        <v>2438</v>
+      </c>
+      <c r="V878" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W878" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X878" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y878" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="AG878" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH878" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK878" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL878" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A879" s="38">
+        <v>878</v>
+      </c>
+      <c r="B879" s="38">
+        <v>10804</v>
+      </c>
+      <c r="F879" s="51">
+        <v>1</v>
+      </c>
+      <c r="G879" s="51" t="s">
+        <v>2392</v>
+      </c>
+      <c r="H879" s="51" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I879" s="51" t="s">
+        <v>2394</v>
+      </c>
+      <c r="K879" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L879" s="51">
+        <v>0</v>
+      </c>
+      <c r="M879" s="51">
+        <v>0</v>
+      </c>
+      <c r="N879" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O879" s="51">
+        <v>9800</v>
+      </c>
+      <c r="P879" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q879" s="52" t="s">
+        <v>2439</v>
+      </c>
+      <c r="V879" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W879" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X879" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y879" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z879" s="51">
+        <v>57</v>
+      </c>
+      <c r="AG879" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH879" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK879" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL879" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A880" s="38">
+        <v>879</v>
+      </c>
+      <c r="B880" s="38">
+        <v>10805</v>
+      </c>
+      <c r="F880" s="51">
+        <v>1</v>
+      </c>
+      <c r="G880" s="51" t="s">
+        <v>2395</v>
+      </c>
+      <c r="H880" s="51" t="s">
+        <v>2396</v>
+      </c>
+      <c r="I880" s="51" t="s">
+        <v>2397</v>
+      </c>
+      <c r="K880" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L880" s="51">
+        <v>0</v>
+      </c>
+      <c r="M880" s="51">
+        <v>0</v>
+      </c>
+      <c r="N880" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O880" s="51">
+        <v>19800</v>
+      </c>
+      <c r="P880" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q880" s="52" t="s">
+        <v>2440</v>
+      </c>
+      <c r="V880" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W880" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X880" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y880" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z880" s="51">
+        <v>58</v>
+      </c>
+      <c r="AG880" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH880" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK880" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL880" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A881" s="38">
+        <v>880</v>
+      </c>
+      <c r="B881" s="38">
+        <v>10806</v>
+      </c>
+      <c r="F881" s="51">
+        <v>1</v>
+      </c>
+      <c r="G881" s="51" t="s">
+        <v>2398</v>
+      </c>
+      <c r="H881" s="51" t="s">
+        <v>2399</v>
+      </c>
+      <c r="I881" s="51" t="s">
+        <v>2400</v>
+      </c>
+      <c r="K881" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L881" s="51">
+        <v>0</v>
+      </c>
+      <c r="M881" s="51">
+        <v>0</v>
+      </c>
+      <c r="N881" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O881" s="51">
+        <v>19800</v>
+      </c>
+      <c r="P881" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q881" s="52" t="s">
+        <v>2441</v>
+      </c>
+      <c r="V881" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W881" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X881" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y881" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="AG881" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH881" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK881" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL881" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A882" s="38">
+        <v>881</v>
+      </c>
+      <c r="B882" s="38">
+        <v>10807</v>
+      </c>
+      <c r="F882" s="51">
+        <v>1</v>
+      </c>
+      <c r="G882" s="51" t="s">
+        <v>2401</v>
+      </c>
+      <c r="H882" s="51" t="s">
+        <v>2402</v>
+      </c>
+      <c r="I882" s="51" t="s">
+        <v>2403</v>
+      </c>
+      <c r="K882" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L882" s="51">
+        <v>0</v>
+      </c>
+      <c r="M882" s="51">
+        <v>0</v>
+      </c>
+      <c r="N882" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O882" s="51">
+        <v>19800</v>
+      </c>
+      <c r="P882" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q882" s="52" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V882" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W882" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X882" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y882" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z882" s="51">
+        <v>59</v>
+      </c>
+      <c r="AG882" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH882" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK882" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL882" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A883" s="38">
+        <v>882</v>
+      </c>
+      <c r="B883" s="38">
+        <v>10808</v>
+      </c>
+      <c r="F883" s="51">
+        <v>1</v>
+      </c>
+      <c r="G883" s="51" t="s">
+        <v>2404</v>
+      </c>
+      <c r="H883" s="51" t="s">
+        <v>2405</v>
+      </c>
+      <c r="I883" s="51" t="s">
+        <v>2406</v>
+      </c>
+      <c r="K883" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L883" s="51">
+        <v>0</v>
+      </c>
+      <c r="M883" s="51">
+        <v>0</v>
+      </c>
+      <c r="N883" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O883" s="51">
+        <v>49800</v>
+      </c>
+      <c r="P883" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q883" s="52" t="s">
+        <v>2443</v>
+      </c>
+      <c r="V883" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W883" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X883" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y883" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z883" s="51">
+        <v>60</v>
+      </c>
+      <c r="AG883" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH883" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK883" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL883" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A884" s="38">
+        <v>883</v>
+      </c>
+      <c r="B884" s="38">
+        <v>10809</v>
+      </c>
+      <c r="F884" s="51">
+        <v>1</v>
+      </c>
+      <c r="G884" s="51" t="s">
+        <v>2407</v>
+      </c>
+      <c r="H884" s="51" t="s">
+        <v>2408</v>
+      </c>
+      <c r="I884" s="51" t="s">
+        <v>2409</v>
+      </c>
+      <c r="K884" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L884" s="51">
+        <v>0</v>
+      </c>
+      <c r="M884" s="51">
+        <v>0</v>
+      </c>
+      <c r="N884" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O884" s="51">
+        <v>49800</v>
+      </c>
+      <c r="P884" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q884" s="52" t="s">
+        <v>2444</v>
+      </c>
+      <c r="V884" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W884" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X884" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y884" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="AG884" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH884" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK884" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL884" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A885" s="38">
+        <v>884</v>
+      </c>
+      <c r="B885" s="38">
+        <v>10810</v>
+      </c>
+      <c r="F885" s="51">
+        <v>1</v>
+      </c>
+      <c r="G885" s="51" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H885" s="51" t="s">
+        <v>2411</v>
+      </c>
+      <c r="I885" s="51" t="s">
+        <v>2412</v>
+      </c>
+      <c r="K885" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L885" s="51">
+        <v>0</v>
+      </c>
+      <c r="M885" s="51">
+        <v>0</v>
+      </c>
+      <c r="N885" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O885" s="51">
+        <v>49800</v>
+      </c>
+      <c r="P885" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q885" s="52" t="s">
+        <v>2445</v>
+      </c>
+      <c r="V885" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W885" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X885" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y885" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z885" s="51">
+        <v>61</v>
+      </c>
+      <c r="AG885" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH885" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK885" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL885" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A886" s="38">
+        <v>885</v>
+      </c>
+      <c r="B886" s="38">
+        <v>10811</v>
+      </c>
+      <c r="F886" s="51">
+        <v>1</v>
+      </c>
+      <c r="G886" s="51" t="s">
+        <v>2413</v>
+      </c>
+      <c r="H886" s="51" t="s">
+        <v>2414</v>
+      </c>
+      <c r="I886" s="51" t="s">
+        <v>2415</v>
+      </c>
+      <c r="K886" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L886" s="51">
+        <v>0</v>
+      </c>
+      <c r="M886" s="51">
+        <v>0</v>
+      </c>
+      <c r="N886" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O886" s="51">
+        <v>99800</v>
+      </c>
+      <c r="P886" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q886" s="52" t="s">
+        <v>2446</v>
+      </c>
+      <c r="V886" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W886" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X886" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y886" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z886" s="51">
+        <v>62</v>
+      </c>
+      <c r="AG886" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH886" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK886" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL886" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A887" s="38">
+        <v>886</v>
+      </c>
+      <c r="B887" s="38">
+        <v>10812</v>
+      </c>
+      <c r="F887" s="51">
+        <v>1</v>
+      </c>
+      <c r="G887" s="51" t="s">
+        <v>2416</v>
+      </c>
+      <c r="H887" s="51" t="s">
+        <v>2417</v>
+      </c>
+      <c r="I887" s="51" t="s">
+        <v>2418</v>
+      </c>
+      <c r="K887" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L887" s="51">
+        <v>0</v>
+      </c>
+      <c r="M887" s="51">
+        <v>0</v>
+      </c>
+      <c r="N887" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O887" s="51">
+        <v>99800</v>
+      </c>
+      <c r="P887" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q887" s="52" t="s">
+        <v>2447</v>
+      </c>
+      <c r="V887" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W887" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X887" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y887" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="AG887" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH887" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK887" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL887" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A888" s="38">
+        <v>887</v>
+      </c>
+      <c r="B888" s="38">
+        <v>10813</v>
+      </c>
+      <c r="F888" s="51">
+        <v>1</v>
+      </c>
+      <c r="G888" s="51" t="s">
+        <v>2419</v>
+      </c>
+      <c r="H888" s="51" t="s">
+        <v>2420</v>
+      </c>
+      <c r="I888" s="51" t="s">
+        <v>2421</v>
+      </c>
+      <c r="K888" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L888" s="51">
+        <v>0</v>
+      </c>
+      <c r="M888" s="51">
+        <v>0</v>
+      </c>
+      <c r="N888" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O888" s="51">
+        <v>99800</v>
+      </c>
+      <c r="P888" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q888" s="52" t="s">
+        <v>2448</v>
+      </c>
+      <c r="V888" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W888" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X888" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y888" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z888" s="51">
+        <v>63</v>
+      </c>
+      <c r="AG888" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH888" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK888" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL888" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A889" s="38">
+        <v>888</v>
+      </c>
+      <c r="B889" s="38">
+        <v>10814</v>
+      </c>
+      <c r="F889" s="51">
+        <v>1</v>
+      </c>
+      <c r="G889" s="51" t="s">
+        <v>2422</v>
+      </c>
+      <c r="H889" s="51" t="s">
+        <v>2423</v>
+      </c>
+      <c r="I889" s="51" t="s">
+        <v>2424</v>
+      </c>
+      <c r="K889" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L889" s="51">
+        <v>0</v>
+      </c>
+      <c r="M889" s="51">
+        <v>0</v>
+      </c>
+      <c r="N889" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O889" s="51">
+        <v>249800</v>
+      </c>
+      <c r="P889" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q889" s="52" t="s">
+        <v>2449</v>
+      </c>
+      <c r="V889" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W889" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X889" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y889" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z889" s="51">
+        <v>64</v>
+      </c>
+      <c r="AG889" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH889" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK889" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL889" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A890" s="38">
+        <v>889</v>
+      </c>
+      <c r="B890" s="38">
+        <v>10815</v>
+      </c>
+      <c r="F890" s="51">
+        <v>1</v>
+      </c>
+      <c r="G890" s="51" t="s">
+        <v>2425</v>
+      </c>
+      <c r="H890" s="51" t="s">
+        <v>2426</v>
+      </c>
+      <c r="I890" s="51" t="s">
+        <v>2427</v>
+      </c>
+      <c r="K890" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L890" s="51">
+        <v>0</v>
+      </c>
+      <c r="M890" s="51">
+        <v>0</v>
+      </c>
+      <c r="N890" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O890" s="51">
+        <v>249800</v>
+      </c>
+      <c r="P890" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q890" s="52" t="s">
+        <v>2450</v>
+      </c>
+      <c r="V890" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W890" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X890" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y890" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="AG890" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH890" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK890" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL890" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A891" s="38">
+        <v>890</v>
+      </c>
+      <c r="B891" s="38">
+        <v>10816</v>
+      </c>
+      <c r="F891" s="51">
+        <v>1</v>
+      </c>
+      <c r="G891" s="51" t="s">
+        <v>2428</v>
+      </c>
+      <c r="H891" s="51" t="s">
+        <v>2429</v>
+      </c>
+      <c r="I891" s="51" t="s">
+        <v>2430</v>
+      </c>
+      <c r="K891" s="51">
+        <v>-31</v>
+      </c>
+      <c r="L891" s="51">
+        <v>0</v>
+      </c>
+      <c r="M891" s="51">
+        <v>0</v>
+      </c>
+      <c r="N891" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="O891" s="51">
+        <v>249800</v>
+      </c>
+      <c r="P891" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q891" s="52" t="s">
+        <v>2451</v>
+      </c>
+      <c r="V891" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="W891" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="X891" s="51">
+        <v>1605571200</v>
+      </c>
+      <c r="Y891" s="51">
+        <v>2552233600</v>
+      </c>
+      <c r="Z891" s="51">
+        <v>65</v>
+      </c>
+      <c r="AG891" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH891" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK891" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL891" s="51">
         <v>1</v>
       </c>
     </row>

--- a/config_hlw/shoping_config.xlsx
+++ b/config_hlw/shoping_config.xlsx
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="2471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6844" uniqueCount="2487">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -10397,6 +10397,63 @@
   </si>
   <si>
     <t>600000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包</t>
+  </si>
+  <si>
+    <t>VIP2直通礼包</t>
+  </si>
+  <si>
+    <t>{730,850,100},</t>
+  </si>
+  <si>
+    <t>VIP3直通礼包</t>
+  </si>
+  <si>
+    <t>{1350,1550,100},</t>
+  </si>
+  <si>
+    <t>VIP4直通礼包</t>
+  </si>
+  <si>
+    <t>{3600,3800,100},</t>
+  </si>
+  <si>
+    <t>"10万金币","5话费碎片","0.3～10福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","20话费碎片","6～200福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"780万金币","200话费碎片","35～800福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","50话费碎片","12～300福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7800000,200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{40,50,100},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10501,6 +10558,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -13182,13 +13240,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AM891"/>
+  <dimension ref="A1:AM895"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H845" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H878" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J851" sqref="J851"/>
+      <selection pane="bottomRight" activeCell="H889" sqref="H889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -71371,6 +71429,310 @@
         <v>1</v>
       </c>
     </row>
+    <row r="892" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A892" s="38">
+        <v>891</v>
+      </c>
+      <c r="B892" s="38">
+        <v>10817</v>
+      </c>
+      <c r="F892" s="38">
+        <v>1</v>
+      </c>
+      <c r="G892" s="38" t="s">
+        <v>2471</v>
+      </c>
+      <c r="I892" s="38" t="s">
+        <v>2478</v>
+      </c>
+      <c r="K892" s="38">
+        <v>-31</v>
+      </c>
+      <c r="L892" s="38">
+        <v>0</v>
+      </c>
+      <c r="M892" s="38">
+        <v>0</v>
+      </c>
+      <c r="N892" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O892" s="38">
+        <v>1000</v>
+      </c>
+      <c r="P892" s="38" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Q892" s="50" t="s">
+        <v>2482</v>
+      </c>
+      <c r="V892" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="W892" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X892" s="38">
+        <v>1585609200</v>
+      </c>
+      <c r="Y892" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="AA892" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB892" s="38" t="s">
+        <v>2486</v>
+      </c>
+      <c r="AG892" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH892" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK892" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL892" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:38" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A893" s="38">
+        <v>892</v>
+      </c>
+      <c r="B893" s="38">
+        <v>10818</v>
+      </c>
+      <c r="F893" s="38">
+        <v>1</v>
+      </c>
+      <c r="G893" s="38" t="s">
+        <v>2472</v>
+      </c>
+      <c r="I893" s="38" t="s">
+        <v>2479</v>
+      </c>
+      <c r="K893" s="38">
+        <v>-31</v>
+      </c>
+      <c r="L893" s="38">
+        <v>0</v>
+      </c>
+      <c r="M893" s="38">
+        <v>0</v>
+      </c>
+      <c r="N893" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O893" s="38">
+        <v>19800</v>
+      </c>
+      <c r="P893" s="38" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Q893" s="50" t="s">
+        <v>2483</v>
+      </c>
+      <c r="V893" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="W893" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X893" s="38">
+        <v>1585609200</v>
+      </c>
+      <c r="Y893" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="AA893" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB893" s="38" t="s">
+        <v>2473</v>
+      </c>
+      <c r="AG893" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH893" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK893" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL893" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A894" s="38">
+        <v>893</v>
+      </c>
+      <c r="B894" s="38">
+        <v>10819</v>
+      </c>
+      <c r="C894" s="38"/>
+      <c r="D894" s="38"/>
+      <c r="E894" s="38"/>
+      <c r="F894" s="38">
+        <v>1</v>
+      </c>
+      <c r="G894" s="38" t="s">
+        <v>2474</v>
+      </c>
+      <c r="H894" s="38"/>
+      <c r="I894" s="38" t="s">
+        <v>2481</v>
+      </c>
+      <c r="J894" s="38"/>
+      <c r="K894" s="38">
+        <v>-31</v>
+      </c>
+      <c r="L894" s="38">
+        <v>0</v>
+      </c>
+      <c r="M894" s="38">
+        <v>0</v>
+      </c>
+      <c r="N894" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O894" s="38">
+        <v>30000</v>
+      </c>
+      <c r="P894" s="38" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Q894" s="50" t="s">
+        <v>2484</v>
+      </c>
+      <c r="R894" s="38"/>
+      <c r="S894" s="38"/>
+      <c r="T894" s="38"/>
+      <c r="U894" s="38"/>
+      <c r="V894" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="W894" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X894" s="38">
+        <v>1585609200</v>
+      </c>
+      <c r="Y894" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z894" s="38"/>
+      <c r="AA894" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB894" s="38" t="s">
+        <v>2475</v>
+      </c>
+      <c r="AC894" s="38"/>
+      <c r="AD894" s="38"/>
+      <c r="AE894" s="38"/>
+      <c r="AF894" s="38"/>
+      <c r="AG894" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH894" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI894" s="38"/>
+      <c r="AJ894" s="38"/>
+      <c r="AK894" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL894" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A895" s="38">
+        <v>894</v>
+      </c>
+      <c r="B895" s="38">
+        <v>10820</v>
+      </c>
+      <c r="C895" s="38"/>
+      <c r="D895" s="38"/>
+      <c r="E895" s="38"/>
+      <c r="F895" s="38">
+        <v>1</v>
+      </c>
+      <c r="G895" s="38" t="s">
+        <v>2476</v>
+      </c>
+      <c r="H895" s="38"/>
+      <c r="I895" s="38" t="s">
+        <v>2480</v>
+      </c>
+      <c r="J895" s="38"/>
+      <c r="K895" s="38">
+        <v>-31</v>
+      </c>
+      <c r="L895" s="38">
+        <v>0</v>
+      </c>
+      <c r="M895" s="38">
+        <v>0</v>
+      </c>
+      <c r="N895" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O895" s="38">
+        <v>78000</v>
+      </c>
+      <c r="P895" s="38" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Q895" s="50" t="s">
+        <v>2485</v>
+      </c>
+      <c r="R895" s="38"/>
+      <c r="S895" s="38"/>
+      <c r="T895" s="38"/>
+      <c r="U895" s="38"/>
+      <c r="V895" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="W895" s="38">
+        <v>9999999</v>
+      </c>
+      <c r="X895" s="38">
+        <v>1585609200</v>
+      </c>
+      <c r="Y895" s="38">
+        <v>2552233600</v>
+      </c>
+      <c r="Z895" s="38"/>
+      <c r="AA895" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB895" s="38" t="s">
+        <v>2477</v>
+      </c>
+      <c r="AC895" s="38"/>
+      <c r="AD895" s="38"/>
+      <c r="AE895" s="38"/>
+      <c r="AF895" s="38"/>
+      <c r="AG895" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH895" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI895" s="38"/>
+      <c r="AJ895" s="38"/>
+      <c r="AK895" s="38">
+        <v>1</v>
+      </c>
+      <c r="AL895" s="38">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM614"/>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_hlw/shoping_config.xlsx
+++ b/config_hlw/shoping_config.xlsx
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6844" uniqueCount="2487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6928" uniqueCount="2507">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -10454,6 +10454,86 @@
   </si>
   <si>
     <t>{40,50,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4980000,180000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980000,80000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>980000,38000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>480000,18000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>480000,18000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,12000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000,7000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000,30000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新玩家，免费小额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,20000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,10000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新玩家，免费小额</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -13240,13 +13320,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AM895"/>
+  <dimension ref="A1:AM907"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H878" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H889" sqref="H889"/>
+      <selection pane="bottomRight" activeCell="F897" sqref="F897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -71733,6 +71813,822 @@
         <v>1</v>
       </c>
     </row>
+    <row r="896" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A896" s="38">
+        <v>895</v>
+      </c>
+      <c r="B896" s="38">
+        <v>10821</v>
+      </c>
+      <c r="F896" s="9">
+        <v>1</v>
+      </c>
+      <c r="G896" s="9" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H896" s="9" t="s">
+        <v>2506</v>
+      </c>
+      <c r="I896" s="9" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K896" s="9">
+        <v>-33</v>
+      </c>
+      <c r="L896" s="9">
+        <v>0</v>
+      </c>
+      <c r="M896" s="9">
+        <v>0</v>
+      </c>
+      <c r="N896" s="9" t="s">
+        <v>2495</v>
+      </c>
+      <c r="O896" s="9">
+        <v>600</v>
+      </c>
+      <c r="P896" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q896" s="9" t="s">
+        <v>2505</v>
+      </c>
+      <c r="V896" s="9" t="s">
+        <v>2492</v>
+      </c>
+      <c r="W896" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="X896" s="9">
+        <v>1621294200</v>
+      </c>
+      <c r="Y896" s="9">
+        <v>1621871999</v>
+      </c>
+      <c r="Z896" s="9">
+        <v>111</v>
+      </c>
+      <c r="AG896" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH896" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK896" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL896" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A897" s="38">
+        <v>896</v>
+      </c>
+      <c r="B897" s="38">
+        <v>10822</v>
+      </c>
+      <c r="F897" s="9">
+        <v>1</v>
+      </c>
+      <c r="G897" s="9" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H897" s="9" t="s">
+        <v>2503</v>
+      </c>
+      <c r="I897" s="9" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K897" s="9">
+        <v>-33</v>
+      </c>
+      <c r="L897" s="9">
+        <v>0</v>
+      </c>
+      <c r="M897" s="9">
+        <v>0</v>
+      </c>
+      <c r="N897" s="9" t="s">
+        <v>2489</v>
+      </c>
+      <c r="O897" s="9">
+        <v>1000</v>
+      </c>
+      <c r="P897" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q897" s="9" t="s">
+        <v>2504</v>
+      </c>
+      <c r="V897" s="9" t="s">
+        <v>2492</v>
+      </c>
+      <c r="W897" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="X897" s="9">
+        <v>1621294200</v>
+      </c>
+      <c r="Y897" s="9">
+        <v>1621871999</v>
+      </c>
+      <c r="Z897" s="9">
+        <v>111</v>
+      </c>
+      <c r="AG897" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH897" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK897" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL897" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A898" s="38">
+        <v>897</v>
+      </c>
+      <c r="B898" s="38">
+        <v>10823</v>
+      </c>
+      <c r="F898" s="9">
+        <v>1</v>
+      </c>
+      <c r="G898" s="9" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H898" s="9" t="s">
+        <v>2503</v>
+      </c>
+      <c r="I898" s="9" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K898" s="9">
+        <v>-33</v>
+      </c>
+      <c r="L898" s="9">
+        <v>0</v>
+      </c>
+      <c r="M898" s="9">
+        <v>0</v>
+      </c>
+      <c r="N898" s="9" t="s">
+        <v>2489</v>
+      </c>
+      <c r="O898" s="9">
+        <v>1800</v>
+      </c>
+      <c r="P898" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q898" s="9" t="s">
+        <v>2502</v>
+      </c>
+      <c r="V898" s="9" t="s">
+        <v>2487</v>
+      </c>
+      <c r="W898" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="X898" s="9">
+        <v>1621294200</v>
+      </c>
+      <c r="Y898" s="9">
+        <v>1621871999</v>
+      </c>
+      <c r="Z898" s="9">
+        <v>111</v>
+      </c>
+      <c r="AG898" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH898" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK898" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL898" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A899" s="38">
+        <v>898</v>
+      </c>
+      <c r="B899" s="38">
+        <v>10824</v>
+      </c>
+      <c r="F899" s="9">
+        <v>1</v>
+      </c>
+      <c r="G899" s="9" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H899" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I899" s="9" t="s">
+        <v>2308</v>
+      </c>
+      <c r="K899" s="9">
+        <v>-33</v>
+      </c>
+      <c r="L899" s="9">
+        <v>0</v>
+      </c>
+      <c r="M899" s="9">
+        <v>0</v>
+      </c>
+      <c r="N899" s="9" t="s">
+        <v>2489</v>
+      </c>
+      <c r="O899" s="9">
+        <v>1800</v>
+      </c>
+      <c r="P899" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q899" s="9" t="s">
+        <v>2500</v>
+      </c>
+      <c r="V899" s="9" t="s">
+        <v>2487</v>
+      </c>
+      <c r="W899" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="X899" s="9">
+        <v>1621294200</v>
+      </c>
+      <c r="Y899" s="9">
+        <v>1621871999</v>
+      </c>
+      <c r="Z899" s="9">
+        <v>112</v>
+      </c>
+      <c r="AG899" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH899" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK899" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL899" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A900" s="38">
+        <v>899</v>
+      </c>
+      <c r="B900" s="38">
+        <v>10825</v>
+      </c>
+      <c r="F900" s="9">
+        <v>1</v>
+      </c>
+      <c r="G900" s="9" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H900" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I900" s="9" t="s">
+        <v>2309</v>
+      </c>
+      <c r="K900" s="9">
+        <v>-33</v>
+      </c>
+      <c r="L900" s="9">
+        <v>0</v>
+      </c>
+      <c r="M900" s="9">
+        <v>0</v>
+      </c>
+      <c r="N900" s="9" t="s">
+        <v>2489</v>
+      </c>
+      <c r="O900" s="9">
+        <v>3000</v>
+      </c>
+      <c r="P900" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q900" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="V900" s="9" t="s">
+        <v>2487</v>
+      </c>
+      <c r="W900" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="X900" s="9">
+        <v>1621294200</v>
+      </c>
+      <c r="Y900" s="9">
+        <v>1621871999</v>
+      </c>
+      <c r="Z900" s="9">
+        <v>112</v>
+      </c>
+      <c r="AG900" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH900" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK900" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL900" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A901" s="38">
+        <v>900</v>
+      </c>
+      <c r="B901" s="38">
+        <v>10826</v>
+      </c>
+      <c r="F901" s="9">
+        <v>1</v>
+      </c>
+      <c r="G901" s="9" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H901" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I901" s="9" t="s">
+        <v>2310</v>
+      </c>
+      <c r="K901" s="9">
+        <v>-33</v>
+      </c>
+      <c r="L901" s="9">
+        <v>0</v>
+      </c>
+      <c r="M901" s="9">
+        <v>0</v>
+      </c>
+      <c r="N901" s="9" t="s">
+        <v>2495</v>
+      </c>
+      <c r="O901" s="9">
+        <v>4800</v>
+      </c>
+      <c r="P901" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q901" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="V901" s="9" t="s">
+        <v>2492</v>
+      </c>
+      <c r="W901" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="X901" s="9">
+        <v>1621294200</v>
+      </c>
+      <c r="Y901" s="9">
+        <v>1621871999</v>
+      </c>
+      <c r="Z901" s="9">
+        <v>112</v>
+      </c>
+      <c r="AG901" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH901" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK901" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL901" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A902" s="38">
+        <v>901</v>
+      </c>
+      <c r="B902" s="38">
+        <v>10827</v>
+      </c>
+      <c r="F902" s="9">
+        <v>1</v>
+      </c>
+      <c r="G902" s="9" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H902" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="I902" s="9" t="s">
+        <v>2310</v>
+      </c>
+      <c r="K902" s="9">
+        <v>-33</v>
+      </c>
+      <c r="L902" s="9">
+        <v>0</v>
+      </c>
+      <c r="M902" s="9">
+        <v>0</v>
+      </c>
+      <c r="N902" s="9" t="s">
+        <v>2495</v>
+      </c>
+      <c r="O902" s="9">
+        <v>4800</v>
+      </c>
+      <c r="P902" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q902" s="9" t="s">
+        <v>2496</v>
+      </c>
+      <c r="V902" s="9" t="s">
+        <v>2492</v>
+      </c>
+      <c r="W902" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="X902" s="9">
+        <v>1621294200</v>
+      </c>
+      <c r="Y902" s="9">
+        <v>1621871999</v>
+      </c>
+      <c r="Z902" s="9">
+        <v>113</v>
+      </c>
+      <c r="AG902" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH902" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK902" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL902" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A903" s="38">
+        <v>902</v>
+      </c>
+      <c r="B903" s="38">
+        <v>10828</v>
+      </c>
+      <c r="F903" s="9">
+        <v>1</v>
+      </c>
+      <c r="G903" s="9" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H903" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="I903" s="9" t="s">
+        <v>2311</v>
+      </c>
+      <c r="K903" s="9">
+        <v>-33</v>
+      </c>
+      <c r="L903" s="9">
+        <v>0</v>
+      </c>
+      <c r="M903" s="9">
+        <v>0</v>
+      </c>
+      <c r="N903" s="9" t="s">
+        <v>2495</v>
+      </c>
+      <c r="O903" s="9">
+        <v>9800</v>
+      </c>
+      <c r="P903" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q903" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="V903" s="9" t="s">
+        <v>2492</v>
+      </c>
+      <c r="W903" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="X903" s="9">
+        <v>1621294200</v>
+      </c>
+      <c r="Y903" s="9">
+        <v>1621871999</v>
+      </c>
+      <c r="Z903" s="9">
+        <v>113</v>
+      </c>
+      <c r="AG903" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH903" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK903" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL903" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A904" s="38">
+        <v>903</v>
+      </c>
+      <c r="B904" s="38">
+        <v>10829</v>
+      </c>
+      <c r="F904" s="9">
+        <v>1</v>
+      </c>
+      <c r="G904" s="9" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H904" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="I904" s="9" t="s">
+        <v>2312</v>
+      </c>
+      <c r="K904" s="9">
+        <v>-33</v>
+      </c>
+      <c r="L904" s="9">
+        <v>0</v>
+      </c>
+      <c r="M904" s="9">
+        <v>0</v>
+      </c>
+      <c r="N904" s="9" t="s">
+        <v>2489</v>
+      </c>
+      <c r="O904" s="9">
+        <v>19800</v>
+      </c>
+      <c r="P904" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q904" s="9" t="s">
+        <v>2491</v>
+      </c>
+      <c r="V904" s="9" t="s">
+        <v>2487</v>
+      </c>
+      <c r="W904" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="X904" s="9">
+        <v>1621294200</v>
+      </c>
+      <c r="Y904" s="9">
+        <v>1621871999</v>
+      </c>
+      <c r="Z904" s="9">
+        <v>113</v>
+      </c>
+      <c r="AG904" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH904" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK904" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL904" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A905" s="38">
+        <v>904</v>
+      </c>
+      <c r="B905" s="38">
+        <v>10830</v>
+      </c>
+      <c r="F905" s="9">
+        <v>1</v>
+      </c>
+      <c r="G905" s="9" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H905" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="I905" s="9" t="s">
+        <v>2311</v>
+      </c>
+      <c r="K905" s="9">
+        <v>-33</v>
+      </c>
+      <c r="L905" s="9">
+        <v>0</v>
+      </c>
+      <c r="M905" s="9">
+        <v>0</v>
+      </c>
+      <c r="N905" s="9" t="s">
+        <v>2489</v>
+      </c>
+      <c r="O905" s="9">
+        <v>9800</v>
+      </c>
+      <c r="P905" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q905" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="V905" s="9" t="s">
+        <v>2492</v>
+      </c>
+      <c r="W905" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="X905" s="9">
+        <v>1621294200</v>
+      </c>
+      <c r="Y905" s="9">
+        <v>1621871999</v>
+      </c>
+      <c r="Z905" s="9">
+        <v>114</v>
+      </c>
+      <c r="AG905" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH905" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK905" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL905" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A906" s="38">
+        <v>905</v>
+      </c>
+      <c r="B906" s="38">
+        <v>10831</v>
+      </c>
+      <c r="F906" s="9">
+        <v>1</v>
+      </c>
+      <c r="G906" s="9" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H906" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="I906" s="9" t="s">
+        <v>2312</v>
+      </c>
+      <c r="K906" s="9">
+        <v>-33</v>
+      </c>
+      <c r="L906" s="9">
+        <v>0</v>
+      </c>
+      <c r="M906" s="9">
+        <v>0</v>
+      </c>
+      <c r="N906" s="9" t="s">
+        <v>2489</v>
+      </c>
+      <c r="O906" s="9">
+        <v>19800</v>
+      </c>
+      <c r="P906" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q906" s="9" t="s">
+        <v>2491</v>
+      </c>
+      <c r="V906" s="9" t="s">
+        <v>2487</v>
+      </c>
+      <c r="W906" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="X906" s="9">
+        <v>1621294200</v>
+      </c>
+      <c r="Y906" s="9">
+        <v>1621871999</v>
+      </c>
+      <c r="Z906" s="9">
+        <v>114</v>
+      </c>
+      <c r="AG906" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH906" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK906" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL906" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A907" s="38">
+        <v>906</v>
+      </c>
+      <c r="B907" s="38">
+        <v>10832</v>
+      </c>
+      <c r="F907" s="9">
+        <v>1</v>
+      </c>
+      <c r="G907" s="9" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H907" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="I907" s="9" t="s">
+        <v>2313</v>
+      </c>
+      <c r="K907" s="9">
+        <v>-33</v>
+      </c>
+      <c r="L907" s="9">
+        <v>0</v>
+      </c>
+      <c r="M907" s="9">
+        <v>0</v>
+      </c>
+      <c r="N907" s="9" t="s">
+        <v>2489</v>
+      </c>
+      <c r="O907" s="9">
+        <v>49800</v>
+      </c>
+      <c r="P907" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q907" s="9" t="s">
+        <v>2488</v>
+      </c>
+      <c r="V907" s="9" t="s">
+        <v>2487</v>
+      </c>
+      <c r="W907" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="X907" s="9">
+        <v>1621294200</v>
+      </c>
+      <c r="Y907" s="9">
+        <v>1621871999</v>
+      </c>
+      <c r="Z907" s="9">
+        <v>114</v>
+      </c>
+      <c r="AG907" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH907" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK907" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL907" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM614"/>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_hlw/shoping_config.xlsx
+++ b/config_hlw/shoping_config.xlsx
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6928" uniqueCount="2507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6934" uniqueCount="2510">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -10534,6 +10534,16 @@
   </si>
   <si>
     <t>新玩家，免费小额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏畅玩卡</t>
+  </si>
+  <si>
+    <t>"50万金币",</t>
+  </si>
+  <si>
+    <t>500000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10642,7 +10652,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10703,6 +10713,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -10746,7 +10762,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10905,6 +10921,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13320,13 +13342,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AM907"/>
+  <dimension ref="A1:AM908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H878" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AI890" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F897" sqref="F897"/>
+      <selection pane="bottomRight" activeCell="AR908" sqref="AR908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -72629,6 +72651,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="908" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A908" s="9">
+        <v>907</v>
+      </c>
+      <c r="B908" s="53">
+        <v>10833</v>
+      </c>
+      <c r="F908" s="53">
+        <v>1</v>
+      </c>
+      <c r="G908" s="53" t="s">
+        <v>2507</v>
+      </c>
+      <c r="I908" s="53" t="s">
+        <v>2508</v>
+      </c>
+      <c r="K908" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L908" s="53">
+        <v>0</v>
+      </c>
+      <c r="M908" s="53">
+        <v>0</v>
+      </c>
+      <c r="N908" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="O908" s="53">
+        <v>9900</v>
+      </c>
+      <c r="P908" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q908" s="54" t="s">
+        <v>2509</v>
+      </c>
+      <c r="V908" s="53" t="s">
+        <v>777</v>
+      </c>
+      <c r="W908" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="X908" s="53">
+        <v>1592263800</v>
+      </c>
+      <c r="Y908" s="53">
+        <v>2552233600</v>
+      </c>
+      <c r="AG908" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH908" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK908" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL908" s="53">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM614"/>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_hlw/shoping_config.xlsx
+++ b/config_hlw/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6934" uniqueCount="2510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6948" uniqueCount="2524">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -10545,6 +10545,48 @@
   <si>
     <t>500000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
+  </si>
+  <si>
+    <t>{last=10363,reset_time=0}</t>
+  </si>
+  <si>
+    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
+  </si>
+  <si>
+    <t>{last=10366,reset_time=0}</t>
+  </si>
+  <si>
+    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
+  </si>
+  <si>
+    <t>{last=10369,reset_time=0}</t>
+  </si>
+  <si>
+    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
+  </si>
+  <si>
+    <t>{last=10372,reset_time=0}</t>
+  </si>
+  <si>
+    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
+  </si>
+  <si>
+    <t>{last=10375,reset_time=0}</t>
+  </si>
+  <si>
+    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
+  </si>
+  <si>
+    <t>{last=10378,reset_time=0}</t>
+  </si>
+  <si>
+    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
+  </si>
+  <si>
+    <t>{last=10381,reset_time=0}</t>
   </si>
 </sst>
 </file>
@@ -10652,7 +10694,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10719,6 +10761,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -10762,7 +10810,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10926,6 +10974,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13344,11 +13395,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AM908"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AI890" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Y866" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR908" sqref="AR908"/>
+      <selection pane="bottomRight" activeCell="Z892" sqref="Z892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -70177,7 +70228,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z871" s="51">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="AG871" s="51">
         <v>1</v>
@@ -70310,7 +70361,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z873" s="51">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="AG873" s="51">
         <v>1</v>
@@ -70378,7 +70429,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z874" s="51">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="AG874" s="51">
         <v>1</v>
@@ -70511,7 +70562,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z876" s="51">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="AG876" s="51">
         <v>1</v>
@@ -70579,7 +70630,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z877" s="51">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="AG877" s="51">
         <v>1</v>
@@ -70712,7 +70763,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z879" s="51">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="AG879" s="51">
         <v>1</v>
@@ -70780,7 +70831,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z880" s="51">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="AG880" s="51">
         <v>1</v>
@@ -70913,7 +70964,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z882" s="51">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="AG882" s="51">
         <v>1</v>
@@ -70981,7 +71032,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z883" s="51">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="AG883" s="51">
         <v>1</v>
@@ -71114,7 +71165,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z885" s="51">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="AG885" s="51">
         <v>1</v>
@@ -71182,7 +71233,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z886" s="51">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="AG886" s="51">
         <v>1</v>
@@ -71315,7 +71366,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z888" s="51">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="AG888" s="51">
         <v>1</v>
@@ -71383,7 +71434,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z889" s="51">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AG889" s="51">
         <v>1</v>
@@ -71516,7 +71567,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z891" s="51">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="AG891" s="51">
         <v>1</v>
@@ -72725,10 +72776,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74366,6 +74417,202 @@
       </c>
       <c r="D116" s="46">
         <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="47">
+        <v>116</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C117" s="22">
+        <v>1</v>
+      </c>
+      <c r="D117" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="47">
+        <v>117</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C118" s="22">
+        <v>1</v>
+      </c>
+      <c r="D118" s="22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="47">
+        <v>118</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C119" s="22">
+        <v>1</v>
+      </c>
+      <c r="D119" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="47">
+        <v>119</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C120" s="22">
+        <v>1</v>
+      </c>
+      <c r="D120" s="22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="47">
+        <v>120</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C121" s="22">
+        <v>1</v>
+      </c>
+      <c r="D121" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="47">
+        <v>121</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C122" s="22">
+        <v>1</v>
+      </c>
+      <c r="D122" s="22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="47">
+        <v>122</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C123" s="22">
+        <v>1</v>
+      </c>
+      <c r="D123" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="47">
+        <v>123</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C124" s="22">
+        <v>1</v>
+      </c>
+      <c r="D124" s="22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="47">
+        <v>124</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C125" s="22">
+        <v>1</v>
+      </c>
+      <c r="D125" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="47">
+        <v>125</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C126" s="22">
+        <v>1</v>
+      </c>
+      <c r="D126" s="22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="47">
+        <v>126</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C127" s="22">
+        <v>1</v>
+      </c>
+      <c r="D127" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="47">
+        <v>127</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C128" s="22">
+        <v>1</v>
+      </c>
+      <c r="D128" s="22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="47">
+        <v>128</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C129" s="22">
+        <v>1</v>
+      </c>
+      <c r="D129" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="47">
+        <v>129</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C130" s="22">
+        <v>1</v>
+      </c>
+      <c r="D130" s="22">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/shoping_config.xlsx
+++ b/config_hlw/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6948" uniqueCount="2524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7020" uniqueCount="2561">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -10587,6 +10587,129 @@
   </si>
   <si>
     <t>{last=10381,reset_time=0}</t>
+  </si>
+  <si>
+    <t>VIP1礼包</t>
+  </si>
+  <si>
+    <t>"75万金币","水滴*1","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+  </si>
+  <si>
+    <t>VIP2礼包</t>
+  </si>
+  <si>
+    <t>"318万金币","水滴*2","玩具锤*2",</t>
+  </si>
+  <si>
+    <t>VIP3礼包</t>
+  </si>
+  <si>
+    <t>"538万金币","水滴*3","玩具锤*3",</t>
+  </si>
+  <si>
+    <t>VIP4礼包</t>
+  </si>
+  <si>
+    <t>"1108万金币","水滴*4","玩具锤*4",</t>
+  </si>
+  <si>
+    <t>VIP5礼包</t>
+  </si>
+  <si>
+    <t>"2218万金币","水滴*5","玩具锤*5",</t>
+  </si>
+  <si>
+    <t>VIP6礼包</t>
+  </si>
+  <si>
+    <t>"3288万金币","水滴*6","玩具锤*6",</t>
+  </si>
+  <si>
+    <t>VIP7礼包</t>
+  </si>
+  <si>
+    <t>"4388万金币","水滴*7","玩具锤*7",</t>
+  </si>
+  <si>
+    <t>VIP8礼包</t>
+  </si>
+  <si>
+    <t>"5488万金币","水滴*8","玩具锤*8",</t>
+  </si>
+  <si>
+    <t>VIP9礼包</t>
+  </si>
+  <si>
+    <t>"6488万金币","水滴*10","玩具锤*10",</t>
+  </si>
+  <si>
+    <t>VIP10礼包</t>
+  </si>
+  <si>
+    <t>"7688万金币","水滴*20","玩具锤*20",</t>
+  </si>
+  <si>
+    <t>VIP11礼包</t>
+  </si>
+  <si>
+    <t>"8888万金币","水滴*30","玩具锤*30",</t>
+  </si>
+  <si>
+    <t>VIP12礼包</t>
+  </si>
+  <si>
+    <t>"9888万金币","水滴*40","玩具锤*40",</t>
+  </si>
+  <si>
+    <t>75000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>318000,2,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>538000,3,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1108000,4,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2218000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3288000,6,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4388000,7,7,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5488000,8,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6488000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7688000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888000,30,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9888000,40,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10810,7 +10933,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10977,6 +11100,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13393,13 +13522,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AM908"/>
+  <dimension ref="A1:AM920"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Y866" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H896" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z892" sqref="Z892"/>
+      <selection pane="bottomRight" activeCell="I914" sqref="I914"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -72764,6 +72893,956 @@
         <v>1</v>
       </c>
     </row>
+    <row r="909" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A909" s="9">
+        <v>908</v>
+      </c>
+      <c r="B909" s="53">
+        <v>10834</v>
+      </c>
+      <c r="C909" s="53"/>
+      <c r="D909" s="53"/>
+      <c r="E909" s="53"/>
+      <c r="F909" s="53">
+        <v>1</v>
+      </c>
+      <c r="G909" s="53" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H909" s="53"/>
+      <c r="I909" s="53" t="s">
+        <v>2525</v>
+      </c>
+      <c r="J909" s="53"/>
+      <c r="K909" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L909" s="53">
+        <v>0</v>
+      </c>
+      <c r="M909" s="53">
+        <v>0</v>
+      </c>
+      <c r="N909" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="O909" s="53">
+        <v>600</v>
+      </c>
+      <c r="P909" s="53" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q909" s="54" t="s">
+        <v>2549</v>
+      </c>
+      <c r="R909" s="53"/>
+      <c r="S909" s="53"/>
+      <c r="T909" s="53"/>
+      <c r="U909" s="53"/>
+      <c r="V909" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="W909" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="X909" s="53">
+        <v>1592263800</v>
+      </c>
+      <c r="Y909" s="53">
+        <v>2552233600</v>
+      </c>
+      <c r="Z909" s="53">
+        <v>14</v>
+      </c>
+      <c r="AA909" s="53"/>
+      <c r="AB909" s="53"/>
+      <c r="AC909" s="53"/>
+      <c r="AD909" s="53"/>
+      <c r="AE909" s="53"/>
+      <c r="AF909" s="53"/>
+      <c r="AG909" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH909" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI909" s="53"/>
+      <c r="AJ909" s="53"/>
+      <c r="AK909" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL909" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A910" s="9">
+        <v>909</v>
+      </c>
+      <c r="B910" s="53">
+        <v>10835</v>
+      </c>
+      <c r="C910" s="53"/>
+      <c r="D910" s="53"/>
+      <c r="E910" s="53"/>
+      <c r="F910" s="53">
+        <v>1</v>
+      </c>
+      <c r="G910" s="53" t="s">
+        <v>2527</v>
+      </c>
+      <c r="H910" s="53"/>
+      <c r="I910" s="53" t="s">
+        <v>2528</v>
+      </c>
+      <c r="J910" s="53"/>
+      <c r="K910" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L910" s="53">
+        <v>0</v>
+      </c>
+      <c r="M910" s="53">
+        <v>0</v>
+      </c>
+      <c r="N910" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="O910" s="53">
+        <v>2800</v>
+      </c>
+      <c r="P910" s="53" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q910" s="54" t="s">
+        <v>2550</v>
+      </c>
+      <c r="R910" s="53"/>
+      <c r="S910" s="53"/>
+      <c r="T910" s="53"/>
+      <c r="U910" s="53"/>
+      <c r="V910" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="W910" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="X910" s="53">
+        <v>1592263800</v>
+      </c>
+      <c r="Y910" s="53">
+        <v>2552233600</v>
+      </c>
+      <c r="Z910" s="53">
+        <v>14</v>
+      </c>
+      <c r="AA910" s="53"/>
+      <c r="AB910" s="53"/>
+      <c r="AC910" s="53"/>
+      <c r="AD910" s="53"/>
+      <c r="AE910" s="53"/>
+      <c r="AF910" s="53"/>
+      <c r="AG910" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH910" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI910" s="53"/>
+      <c r="AJ910" s="53"/>
+      <c r="AK910" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL910" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A911" s="9">
+        <v>910</v>
+      </c>
+      <c r="B911" s="53">
+        <v>10836</v>
+      </c>
+      <c r="C911" s="53"/>
+      <c r="D911" s="53"/>
+      <c r="E911" s="53"/>
+      <c r="F911" s="53">
+        <v>1</v>
+      </c>
+      <c r="G911" s="53" t="s">
+        <v>2529</v>
+      </c>
+      <c r="H911" s="53"/>
+      <c r="I911" s="53" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J911" s="53"/>
+      <c r="K911" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L911" s="53">
+        <v>0</v>
+      </c>
+      <c r="M911" s="53">
+        <v>0</v>
+      </c>
+      <c r="N911" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="O911" s="53">
+        <v>4800</v>
+      </c>
+      <c r="P911" s="53" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q911" s="54" t="s">
+        <v>2551</v>
+      </c>
+      <c r="R911" s="53"/>
+      <c r="S911" s="53"/>
+      <c r="T911" s="53"/>
+      <c r="U911" s="53"/>
+      <c r="V911" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="W911" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="X911" s="53">
+        <v>1592263800</v>
+      </c>
+      <c r="Y911" s="53">
+        <v>2552233600</v>
+      </c>
+      <c r="Z911" s="53">
+        <v>14</v>
+      </c>
+      <c r="AA911" s="53"/>
+      <c r="AB911" s="53"/>
+      <c r="AC911" s="53"/>
+      <c r="AD911" s="53"/>
+      <c r="AE911" s="53"/>
+      <c r="AF911" s="53"/>
+      <c r="AG911" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH911" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI911" s="53"/>
+      <c r="AJ911" s="53"/>
+      <c r="AK911" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL911" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A912" s="9">
+        <v>911</v>
+      </c>
+      <c r="B912" s="53">
+        <v>10837</v>
+      </c>
+      <c r="C912" s="53"/>
+      <c r="D912" s="53"/>
+      <c r="E912" s="53"/>
+      <c r="F912" s="53">
+        <v>1</v>
+      </c>
+      <c r="G912" s="53" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H912" s="53"/>
+      <c r="I912" s="53" t="s">
+        <v>2532</v>
+      </c>
+      <c r="J912" s="53"/>
+      <c r="K912" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L912" s="53">
+        <v>0</v>
+      </c>
+      <c r="M912" s="53">
+        <v>0</v>
+      </c>
+      <c r="N912" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="O912" s="53">
+        <v>9900</v>
+      </c>
+      <c r="P912" s="53" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q912" s="54" t="s">
+        <v>2552</v>
+      </c>
+      <c r="R912" s="53"/>
+      <c r="S912" s="53"/>
+      <c r="T912" s="53"/>
+      <c r="U912" s="53"/>
+      <c r="V912" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="W912" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="X912" s="53">
+        <v>1592263800</v>
+      </c>
+      <c r="Y912" s="53">
+        <v>2552233600</v>
+      </c>
+      <c r="Z912" s="53">
+        <v>14</v>
+      </c>
+      <c r="AA912" s="53"/>
+      <c r="AB912" s="53"/>
+      <c r="AC912" s="53"/>
+      <c r="AD912" s="53"/>
+      <c r="AE912" s="53"/>
+      <c r="AF912" s="53"/>
+      <c r="AG912" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH912" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI912" s="53"/>
+      <c r="AJ912" s="53"/>
+      <c r="AK912" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL912" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A913" s="9">
+        <v>912</v>
+      </c>
+      <c r="B913" s="53">
+        <v>10838</v>
+      </c>
+      <c r="C913" s="53"/>
+      <c r="D913" s="53"/>
+      <c r="E913" s="53"/>
+      <c r="F913" s="53">
+        <v>1</v>
+      </c>
+      <c r="G913" s="53" t="s">
+        <v>2533</v>
+      </c>
+      <c r="H913" s="53"/>
+      <c r="I913" s="53" t="s">
+        <v>2534</v>
+      </c>
+      <c r="J913" s="53"/>
+      <c r="K913" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L913" s="53">
+        <v>0</v>
+      </c>
+      <c r="M913" s="53">
+        <v>0</v>
+      </c>
+      <c r="N913" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="O913" s="53">
+        <v>19800</v>
+      </c>
+      <c r="P913" s="53" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q913" s="54" t="s">
+        <v>2553</v>
+      </c>
+      <c r="R913" s="53"/>
+      <c r="S913" s="53"/>
+      <c r="T913" s="53"/>
+      <c r="U913" s="53"/>
+      <c r="V913" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="W913" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="X913" s="53">
+        <v>1592263800</v>
+      </c>
+      <c r="Y913" s="53">
+        <v>2552233600</v>
+      </c>
+      <c r="Z913" s="53">
+        <v>14</v>
+      </c>
+      <c r="AA913" s="53"/>
+      <c r="AB913" s="53"/>
+      <c r="AC913" s="53"/>
+      <c r="AD913" s="53"/>
+      <c r="AE913" s="53"/>
+      <c r="AF913" s="53"/>
+      <c r="AG913" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH913" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI913" s="53"/>
+      <c r="AJ913" s="53"/>
+      <c r="AK913" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL913" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A914" s="9">
+        <v>913</v>
+      </c>
+      <c r="B914" s="53">
+        <v>10839</v>
+      </c>
+      <c r="C914" s="53"/>
+      <c r="D914" s="53"/>
+      <c r="E914" s="53"/>
+      <c r="F914" s="53">
+        <v>1</v>
+      </c>
+      <c r="G914" s="53" t="s">
+        <v>2535</v>
+      </c>
+      <c r="H914" s="53"/>
+      <c r="I914" s="53" t="s">
+        <v>2536</v>
+      </c>
+      <c r="J914" s="53"/>
+      <c r="K914" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L914" s="53">
+        <v>0</v>
+      </c>
+      <c r="M914" s="53">
+        <v>0</v>
+      </c>
+      <c r="N914" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="O914" s="53">
+        <v>29800</v>
+      </c>
+      <c r="P914" s="53" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q914" s="54" t="s">
+        <v>2554</v>
+      </c>
+      <c r="R914" s="53"/>
+      <c r="S914" s="53"/>
+      <c r="T914" s="53"/>
+      <c r="U914" s="53"/>
+      <c r="V914" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="W914" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="X914" s="53">
+        <v>1592263800</v>
+      </c>
+      <c r="Y914" s="53">
+        <v>2552233600</v>
+      </c>
+      <c r="Z914" s="53">
+        <v>14</v>
+      </c>
+      <c r="AA914" s="53"/>
+      <c r="AB914" s="53"/>
+      <c r="AC914" s="53"/>
+      <c r="AD914" s="53"/>
+      <c r="AE914" s="53"/>
+      <c r="AF914" s="53"/>
+      <c r="AG914" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH914" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI914" s="53"/>
+      <c r="AJ914" s="53"/>
+      <c r="AK914" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL914" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A915" s="9">
+        <v>914</v>
+      </c>
+      <c r="B915" s="53">
+        <v>10840</v>
+      </c>
+      <c r="C915" s="53"/>
+      <c r="D915" s="53"/>
+      <c r="E915" s="53"/>
+      <c r="F915" s="53">
+        <v>1</v>
+      </c>
+      <c r="G915" s="53" t="s">
+        <v>2537</v>
+      </c>
+      <c r="H915" s="53"/>
+      <c r="I915" s="53" t="s">
+        <v>2538</v>
+      </c>
+      <c r="J915" s="53"/>
+      <c r="K915" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L915" s="53">
+        <v>0</v>
+      </c>
+      <c r="M915" s="53">
+        <v>0</v>
+      </c>
+      <c r="N915" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="O915" s="53">
+        <v>39800</v>
+      </c>
+      <c r="P915" s="53" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q915" s="54" t="s">
+        <v>2555</v>
+      </c>
+      <c r="R915" s="53"/>
+      <c r="S915" s="53"/>
+      <c r="T915" s="53"/>
+      <c r="U915" s="53"/>
+      <c r="V915" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="W915" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="X915" s="53">
+        <v>1592263800</v>
+      </c>
+      <c r="Y915" s="53">
+        <v>2552233600</v>
+      </c>
+      <c r="Z915" s="53">
+        <v>14</v>
+      </c>
+      <c r="AA915" s="53"/>
+      <c r="AB915" s="53"/>
+      <c r="AC915" s="53"/>
+      <c r="AD915" s="53"/>
+      <c r="AE915" s="53"/>
+      <c r="AF915" s="53"/>
+      <c r="AG915" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH915" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI915" s="53"/>
+      <c r="AJ915" s="53"/>
+      <c r="AK915" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL915" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A916" s="9">
+        <v>915</v>
+      </c>
+      <c r="B916" s="53">
+        <v>10841</v>
+      </c>
+      <c r="C916" s="53"/>
+      <c r="D916" s="53"/>
+      <c r="E916" s="53"/>
+      <c r="F916" s="53">
+        <v>1</v>
+      </c>
+      <c r="G916" s="53" t="s">
+        <v>2539</v>
+      </c>
+      <c r="H916" s="53"/>
+      <c r="I916" s="53" t="s">
+        <v>2540</v>
+      </c>
+      <c r="J916" s="53"/>
+      <c r="K916" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L916" s="53">
+        <v>0</v>
+      </c>
+      <c r="M916" s="53">
+        <v>0</v>
+      </c>
+      <c r="N916" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="O916" s="53">
+        <v>49800</v>
+      </c>
+      <c r="P916" s="53" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q916" s="54" t="s">
+        <v>2556</v>
+      </c>
+      <c r="R916" s="53"/>
+      <c r="S916" s="53"/>
+      <c r="T916" s="53"/>
+      <c r="U916" s="53"/>
+      <c r="V916" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="W916" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="X916" s="53">
+        <v>1592263800</v>
+      </c>
+      <c r="Y916" s="53">
+        <v>2552233600</v>
+      </c>
+      <c r="Z916" s="53">
+        <v>14</v>
+      </c>
+      <c r="AA916" s="53"/>
+      <c r="AB916" s="53"/>
+      <c r="AC916" s="53"/>
+      <c r="AD916" s="53"/>
+      <c r="AE916" s="53"/>
+      <c r="AF916" s="53"/>
+      <c r="AG916" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH916" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI916" s="53"/>
+      <c r="AJ916" s="53"/>
+      <c r="AK916" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL916" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A917" s="9">
+        <v>916</v>
+      </c>
+      <c r="B917" s="53">
+        <v>10842</v>
+      </c>
+      <c r="C917" s="53"/>
+      <c r="D917" s="53"/>
+      <c r="E917" s="53"/>
+      <c r="F917" s="53">
+        <v>1</v>
+      </c>
+      <c r="G917" s="53" t="s">
+        <v>2541</v>
+      </c>
+      <c r="H917" s="53"/>
+      <c r="I917" s="53" t="s">
+        <v>2542</v>
+      </c>
+      <c r="J917" s="53"/>
+      <c r="K917" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L917" s="53">
+        <v>0</v>
+      </c>
+      <c r="M917" s="53">
+        <v>0</v>
+      </c>
+      <c r="N917" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="O917" s="53">
+        <v>59800</v>
+      </c>
+      <c r="P917" s="53" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q917" s="54" t="s">
+        <v>2557</v>
+      </c>
+      <c r="R917" s="53"/>
+      <c r="S917" s="53"/>
+      <c r="T917" s="53"/>
+      <c r="U917" s="53"/>
+      <c r="V917" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="W917" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="X917" s="53">
+        <v>1592263800</v>
+      </c>
+      <c r="Y917" s="53">
+        <v>2552233600</v>
+      </c>
+      <c r="Z917" s="53">
+        <v>14</v>
+      </c>
+      <c r="AA917" s="53"/>
+      <c r="AB917" s="53"/>
+      <c r="AC917" s="53"/>
+      <c r="AD917" s="53"/>
+      <c r="AE917" s="53"/>
+      <c r="AF917" s="53"/>
+      <c r="AG917" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH917" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI917" s="53"/>
+      <c r="AJ917" s="53"/>
+      <c r="AK917" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL917" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A918" s="9">
+        <v>917</v>
+      </c>
+      <c r="B918" s="53">
+        <v>10843</v>
+      </c>
+      <c r="C918" s="53"/>
+      <c r="D918" s="53"/>
+      <c r="E918" s="53"/>
+      <c r="F918" s="53">
+        <v>1</v>
+      </c>
+      <c r="G918" s="53" t="s">
+        <v>2543</v>
+      </c>
+      <c r="H918" s="53"/>
+      <c r="I918" s="53" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J918" s="53"/>
+      <c r="K918" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L918" s="53">
+        <v>0</v>
+      </c>
+      <c r="M918" s="53">
+        <v>0</v>
+      </c>
+      <c r="N918" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="O918" s="53">
+        <v>69800</v>
+      </c>
+      <c r="P918" s="53" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q918" s="54" t="s">
+        <v>2558</v>
+      </c>
+      <c r="R918" s="53"/>
+      <c r="S918" s="53"/>
+      <c r="T918" s="53"/>
+      <c r="U918" s="53"/>
+      <c r="V918" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="W918" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="X918" s="53">
+        <v>1592263800</v>
+      </c>
+      <c r="Y918" s="53">
+        <v>2552233600</v>
+      </c>
+      <c r="Z918" s="53">
+        <v>14</v>
+      </c>
+      <c r="AA918" s="53"/>
+      <c r="AB918" s="53"/>
+      <c r="AC918" s="53"/>
+      <c r="AD918" s="53"/>
+      <c r="AE918" s="53"/>
+      <c r="AF918" s="53"/>
+      <c r="AG918" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH918" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI918" s="53"/>
+      <c r="AJ918" s="53"/>
+      <c r="AK918" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL918" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A919" s="9">
+        <v>918</v>
+      </c>
+      <c r="B919" s="53">
+        <v>10844</v>
+      </c>
+      <c r="F919" s="56">
+        <v>1</v>
+      </c>
+      <c r="G919" s="56" t="s">
+        <v>2545</v>
+      </c>
+      <c r="I919" s="56" t="s">
+        <v>2546</v>
+      </c>
+      <c r="K919" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L919" s="56">
+        <v>0</v>
+      </c>
+      <c r="M919" s="56">
+        <v>0</v>
+      </c>
+      <c r="N919" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="O919" s="56">
+        <v>79800</v>
+      </c>
+      <c r="P919" s="56" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q919" s="57" t="s">
+        <v>2559</v>
+      </c>
+      <c r="V919" s="56" t="s">
+        <v>775</v>
+      </c>
+      <c r="W919" s="56">
+        <v>99999999</v>
+      </c>
+      <c r="X919" s="56">
+        <v>1592263800</v>
+      </c>
+      <c r="Y919" s="56">
+        <v>2552233600</v>
+      </c>
+      <c r="Z919" s="56">
+        <v>14</v>
+      </c>
+      <c r="AG919" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH919" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK919" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL919" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A920" s="9">
+        <v>919</v>
+      </c>
+      <c r="B920" s="53">
+        <v>10845</v>
+      </c>
+      <c r="F920" s="56">
+        <v>1</v>
+      </c>
+      <c r="G920" s="56" t="s">
+        <v>2547</v>
+      </c>
+      <c r="I920" s="56" t="s">
+        <v>2548</v>
+      </c>
+      <c r="K920" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L920" s="56">
+        <v>0</v>
+      </c>
+      <c r="M920" s="56">
+        <v>0</v>
+      </c>
+      <c r="N920" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="O920" s="56">
+        <v>89800</v>
+      </c>
+      <c r="P920" s="56" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q920" s="57" t="s">
+        <v>2560</v>
+      </c>
+      <c r="V920" s="56" t="s">
+        <v>775</v>
+      </c>
+      <c r="W920" s="56">
+        <v>99999999</v>
+      </c>
+      <c r="X920" s="56">
+        <v>1592263800</v>
+      </c>
+      <c r="Y920" s="56">
+        <v>2552233600</v>
+      </c>
+      <c r="Z920" s="56">
+        <v>14</v>
+      </c>
+      <c r="AG920" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH920" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK920" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL920" s="56">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM614"/>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -72778,7 +73857,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>

--- a/config_hlw/shoping_config.xlsx
+++ b/config_hlw/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -10547,48 +10547,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
-  </si>
-  <si>
-    <t>{last=10363,reset_time=0}</t>
-  </si>
-  <si>
-    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
-  </si>
-  <si>
-    <t>{last=10366,reset_time=0}</t>
-  </si>
-  <si>
-    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
-  </si>
-  <si>
-    <t>{last=10369,reset_time=0}</t>
-  </si>
-  <si>
-    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
-  </si>
-  <si>
-    <t>{last=10372,reset_time=0}</t>
-  </si>
-  <si>
-    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
-  </si>
-  <si>
-    <t>{last=10375,reset_time=0}</t>
-  </si>
-  <si>
-    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
-  </si>
-  <si>
-    <t>{last=10378,reset_time=0}</t>
-  </si>
-  <si>
-    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
-  </si>
-  <si>
-    <t>{last=10381,reset_time=0}</t>
-  </si>
-  <si>
     <t>VIP1礼包</t>
   </si>
   <si>
@@ -10709,6 +10667,85 @@
   </si>
   <si>
     <t>9888000,40,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{next=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10798</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,trigger="start_trigger",reset_time=0}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10796,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10801,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10799,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10802,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10807,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10805,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10810,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10808,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10813,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10816,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10814,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10811,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10804,trigger="start_trigger",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -13524,11 +13561,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AM920"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H896" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Y863" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I914" sqref="I914"/>
+      <selection pane="bottomRight" activeCell="B871" sqref="B871:B891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -72907,11 +72944,11 @@
         <v>1</v>
       </c>
       <c r="G909" s="53" t="s">
-        <v>2524</v>
+        <v>2510</v>
       </c>
       <c r="H909" s="53"/>
       <c r="I909" s="53" t="s">
-        <v>2525</v>
+        <v>2511</v>
       </c>
       <c r="J909" s="53"/>
       <c r="K909" s="53">
@@ -72930,10 +72967,10 @@
         <v>600</v>
       </c>
       <c r="P909" s="53" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="Q909" s="54" t="s">
-        <v>2549</v>
+        <v>2535</v>
       </c>
       <c r="R909" s="53"/>
       <c r="S909" s="53"/>
@@ -72989,11 +73026,11 @@
         <v>1</v>
       </c>
       <c r="G910" s="53" t="s">
-        <v>2527</v>
+        <v>2513</v>
       </c>
       <c r="H910" s="53"/>
       <c r="I910" s="53" t="s">
-        <v>2528</v>
+        <v>2514</v>
       </c>
       <c r="J910" s="53"/>
       <c r="K910" s="53">
@@ -73012,10 +73049,10 @@
         <v>2800</v>
       </c>
       <c r="P910" s="53" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="Q910" s="54" t="s">
-        <v>2550</v>
+        <v>2536</v>
       </c>
       <c r="R910" s="53"/>
       <c r="S910" s="53"/>
@@ -73071,11 +73108,11 @@
         <v>1</v>
       </c>
       <c r="G911" s="53" t="s">
-        <v>2529</v>
+        <v>2515</v>
       </c>
       <c r="H911" s="53"/>
       <c r="I911" s="53" t="s">
-        <v>2530</v>
+        <v>2516</v>
       </c>
       <c r="J911" s="53"/>
       <c r="K911" s="53">
@@ -73094,10 +73131,10 @@
         <v>4800</v>
       </c>
       <c r="P911" s="53" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="Q911" s="54" t="s">
-        <v>2551</v>
+        <v>2537</v>
       </c>
       <c r="R911" s="53"/>
       <c r="S911" s="53"/>
@@ -73153,11 +73190,11 @@
         <v>1</v>
       </c>
       <c r="G912" s="53" t="s">
-        <v>2531</v>
+        <v>2517</v>
       </c>
       <c r="H912" s="53"/>
       <c r="I912" s="53" t="s">
-        <v>2532</v>
+        <v>2518</v>
       </c>
       <c r="J912" s="53"/>
       <c r="K912" s="53">
@@ -73176,10 +73213,10 @@
         <v>9900</v>
       </c>
       <c r="P912" s="53" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="Q912" s="54" t="s">
-        <v>2552</v>
+        <v>2538</v>
       </c>
       <c r="R912" s="53"/>
       <c r="S912" s="53"/>
@@ -73235,11 +73272,11 @@
         <v>1</v>
       </c>
       <c r="G913" s="53" t="s">
-        <v>2533</v>
+        <v>2519</v>
       </c>
       <c r="H913" s="53"/>
       <c r="I913" s="53" t="s">
-        <v>2534</v>
+        <v>2520</v>
       </c>
       <c r="J913" s="53"/>
       <c r="K913" s="53">
@@ -73258,10 +73295,10 @@
         <v>19800</v>
       </c>
       <c r="P913" s="53" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="Q913" s="54" t="s">
-        <v>2553</v>
+        <v>2539</v>
       </c>
       <c r="R913" s="53"/>
       <c r="S913" s="53"/>
@@ -73317,11 +73354,11 @@
         <v>1</v>
       </c>
       <c r="G914" s="53" t="s">
-        <v>2535</v>
+        <v>2521</v>
       </c>
       <c r="H914" s="53"/>
       <c r="I914" s="53" t="s">
-        <v>2536</v>
+        <v>2522</v>
       </c>
       <c r="J914" s="53"/>
       <c r="K914" s="53">
@@ -73340,10 +73377,10 @@
         <v>29800</v>
       </c>
       <c r="P914" s="53" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="Q914" s="54" t="s">
-        <v>2554</v>
+        <v>2540</v>
       </c>
       <c r="R914" s="53"/>
       <c r="S914" s="53"/>
@@ -73399,11 +73436,11 @@
         <v>1</v>
       </c>
       <c r="G915" s="53" t="s">
-        <v>2537</v>
+        <v>2523</v>
       </c>
       <c r="H915" s="53"/>
       <c r="I915" s="53" t="s">
-        <v>2538</v>
+        <v>2524</v>
       </c>
       <c r="J915" s="53"/>
       <c r="K915" s="53">
@@ -73422,10 +73459,10 @@
         <v>39800</v>
       </c>
       <c r="P915" s="53" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="Q915" s="54" t="s">
-        <v>2555</v>
+        <v>2541</v>
       </c>
       <c r="R915" s="53"/>
       <c r="S915" s="53"/>
@@ -73481,11 +73518,11 @@
         <v>1</v>
       </c>
       <c r="G916" s="53" t="s">
-        <v>2539</v>
+        <v>2525</v>
       </c>
       <c r="H916" s="53"/>
       <c r="I916" s="53" t="s">
-        <v>2540</v>
+        <v>2526</v>
       </c>
       <c r="J916" s="53"/>
       <c r="K916" s="53">
@@ -73504,10 +73541,10 @@
         <v>49800</v>
       </c>
       <c r="P916" s="53" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="Q916" s="54" t="s">
-        <v>2556</v>
+        <v>2542</v>
       </c>
       <c r="R916" s="53"/>
       <c r="S916" s="53"/>
@@ -73563,11 +73600,11 @@
         <v>1</v>
       </c>
       <c r="G917" s="53" t="s">
-        <v>2541</v>
+        <v>2527</v>
       </c>
       <c r="H917" s="53"/>
       <c r="I917" s="53" t="s">
-        <v>2542</v>
+        <v>2528</v>
       </c>
       <c r="J917" s="53"/>
       <c r="K917" s="53">
@@ -73586,10 +73623,10 @@
         <v>59800</v>
       </c>
       <c r="P917" s="53" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="Q917" s="54" t="s">
-        <v>2557</v>
+        <v>2543</v>
       </c>
       <c r="R917" s="53"/>
       <c r="S917" s="53"/>
@@ -73645,11 +73682,11 @@
         <v>1</v>
       </c>
       <c r="G918" s="53" t="s">
-        <v>2543</v>
+        <v>2529</v>
       </c>
       <c r="H918" s="53"/>
       <c r="I918" s="53" t="s">
-        <v>2544</v>
+        <v>2530</v>
       </c>
       <c r="J918" s="53"/>
       <c r="K918" s="53">
@@ -73668,10 +73705,10 @@
         <v>69800</v>
       </c>
       <c r="P918" s="53" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="Q918" s="54" t="s">
-        <v>2558</v>
+        <v>2544</v>
       </c>
       <c r="R918" s="53"/>
       <c r="S918" s="53"/>
@@ -73724,10 +73761,10 @@
         <v>1</v>
       </c>
       <c r="G919" s="56" t="s">
-        <v>2545</v>
+        <v>2531</v>
       </c>
       <c r="I919" s="56" t="s">
-        <v>2546</v>
+        <v>2532</v>
       </c>
       <c r="K919" s="56">
         <v>-31</v>
@@ -73745,10 +73782,10 @@
         <v>79800</v>
       </c>
       <c r="P919" s="56" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="Q919" s="57" t="s">
-        <v>2559</v>
+        <v>2545</v>
       </c>
       <c r="V919" s="56" t="s">
         <v>775</v>
@@ -73789,10 +73826,10 @@
         <v>1</v>
       </c>
       <c r="G920" s="56" t="s">
-        <v>2547</v>
+        <v>2533</v>
       </c>
       <c r="I920" s="56" t="s">
-        <v>2548</v>
+        <v>2534</v>
       </c>
       <c r="K920" s="56">
         <v>-31</v>
@@ -73810,10 +73847,10 @@
         <v>89800</v>
       </c>
       <c r="P920" s="56" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="Q920" s="57" t="s">
-        <v>2560</v>
+        <v>2546</v>
       </c>
       <c r="V920" s="56" t="s">
         <v>775</v>
@@ -73857,8 +73894,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -75502,8 +75539,8 @@
       <c r="A117" s="47">
         <v>116</v>
       </c>
-      <c r="B117" s="32" t="s">
-        <v>2510</v>
+      <c r="B117" s="28" t="s">
+        <v>2547</v>
       </c>
       <c r="C117" s="22">
         <v>1</v>
@@ -75516,8 +75553,8 @@
       <c r="A118" s="47">
         <v>117</v>
       </c>
-      <c r="B118" s="32" t="s">
-        <v>2511</v>
+      <c r="B118" s="28" t="s">
+        <v>2548</v>
       </c>
       <c r="C118" s="22">
         <v>1</v>
@@ -75530,8 +75567,8 @@
       <c r="A119" s="47">
         <v>118</v>
       </c>
-      <c r="B119" s="32" t="s">
-        <v>2512</v>
+      <c r="B119" s="28" t="s">
+        <v>2549</v>
       </c>
       <c r="C119" s="22">
         <v>1</v>
@@ -75544,8 +75581,8 @@
       <c r="A120" s="47">
         <v>119</v>
       </c>
-      <c r="B120" s="32" t="s">
-        <v>2513</v>
+      <c r="B120" s="28" t="s">
+        <v>2550</v>
       </c>
       <c r="C120" s="22">
         <v>1</v>
@@ -75558,8 +75595,8 @@
       <c r="A121" s="47">
         <v>120</v>
       </c>
-      <c r="B121" s="32" t="s">
-        <v>2514</v>
+      <c r="B121" s="28" t="s">
+        <v>2560</v>
       </c>
       <c r="C121" s="22">
         <v>1</v>
@@ -75572,8 +75609,8 @@
       <c r="A122" s="47">
         <v>121</v>
       </c>
-      <c r="B122" s="32" t="s">
-        <v>2515</v>
+      <c r="B122" s="28" t="s">
+        <v>2551</v>
       </c>
       <c r="C122" s="22">
         <v>1</v>
@@ -75586,8 +75623,8 @@
       <c r="A123" s="47">
         <v>122</v>
       </c>
-      <c r="B123" s="32" t="s">
-        <v>2516</v>
+      <c r="B123" s="28" t="s">
+        <v>2552</v>
       </c>
       <c r="C123" s="22">
         <v>1</v>
@@ -75600,8 +75637,8 @@
       <c r="A124" s="47">
         <v>123</v>
       </c>
-      <c r="B124" s="32" t="s">
-        <v>2517</v>
+      <c r="B124" s="28" t="s">
+        <v>2553</v>
       </c>
       <c r="C124" s="22">
         <v>1</v>
@@ -75614,8 +75651,8 @@
       <c r="A125" s="47">
         <v>124</v>
       </c>
-      <c r="B125" s="32" t="s">
-        <v>2518</v>
+      <c r="B125" s="28" t="s">
+        <v>2554</v>
       </c>
       <c r="C125" s="22">
         <v>1</v>
@@ -75628,8 +75665,8 @@
       <c r="A126" s="47">
         <v>125</v>
       </c>
-      <c r="B126" s="32" t="s">
-        <v>2519</v>
+      <c r="B126" s="28" t="s">
+        <v>2555</v>
       </c>
       <c r="C126" s="22">
         <v>1</v>
@@ -75642,8 +75679,8 @@
       <c r="A127" s="47">
         <v>126</v>
       </c>
-      <c r="B127" s="32" t="s">
-        <v>2520</v>
+      <c r="B127" s="28" t="s">
+        <v>2556</v>
       </c>
       <c r="C127" s="22">
         <v>1</v>
@@ -75656,8 +75693,8 @@
       <c r="A128" s="47">
         <v>127</v>
       </c>
-      <c r="B128" s="32" t="s">
-        <v>2521</v>
+      <c r="B128" s="28" t="s">
+        <v>2559</v>
       </c>
       <c r="C128" s="22">
         <v>1</v>
@@ -75670,8 +75707,8 @@
       <c r="A129" s="47">
         <v>128</v>
       </c>
-      <c r="B129" s="32" t="s">
-        <v>2522</v>
+      <c r="B129" s="28" t="s">
+        <v>2557</v>
       </c>
       <c r="C129" s="22">
         <v>1</v>
@@ -75684,8 +75721,8 @@
       <c r="A130" s="47">
         <v>129</v>
       </c>
-      <c r="B130" s="32" t="s">
-        <v>2523</v>
+      <c r="B130" s="28" t="s">
+        <v>2558</v>
       </c>
       <c r="C130" s="22">
         <v>1</v>

--- a/config_hlw/shoping_config.xlsx
+++ b/config_hlw/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7024" uniqueCount="2484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7054" uniqueCount="2499">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -10054,6 +10054,51 @@
   </si>
   <si>
     <t>赠1万金币</t>
+  </si>
+  <si>
+    <t>神龙之力</t>
+  </si>
+  <si>
+    <t>"神龙之力",</t>
+  </si>
+  <si>
+    <t>"gun_barrel_7",</t>
+  </si>
+  <si>
+    <t>死亡之灵</t>
+  </si>
+  <si>
+    <t>"死亡之灵",</t>
+  </si>
+  <si>
+    <t>"gun_barrel_6",</t>
+  </si>
+  <si>
+    <t>核能风暴</t>
+  </si>
+  <si>
+    <t>"核能风暴",</t>
+  </si>
+  <si>
+    <t>"gun_barrel_5",</t>
+  </si>
+  <si>
+    <t>金币使者</t>
+  </si>
+  <si>
+    <t>"金币使者",</t>
+  </si>
+  <si>
+    <t>"gun_barrel_4",</t>
+  </si>
+  <si>
+    <t>闪耀风暴</t>
+  </si>
+  <si>
+    <t>"闪耀风暴",</t>
+  </si>
+  <si>
+    <t>"gun_barrel_3",</t>
   </si>
 </sst>
 </file>
@@ -12874,13 +12919,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AM920"/>
+  <dimension ref="A1:AM925"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H896" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H917" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G913" sqref="G913"/>
+      <selection pane="bottomRight" activeCell="B922" sqref="B922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -73195,6 +73240,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="921" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A921" s="9">
+        <v>920</v>
+      </c>
+      <c r="B921" s="51">
+        <v>10846</v>
+      </c>
+      <c r="F921" s="54">
+        <v>1</v>
+      </c>
+      <c r="G921" s="54" t="s">
+        <v>2484</v>
+      </c>
+      <c r="I921" s="54" t="s">
+        <v>2485</v>
+      </c>
+      <c r="K921" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L921" s="54">
+        <v>0</v>
+      </c>
+      <c r="M921" s="54">
+        <v>0</v>
+      </c>
+      <c r="N921" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="O921" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P921" s="54" t="s">
+        <v>2486</v>
+      </c>
+      <c r="Q921" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="V921" s="54" t="s">
+        <v>680</v>
+      </c>
+      <c r="W921" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X921" s="54">
+        <v>1585609200</v>
+      </c>
+      <c r="Y921" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AH921" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI921" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A922" s="9">
+        <v>921</v>
+      </c>
+      <c r="B922" s="51">
+        <v>10847</v>
+      </c>
+      <c r="F922" s="54">
+        <v>1</v>
+      </c>
+      <c r="G922" s="54" t="s">
+        <v>2487</v>
+      </c>
+      <c r="I922" s="54" t="s">
+        <v>2488</v>
+      </c>
+      <c r="K922" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L922" s="54">
+        <v>0</v>
+      </c>
+      <c r="M922" s="54">
+        <v>0</v>
+      </c>
+      <c r="N922" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="O922" s="54">
+        <v>19800</v>
+      </c>
+      <c r="P922" s="54" t="s">
+        <v>2489</v>
+      </c>
+      <c r="Q922" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="V922" s="54" t="s">
+        <v>680</v>
+      </c>
+      <c r="W922" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X922" s="54">
+        <v>1585609200</v>
+      </c>
+      <c r="Y922" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AH922" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI922" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A923" s="9">
+        <v>922</v>
+      </c>
+      <c r="B923" s="51">
+        <v>10848</v>
+      </c>
+      <c r="F923" s="54">
+        <v>1</v>
+      </c>
+      <c r="G923" s="54" t="s">
+        <v>2490</v>
+      </c>
+      <c r="I923" s="54" t="s">
+        <v>2491</v>
+      </c>
+      <c r="K923" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L923" s="54">
+        <v>0</v>
+      </c>
+      <c r="M923" s="54">
+        <v>0</v>
+      </c>
+      <c r="N923" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="O923" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P923" s="54" t="s">
+        <v>2492</v>
+      </c>
+      <c r="Q923" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="V923" s="54" t="s">
+        <v>680</v>
+      </c>
+      <c r="W923" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X923" s="54">
+        <v>1585609200</v>
+      </c>
+      <c r="Y923" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AH923" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI923" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A924" s="9">
+        <v>923</v>
+      </c>
+      <c r="B924" s="51">
+        <v>10849</v>
+      </c>
+      <c r="F924" s="54">
+        <v>1</v>
+      </c>
+      <c r="G924" s="54" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I924" s="54" t="s">
+        <v>2494</v>
+      </c>
+      <c r="K924" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L924" s="54">
+        <v>0</v>
+      </c>
+      <c r="M924" s="54">
+        <v>0</v>
+      </c>
+      <c r="N924" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="O924" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P924" s="54" t="s">
+        <v>2495</v>
+      </c>
+      <c r="Q924" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="V924" s="54" t="s">
+        <v>680</v>
+      </c>
+      <c r="W924" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X924" s="54">
+        <v>1585609200</v>
+      </c>
+      <c r="Y924" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AH924" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI924" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A925" s="9">
+        <v>924</v>
+      </c>
+      <c r="B925" s="51">
+        <v>10850</v>
+      </c>
+      <c r="F925" s="54">
+        <v>1</v>
+      </c>
+      <c r="G925" s="54" t="s">
+        <v>2496</v>
+      </c>
+      <c r="I925" s="54" t="s">
+        <v>2497</v>
+      </c>
+      <c r="K925" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L925" s="54">
+        <v>0</v>
+      </c>
+      <c r="M925" s="54">
+        <v>0</v>
+      </c>
+      <c r="N925" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="O925" s="54">
+        <v>4800</v>
+      </c>
+      <c r="P925" s="54" t="s">
+        <v>2498</v>
+      </c>
+      <c r="Q925" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="V925" s="54" t="s">
+        <v>680</v>
+      </c>
+      <c r="W925" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X925" s="54">
+        <v>1585609200</v>
+      </c>
+      <c r="Y925" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AH925" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI925" s="54">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM614"/>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -75058,7 +75383,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>

--- a/config_hlw/shoping_config.xlsx
+++ b/config_hlw/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7054" uniqueCount="2499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7084" uniqueCount="2516">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -10099,6 +10099,67 @@
   </si>
   <si>
     <t>"gun_barrel_3",</t>
+  </si>
+  <si>
+    <t>gun_bed_4</t>
+  </si>
+  <si>
+    <t>金焰</t>
+  </si>
+  <si>
+    <t>3dby_icon_cs_1</t>
+  </si>
+  <si>
+    <t>gun_barrel_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p3</t>
+  </si>
+  <si>
+    <t>pay_bg_light1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p4</t>
+  </si>
+  <si>
+    <t>gun_barrel_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p5</t>
+  </si>
+  <si>
+    <t>gun_barrel_7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
   </si>
 </sst>
 </file>
@@ -10322,7 +10383,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10495,6 +10556,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12921,7 +12988,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AM925"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H917" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -77069,10 +77136,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -78157,6 +78224,244 @@
         <v>519</v>
       </c>
     </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25">
+        <v>31</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F25" s="20">
+        <v>1</v>
+      </c>
+      <c r="G25" s="20">
+        <v>259200</v>
+      </c>
+      <c r="O25" s="20">
+        <v>1</v>
+      </c>
+      <c r="P25" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="41" t="s">
+        <v>2504</v>
+      </c>
+      <c r="T25" s="20">
+        <v>1</v>
+      </c>
+      <c r="U25" s="26" t="s">
+        <v>2505</v>
+      </c>
+      <c r="V25" s="30" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25">
+        <v>32</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F26" s="20">
+        <v>10</v>
+      </c>
+      <c r="G26" s="20">
+        <v>259200</v>
+      </c>
+      <c r="O26" s="20">
+        <v>1</v>
+      </c>
+      <c r="P26" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="41" t="s">
+        <v>2493</v>
+      </c>
+      <c r="T26" s="20">
+        <v>10</v>
+      </c>
+      <c r="U26" s="26" t="s">
+        <v>2507</v>
+      </c>
+      <c r="V26" s="30" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25">
+        <v>33</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F27" s="20">
+        <v>50</v>
+      </c>
+      <c r="G27" s="20">
+        <v>259200</v>
+      </c>
+      <c r="O27" s="20">
+        <v>1</v>
+      </c>
+      <c r="P27" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="41" t="s">
+        <v>2490</v>
+      </c>
+      <c r="T27" s="20">
+        <v>50</v>
+      </c>
+      <c r="U27" s="26" t="s">
+        <v>2510</v>
+      </c>
+      <c r="V27" s="30" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25">
+        <v>34</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>2511</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F28" s="20">
+        <v>60</v>
+      </c>
+      <c r="G28" s="20">
+        <v>259200</v>
+      </c>
+      <c r="O28" s="20">
+        <v>1</v>
+      </c>
+      <c r="P28" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="41" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T28" s="20">
+        <v>60</v>
+      </c>
+      <c r="U28" s="26" t="s">
+        <v>2513</v>
+      </c>
+      <c r="V28" s="30" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>28</v>
+      </c>
+      <c r="B29" s="25">
+        <v>35</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F29" s="20">
+        <v>100</v>
+      </c>
+      <c r="G29" s="20">
+        <v>259200</v>
+      </c>
+      <c r="O29" s="20">
+        <v>1</v>
+      </c>
+      <c r="P29" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="41" t="s">
+        <v>2484</v>
+      </c>
+      <c r="T29" s="20">
+        <v>100</v>
+      </c>
+      <c r="U29" s="26" t="s">
+        <v>2515</v>
+      </c>
+      <c r="V29" s="30" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="27">
+        <v>29</v>
+      </c>
+      <c r="B30" s="58">
+        <v>36</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="59" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="27">
+        <v>30000</v>
+      </c>
+      <c r="G30" s="27">
+        <v>2592000</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27">
+        <v>0</v>
+      </c>
+      <c r="P30" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="59" t="s">
+        <v>2500</v>
+      </c>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27">
+        <v>300000</v>
+      </c>
+      <c r="U30" s="59" t="s">
+        <v>2501</v>
+      </c>
+      <c r="V30" s="59" t="s">
+        <v>519</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_hlw/shoping_config.xlsx
+++ b/config_hlw/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8453,31 +8453,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"200万金币","20话费碎片","6～200福卡",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"780万金币","200话费碎片","35～800福卡",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"300万金币","50话费碎片","12～300福卡",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>100000,5,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2000000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3000000,50,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>7800000,200,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -10160,6 +10140,26 @@
   </si>
   <si>
     <t>3dby_icon_p6</t>
+  </si>
+  <si>
+    <t>"100万金币","20话费碎片","6～200福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","50话费碎片","12～300福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"700万金币","200话费碎片","35～800福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000000,200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10882,7 +10882,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>6</v>
@@ -10909,10 +10909,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -10939,10 +10939,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -10963,16 +10963,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="H4" s="20">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -12435,10 +12435,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="X17" s="19" t="s">
         <v>48</v>
@@ -12507,10 +12507,10 @@
         <v>2</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="X18" s="19" t="s">
         <v>48</v>
@@ -12579,10 +12579,10 @@
         <v>3</v>
       </c>
       <c r="U19" s="19" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>48</v>
@@ -12651,10 +12651,10 @@
         <v>4</v>
       </c>
       <c r="U20" s="19" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>48</v>
@@ -12723,10 +12723,10 @@
         <v>5</v>
       </c>
       <c r="U21" s="19" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="V21" s="19" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="X21" s="19" t="s">
         <v>48</v>
@@ -12795,10 +12795,10 @@
         <v>6</v>
       </c>
       <c r="U22" s="19" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="V22" s="19" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>48</v>
@@ -12867,10 +12867,10 @@
         <v>7</v>
       </c>
       <c r="U23" s="19" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="X23" s="19" t="s">
         <v>48</v>
@@ -12988,11 +12988,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AM925"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H917" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H878" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B922" sqref="B922"/>
+      <selection pane="bottomRight" activeCell="I895" sqref="I895"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13345,7 +13345,7 @@
         <v>146</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="9">
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="9" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="K8" s="9">
         <v>-6</v>
@@ -13797,7 +13797,7 @@
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="9" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="K13" s="9">
         <v>-8</v>
@@ -13908,7 +13908,7 @@
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="9" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="K15" s="9">
         <v>-8</v>
@@ -13965,7 +13965,7 @@
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="9" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="K16" s="9">
         <v>-8</v>
@@ -14366,11 +14366,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="9" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="K23" s="9">
         <v>-13</v>
@@ -16068,7 +16068,7 @@
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="9" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="K54" s="9">
         <v>-13</v>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="9" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="K56" s="9">
         <v>-18</v>
@@ -16236,7 +16236,7 @@
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="9" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="K57" s="9">
         <v>-19</v>
@@ -16724,10 +16724,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="K66" s="9">
         <v>-4</v>
@@ -17069,7 +17069,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="K72" s="9">
         <v>-4</v>
@@ -17364,7 +17364,7 @@
         <v>297</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="K77" s="9">
         <v>-20</v>
@@ -17423,7 +17423,7 @@
         <v>1581</v>
       </c>
       <c r="I78" s="36" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="K78" s="36">
         <v>-20</v>
@@ -17494,7 +17494,7 @@
         <v>301</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="K79" s="9">
         <v>-20</v>
@@ -17562,7 +17562,7 @@
         <v>304</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="K80" s="9">
         <v>-20</v>
@@ -17630,7 +17630,7 @@
         <v>305</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="K81" s="9">
         <v>-20</v>
@@ -17692,7 +17692,7 @@
         <v>306</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="K82" s="9">
         <v>-20</v>
@@ -17748,7 +17748,7 @@
         <v>309</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="K83" s="9">
         <v>-21</v>
@@ -17804,7 +17804,7 @@
         <v>312</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="K84" s="9">
         <v>-22</v>
@@ -17860,7 +17860,7 @@
         <v>314</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="K85" s="9">
         <v>-23</v>
@@ -17916,7 +17916,7 @@
         <v>316</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="K86" s="9">
         <v>-24</v>
@@ -17966,7 +17966,7 @@
         <v>317</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="K87" s="9">
         <v>-25</v>
@@ -18022,7 +18022,7 @@
         <v>318</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="K88" s="9">
         <v>-22</v>
@@ -18078,7 +18078,7 @@
         <v>321</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="K89" s="9">
         <v>-22</v>
@@ -18134,7 +18134,7 @@
         <v>323</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="K90" s="9">
         <v>-22</v>
@@ -18190,7 +18190,7 @@
         <v>324</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="K91" s="9">
         <v>-22</v>
@@ -18246,7 +18246,7 @@
         <v>325</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="K92" s="9">
         <v>-22</v>
@@ -18302,7 +18302,7 @@
         <v>326</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="K93" s="9">
         <v>-22</v>
@@ -18411,7 +18411,7 @@
         <v>331</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="K95" s="9">
         <v>-23</v>
@@ -18470,7 +18470,7 @@
         <v>333</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="K96" s="9">
         <v>-23</v>
@@ -18526,7 +18526,7 @@
         <v>334</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="K97" s="9">
         <v>-24</v>
@@ -18588,7 +18588,7 @@
         <v>339</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="K98" s="9">
         <v>-24</v>
@@ -18650,7 +18650,7 @@
         <v>344</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="K99" s="9">
         <v>-24</v>
@@ -18712,7 +18712,7 @@
         <v>1022</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="K100" s="9">
         <v>-25</v>
@@ -18775,7 +18775,7 @@
         <v>1024</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="K101" s="9">
         <v>-25</v>
@@ -18838,7 +18838,7 @@
         <v>1025</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="K102" s="9">
         <v>-25</v>
@@ -18901,7 +18901,7 @@
         <v>1028</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="K103" s="9">
         <v>-25</v>
@@ -18964,7 +18964,7 @@
         <v>1025</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="K104" s="9">
         <v>-25</v>
@@ -19027,7 +19027,7 @@
         <v>1029</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="K105" s="9">
         <v>-25</v>
@@ -19090,7 +19090,7 @@
         <v>1024</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="K106" s="9">
         <v>-25</v>
@@ -19153,7 +19153,7 @@
         <v>1031</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="K107" s="9">
         <v>-25</v>
@@ -19216,7 +19216,7 @@
         <v>1032</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="K108" s="9">
         <v>-25</v>
@@ -19336,7 +19336,7 @@
         <v>354</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="K110" s="9">
         <v>-26</v>
@@ -19398,7 +19398,7 @@
         <v>359</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="K111" s="9">
         <v>-26</v>
@@ -19460,7 +19460,7 @@
         <v>362</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="K112" s="9">
         <v>-26</v>
@@ -19522,7 +19522,7 @@
         <v>365</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="K113" s="9">
         <v>-26</v>
@@ -19578,7 +19578,7 @@
         <v>368</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="K114" s="9">
         <v>-26</v>
@@ -19634,7 +19634,7 @@
         <v>370</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="K115" s="9">
         <v>-26</v>
@@ -19690,7 +19690,7 @@
         <v>372</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="K116" s="9">
         <v>-27</v>
@@ -19752,7 +19752,7 @@
         <v>376</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="K117" s="9">
         <v>-27</v>
@@ -19814,7 +19814,7 @@
         <v>377</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="K118" s="9">
         <v>-28</v>
@@ -19870,7 +19870,7 @@
         <v>379</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="K119" s="9">
         <v>-28</v>
@@ -19926,7 +19926,7 @@
         <v>382</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
       <c r="K120" s="9">
         <v>-28</v>
@@ -19982,7 +19982,7 @@
         <v>385</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="K121" s="9">
         <v>-28</v>
@@ -20041,7 +20041,7 @@
         <v>389</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="K122" s="9">
         <v>-28</v>
@@ -20100,7 +20100,7 @@
         <v>392</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="K123" s="9">
         <v>-28</v>
@@ -20159,7 +20159,7 @@
         <v>368</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="K124" s="9">
         <v>-28</v>
@@ -20215,7 +20215,7 @@
         <v>395</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
       <c r="K125" s="9">
         <v>-28</v>
@@ -20271,7 +20271,7 @@
         <v>397</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
       <c r="K126" s="9">
         <v>-28</v>
@@ -20327,7 +20327,7 @@
         <v>399</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="K127" s="9">
         <v>-29</v>
@@ -20501,7 +20501,7 @@
         <v>406</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="K130" s="9">
         <v>-28</v>
@@ -20563,7 +20563,7 @@
         <v>301</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="K131" s="9">
         <v>-28</v>
@@ -20625,7 +20625,7 @@
         <v>410</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="K132" s="9">
         <v>-28</v>
@@ -20687,7 +20687,7 @@
         <v>412</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="K133" s="9">
         <v>-28</v>
@@ -20749,7 +20749,7 @@
         <v>413</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="K134" s="9">
         <v>-28</v>
@@ -20811,7 +20811,7 @@
         <v>415</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="K135" s="9">
         <v>-28</v>
@@ -21233,7 +21233,7 @@
         <v>420</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="K142" s="9">
         <v>-28</v>
@@ -21295,7 +21295,7 @@
         <v>421</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="K143" s="9">
         <v>-28</v>
@@ -21357,7 +21357,7 @@
         <v>422</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="K144" s="9">
         <v>-28</v>
@@ -21419,7 +21419,7 @@
         <v>424</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
       <c r="K145" s="9">
         <v>-28</v>
@@ -21481,7 +21481,7 @@
         <v>428</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="K146" s="9">
         <v>-28</v>
@@ -21543,7 +21543,7 @@
         <v>431</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="K147" s="9">
         <v>-28</v>
@@ -21605,7 +21605,7 @@
         <v>434</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="K148" s="9">
         <v>-28</v>
@@ -21667,7 +21667,7 @@
         <v>437</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>2150</v>
+        <v>2145</v>
       </c>
       <c r="K149" s="9">
         <v>-28</v>
@@ -21729,7 +21729,7 @@
         <v>440</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="K150" s="9">
         <v>-28</v>
@@ -21791,7 +21791,7 @@
         <v>441</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="K151" s="9">
         <v>-28</v>
@@ -21853,7 +21853,7 @@
         <v>442</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="K152" s="9">
         <v>-28</v>
@@ -21915,7 +21915,7 @@
         <v>443</v>
       </c>
       <c r="I153" s="36" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="K153" s="36">
         <v>-28</v>
@@ -21974,7 +21974,7 @@
         <v>444</v>
       </c>
       <c r="I154" s="36" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="K154" s="36">
         <v>-28</v>
@@ -22033,7 +22033,7 @@
         <v>445</v>
       </c>
       <c r="I155" s="36" t="s">
-        <v>2153</v>
+        <v>2148</v>
       </c>
       <c r="K155" s="36">
         <v>-28</v>
@@ -22092,7 +22092,7 @@
         <v>446</v>
       </c>
       <c r="I156" s="36" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="K156" s="36">
         <v>-28</v>
@@ -22151,7 +22151,7 @@
         <v>1799</v>
       </c>
       <c r="I157" s="36" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
       <c r="K157" s="36">
         <v>-28</v>
@@ -22210,7 +22210,7 @@
         <v>447</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="K158" s="9">
         <v>-28</v>
@@ -22272,7 +22272,7 @@
         <v>449</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="K159" s="9">
         <v>-28</v>
@@ -22334,7 +22334,7 @@
         <v>451</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
       <c r="K160" s="9">
         <v>-28</v>
@@ -22396,7 +22396,7 @@
         <v>453</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="K161" s="9">
         <v>-28</v>
@@ -22458,7 +22458,7 @@
         <v>454</v>
       </c>
       <c r="I162" s="9" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="K162" s="9">
         <v>-28</v>
@@ -22520,7 +22520,7 @@
         <v>455</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
       <c r="K163" s="9">
         <v>-28</v>
@@ -22582,7 +22582,7 @@
         <v>456</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="J164" s="9">
         <v>21032</v>
@@ -22647,7 +22647,7 @@
         <v>458</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="K165" s="9">
         <v>-28</v>
@@ -22709,7 +22709,7 @@
         <v>459</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="K166" s="9">
         <v>-28</v>
@@ -22771,7 +22771,7 @@
         <v>460</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
       <c r="K167" s="9">
         <v>-28</v>
@@ -22833,7 +22833,7 @@
         <v>461</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="K168" s="9">
         <v>-28</v>
@@ -22960,7 +22960,7 @@
         <v>467</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="K170" s="9">
         <v>-28</v>
@@ -23025,7 +23025,7 @@
         <v>469</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="K171" s="9">
         <v>-28</v>
@@ -23093,7 +23093,7 @@
         <v>471</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="K172" s="9">
         <v>-28</v>
@@ -23161,7 +23161,7 @@
         <v>473</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="K173" s="9">
         <v>-28</v>
@@ -23229,7 +23229,7 @@
         <v>475</v>
       </c>
       <c r="I174" s="9" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="K174" s="9">
         <v>-28</v>
@@ -23297,7 +23297,7 @@
         <v>926</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="K175" s="9">
         <v>-28</v>
@@ -23365,7 +23365,7 @@
         <v>927</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="K176" s="9">
         <v>-28</v>
@@ -23433,7 +23433,7 @@
         <v>481</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="K177" s="9">
         <v>-28</v>
@@ -23501,7 +23501,7 @@
         <v>485</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="K178" s="9">
         <v>-28</v>
@@ -23569,7 +23569,7 @@
         <v>580</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="K179" s="9">
         <v>-28</v>
@@ -23637,7 +23637,7 @@
         <v>487</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="K180" s="9">
         <v>-28</v>
@@ -23705,7 +23705,7 @@
         <v>489</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="K181" s="9">
         <v>-28</v>
@@ -23773,7 +23773,7 @@
         <v>491</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="K182" s="9">
         <v>-28</v>
@@ -23841,7 +23841,7 @@
         <v>493</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="K183" s="9">
         <v>-28</v>
@@ -23909,7 +23909,7 @@
         <v>494</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="K184" s="9">
         <v>-28</v>
@@ -23977,7 +23977,7 @@
         <v>495</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="K185" s="9">
         <v>-28</v>
@@ -24042,7 +24042,7 @@
         <v>399</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="K186" s="9">
         <v>-29</v>
@@ -24104,7 +24104,7 @@
         <v>469</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="K187" s="9">
         <v>-28</v>
@@ -24169,7 +24169,7 @@
         <v>471</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="K188" s="9">
         <v>-28</v>
@@ -24234,7 +24234,7 @@
         <v>473</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="K189" s="9">
         <v>-28</v>
@@ -24299,7 +24299,7 @@
         <v>475</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="K190" s="9">
         <v>-28</v>
@@ -24364,7 +24364,7 @@
         <v>477</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="K191" s="9">
         <v>-28</v>
@@ -24429,7 +24429,7 @@
         <v>479</v>
       </c>
       <c r="I192" s="9" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="K192" s="9">
         <v>-28</v>
@@ -24494,7 +24494,7 @@
         <v>481</v>
       </c>
       <c r="I193" s="9" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="K193" s="9">
         <v>-28</v>
@@ -24559,7 +24559,7 @@
         <v>483</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="K194" s="9">
         <v>-28</v>
@@ -24624,7 +24624,7 @@
         <v>485</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="K195" s="9">
         <v>-28</v>
@@ -24689,7 +24689,7 @@
         <v>487</v>
       </c>
       <c r="I196" s="9" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="K196" s="9">
         <v>-28</v>
@@ -24754,7 +24754,7 @@
         <v>489</v>
       </c>
       <c r="I197" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="K197" s="9">
         <v>-28</v>
@@ -24819,7 +24819,7 @@
         <v>491</v>
       </c>
       <c r="I198" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="K198" s="9">
         <v>-28</v>
@@ -24884,7 +24884,7 @@
         <v>493</v>
       </c>
       <c r="I199" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="K199" s="9">
         <v>-28</v>
@@ -24949,7 +24949,7 @@
         <v>494</v>
       </c>
       <c r="I200" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="K200" s="9">
         <v>-28</v>
@@ -25014,7 +25014,7 @@
         <v>495</v>
       </c>
       <c r="I201" s="9" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="K201" s="9">
         <v>-28</v>
@@ -25079,7 +25079,7 @@
         <v>469</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="K202" s="9">
         <v>-28</v>
@@ -25144,7 +25144,7 @@
         <v>471</v>
       </c>
       <c r="I203" s="9" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="K203" s="9">
         <v>-28</v>
@@ -25209,7 +25209,7 @@
         <v>473</v>
       </c>
       <c r="I204" s="9" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="K204" s="9">
         <v>-28</v>
@@ -25274,7 +25274,7 @@
         <v>475</v>
       </c>
       <c r="I205" s="9" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="K205" s="9">
         <v>-28</v>
@@ -25339,7 +25339,7 @@
         <v>477</v>
       </c>
       <c r="I206" s="9" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="K206" s="9">
         <v>-28</v>
@@ -25404,7 +25404,7 @@
         <v>479</v>
       </c>
       <c r="I207" s="9" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="K207" s="9">
         <v>-28</v>
@@ -25469,7 +25469,7 @@
         <v>481</v>
       </c>
       <c r="I208" s="9" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="K208" s="9">
         <v>-28</v>
@@ -25534,7 +25534,7 @@
         <v>483</v>
       </c>
       <c r="I209" s="9" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="K209" s="9">
         <v>-28</v>
@@ -25599,7 +25599,7 @@
         <v>485</v>
       </c>
       <c r="I210" s="9" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="K210" s="9">
         <v>-28</v>
@@ -25664,7 +25664,7 @@
         <v>487</v>
       </c>
       <c r="I211" s="9" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="K211" s="9">
         <v>-28</v>
@@ -25729,7 +25729,7 @@
         <v>489</v>
       </c>
       <c r="I212" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="K212" s="9">
         <v>-28</v>
@@ -25794,7 +25794,7 @@
         <v>491</v>
       </c>
       <c r="I213" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="K213" s="9">
         <v>-28</v>
@@ -25859,7 +25859,7 @@
         <v>493</v>
       </c>
       <c r="I214" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="K214" s="9">
         <v>-28</v>
@@ -25924,7 +25924,7 @@
         <v>494</v>
       </c>
       <c r="I215" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="K215" s="9">
         <v>-28</v>
@@ -25989,7 +25989,7 @@
         <v>495</v>
       </c>
       <c r="I216" s="9" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="K216" s="9">
         <v>-28</v>
@@ -26054,7 +26054,7 @@
         <v>881</v>
       </c>
       <c r="I217" s="9" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="K217" s="9">
         <v>-28</v>
@@ -26119,7 +26119,7 @@
         <v>471</v>
       </c>
       <c r="I218" s="9" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="K218" s="9">
         <v>-28</v>
@@ -26184,7 +26184,7 @@
         <v>473</v>
       </c>
       <c r="I219" s="9" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="K219" s="9">
         <v>-28</v>
@@ -26249,7 +26249,7 @@
         <v>475</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="K220" s="9">
         <v>-28</v>
@@ -26314,7 +26314,7 @@
         <v>477</v>
       </c>
       <c r="I221" s="9" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="K221" s="9">
         <v>-28</v>
@@ -26379,7 +26379,7 @@
         <v>479</v>
       </c>
       <c r="I222" s="9" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="K222" s="9">
         <v>-28</v>
@@ -26444,7 +26444,7 @@
         <v>481</v>
       </c>
       <c r="I223" s="9" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="K223" s="9">
         <v>-28</v>
@@ -26509,7 +26509,7 @@
         <v>483</v>
       </c>
       <c r="I224" s="9" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="K224" s="9">
         <v>-28</v>
@@ -26574,7 +26574,7 @@
         <v>485</v>
       </c>
       <c r="I225" s="9" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="K225" s="9">
         <v>-28</v>
@@ -26639,7 +26639,7 @@
         <v>487</v>
       </c>
       <c r="I226" s="9" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="K226" s="9">
         <v>-28</v>
@@ -26704,7 +26704,7 @@
         <v>489</v>
       </c>
       <c r="I227" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="K227" s="9">
         <v>-28</v>
@@ -26769,7 +26769,7 @@
         <v>491</v>
       </c>
       <c r="I228" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="K228" s="9">
         <v>-28</v>
@@ -26834,7 +26834,7 @@
         <v>493</v>
       </c>
       <c r="I229" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="K229" s="9">
         <v>-28</v>
@@ -26899,7 +26899,7 @@
         <v>494</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="K230" s="9">
         <v>-28</v>
@@ -26964,7 +26964,7 @@
         <v>495</v>
       </c>
       <c r="I231" s="9" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="K231" s="9">
         <v>-28</v>
@@ -27029,7 +27029,7 @@
         <v>469</v>
       </c>
       <c r="I232" s="9" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="K232" s="9">
         <v>-28</v>
@@ -27094,7 +27094,7 @@
         <v>471</v>
       </c>
       <c r="I233" s="9" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="K233" s="9">
         <v>-28</v>
@@ -27159,7 +27159,7 @@
         <v>473</v>
       </c>
       <c r="I234" s="9" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="K234" s="9">
         <v>-28</v>
@@ -27224,7 +27224,7 @@
         <v>475</v>
       </c>
       <c r="I235" s="9" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="K235" s="9">
         <v>-28</v>
@@ -27289,7 +27289,7 @@
         <v>477</v>
       </c>
       <c r="I236" s="9" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="K236" s="9">
         <v>-28</v>
@@ -27354,7 +27354,7 @@
         <v>479</v>
       </c>
       <c r="I237" s="9" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="K237" s="9">
         <v>-28</v>
@@ -27419,7 +27419,7 @@
         <v>481</v>
       </c>
       <c r="I238" s="9" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="K238" s="9">
         <v>-28</v>
@@ -27484,7 +27484,7 @@
         <v>483</v>
       </c>
       <c r="I239" s="9" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="K239" s="9">
         <v>-28</v>
@@ -27549,7 +27549,7 @@
         <v>485</v>
       </c>
       <c r="I240" s="9" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="K240" s="9">
         <v>-28</v>
@@ -27614,7 +27614,7 @@
         <v>487</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="K241" s="9">
         <v>-28</v>
@@ -27679,7 +27679,7 @@
         <v>489</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="K242" s="9">
         <v>-28</v>
@@ -27744,7 +27744,7 @@
         <v>491</v>
       </c>
       <c r="I243" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="K243" s="9">
         <v>-28</v>
@@ -27809,7 +27809,7 @@
         <v>493</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="K244" s="9">
         <v>-28</v>
@@ -27874,7 +27874,7 @@
         <v>494</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="K245" s="9">
         <v>-28</v>
@@ -27939,7 +27939,7 @@
         <v>495</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="K246" s="9">
         <v>-28</v>
@@ -28203,7 +28203,7 @@
       </c>
       <c r="H250" s="12"/>
       <c r="I250" s="9" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="K250" s="9">
         <v>-28</v>
@@ -28265,7 +28265,7 @@
         <v>399</v>
       </c>
       <c r="I251" s="9" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="K251" s="9">
         <v>-29</v>
@@ -28333,7 +28333,7 @@
         <v>610</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="K252" s="9">
         <v>-30</v>
@@ -28395,7 +28395,7 @@
         <v>611</v>
       </c>
       <c r="I253" s="9" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="K253" s="9">
         <v>-30</v>
@@ -28457,7 +28457,7 @@
         <v>630</v>
       </c>
       <c r="I254" s="9" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="K254" s="9">
         <v>-31</v>
@@ -28522,7 +28522,7 @@
         <v>625</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="K255" s="9">
         <v>-31</v>
@@ -28587,7 +28587,7 @@
         <v>626</v>
       </c>
       <c r="I256" s="9" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="K256" s="9">
         <v>-31</v>
@@ -28652,7 +28652,7 @@
         <v>637</v>
       </c>
       <c r="I257" s="9" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="K257" s="9">
         <v>-31</v>
@@ -28729,7 +28729,7 @@
         <v>667</v>
       </c>
       <c r="I258" s="9" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="K258" s="9">
         <v>-31</v>
@@ -28794,7 +28794,7 @@
         <v>471</v>
       </c>
       <c r="I259" s="9" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="K259" s="9">
         <v>-31</v>
@@ -28859,7 +28859,7 @@
         <v>473</v>
       </c>
       <c r="I260" s="9" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="K260" s="9">
         <v>-31</v>
@@ -28924,7 +28924,7 @@
         <v>475</v>
       </c>
       <c r="I261" s="9" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="K261" s="9">
         <v>-31</v>
@@ -28989,7 +28989,7 @@
         <v>477</v>
       </c>
       <c r="I262" s="9" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="K262" s="9">
         <v>-31</v>
@@ -29054,7 +29054,7 @@
         <v>479</v>
       </c>
       <c r="I263" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="K263" s="9">
         <v>-31</v>
@@ -29119,7 +29119,7 @@
         <v>639</v>
       </c>
       <c r="I264" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="K264" s="9">
         <v>-31</v>
@@ -29184,7 +29184,7 @@
         <v>640</v>
       </c>
       <c r="I265" s="9" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="K265" s="9">
         <v>-31</v>
@@ -29249,7 +29249,7 @@
         <v>641</v>
       </c>
       <c r="I266" s="9" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="K266" s="9">
         <v>-31</v>
@@ -29314,7 +29314,7 @@
         <v>642</v>
       </c>
       <c r="I267" s="9" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="K267" s="9">
         <v>-31</v>
@@ -29379,7 +29379,7 @@
         <v>643</v>
       </c>
       <c r="I268" s="9" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="K268" s="9">
         <v>-31</v>
@@ -29444,7 +29444,7 @@
         <v>644</v>
       </c>
       <c r="I269" s="9" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="K269" s="9">
         <v>-31</v>
@@ -29509,7 +29509,7 @@
         <v>493</v>
       </c>
       <c r="I270" s="9" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="K270" s="9">
         <v>-31</v>
@@ -29574,7 +29574,7 @@
         <v>494</v>
       </c>
       <c r="I271" s="9" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="K271" s="9">
         <v>-31</v>
@@ -29639,7 +29639,7 @@
         <v>495</v>
       </c>
       <c r="I272" s="9" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="K272" s="9">
         <v>-31</v>
@@ -29761,7 +29761,7 @@
         <v>1086</v>
       </c>
       <c r="I274" s="9" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
       <c r="K274" s="9">
         <v>-10</v>
@@ -29820,7 +29820,7 @@
         <v>684</v>
       </c>
       <c r="I275" s="9" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
       <c r="K275" s="9">
         <v>-31</v>
@@ -29885,7 +29885,7 @@
         <v>868</v>
       </c>
       <c r="I276" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="K276" s="9">
         <v>-31</v>
@@ -29950,7 +29950,7 @@
         <v>869</v>
       </c>
       <c r="I277" s="9" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="K277" s="9">
         <v>-31</v>
@@ -30015,7 +30015,7 @@
         <v>870</v>
       </c>
       <c r="I278" s="9" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="K278" s="9">
         <v>-31</v>
@@ -30080,7 +30080,7 @@
         <v>894</v>
       </c>
       <c r="I279" s="9" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="K279" s="9">
         <v>-31</v>
@@ -30145,7 +30145,7 @@
         <v>685</v>
       </c>
       <c r="I280" s="9" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
       <c r="K280" s="9">
         <v>-31</v>
@@ -30210,7 +30210,7 @@
         <v>871</v>
       </c>
       <c r="I281" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="K281" s="9">
         <v>-31</v>
@@ -30275,7 +30275,7 @@
         <v>872</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="K282" s="9">
         <v>-31</v>
@@ -30340,7 +30340,7 @@
         <v>873</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="K283" s="9">
         <v>-31</v>
@@ -30405,7 +30405,7 @@
         <v>874</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="K284" s="9">
         <v>-31</v>
@@ -31028,7 +31028,7 @@
         <v>758</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>2194</v>
+        <v>2189</v>
       </c>
       <c r="K294" s="9">
         <v>-31</v>
@@ -31090,7 +31090,7 @@
         <v>759</v>
       </c>
       <c r="I295" s="9" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
       <c r="K295" s="9">
         <v>-31</v>
@@ -31152,7 +31152,7 @@
         <v>760</v>
       </c>
       <c r="I296" s="9" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
       <c r="K296" s="9">
         <v>-31</v>
@@ -31214,7 +31214,7 @@
         <v>761</v>
       </c>
       <c r="I297" s="9" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
       <c r="K297" s="9">
         <v>-31</v>
@@ -31276,7 +31276,7 @@
         <v>762</v>
       </c>
       <c r="I298" s="9" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
       <c r="K298" s="9">
         <v>-31</v>
@@ -31338,7 +31338,7 @@
         <v>763</v>
       </c>
       <c r="I299" s="9" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
       <c r="K299" s="9">
         <v>-31</v>
@@ -31400,7 +31400,7 @@
         <v>764</v>
       </c>
       <c r="I300" s="9" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="K300" s="9">
         <v>-31</v>
@@ -31462,7 +31462,7 @@
         <v>765</v>
       </c>
       <c r="I301" s="9" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
       <c r="K301" s="9">
         <v>-31</v>
@@ -31524,7 +31524,7 @@
         <v>766</v>
       </c>
       <c r="I302" s="9" t="s">
-        <v>2202</v>
+        <v>2197</v>
       </c>
       <c r="K302" s="9">
         <v>-31</v>
@@ -31586,7 +31586,7 @@
         <v>767</v>
       </c>
       <c r="I303" s="9" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
       <c r="K303" s="9">
         <v>-31</v>
@@ -31648,7 +31648,7 @@
         <v>768</v>
       </c>
       <c r="I304" s="9" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
       <c r="K304" s="9">
         <v>-31</v>
@@ -31710,7 +31710,7 @@
         <v>769</v>
       </c>
       <c r="I305" s="9" t="s">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="K305" s="9">
         <v>-31</v>
@@ -31772,7 +31772,7 @@
         <v>770</v>
       </c>
       <c r="I306" s="9" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
       <c r="K306" s="9">
         <v>-31</v>
@@ -31834,7 +31834,7 @@
         <v>771</v>
       </c>
       <c r="I307" s="9" t="s">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="K307" s="9">
         <v>-31</v>
@@ -31896,7 +31896,7 @@
         <v>772</v>
       </c>
       <c r="I308" s="9" t="s">
-        <v>2206</v>
+        <v>2201</v>
       </c>
       <c r="K308" s="9">
         <v>-31</v>
@@ -32017,10 +32017,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="9" t="s">
-        <v>2207</v>
+        <v>2202</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>2208</v>
+        <v>2203</v>
       </c>
       <c r="K310" s="9">
         <v>-31</v>
@@ -32079,10 +32079,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="9" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
       <c r="K311" s="9">
         <v>-31</v>
@@ -32141,10 +32141,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="9" t="s">
-        <v>2211</v>
+        <v>2206</v>
       </c>
       <c r="I312" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="K312" s="9">
         <v>-31</v>
@@ -32203,10 +32203,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="9" t="s">
-        <v>2212</v>
+        <v>2207</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="K313" s="9">
         <v>-31</v>
@@ -32265,10 +32265,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="9" t="s">
-        <v>2213</v>
+        <v>2208</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="K314" s="9">
         <v>-31</v>
@@ -32327,10 +32327,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="9" t="s">
-        <v>2214</v>
+        <v>2209</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="K315" s="9">
         <v>-31</v>
@@ -32578,7 +32578,7 @@
         <v>777</v>
       </c>
       <c r="I319" s="9" t="s">
-        <v>2215</v>
+        <v>2210</v>
       </c>
       <c r="K319" s="9">
         <v>-23</v>
@@ -32634,7 +32634,7 @@
         <v>778</v>
       </c>
       <c r="I320" s="9" t="s">
-        <v>2216</v>
+        <v>2211</v>
       </c>
       <c r="K320" s="9">
         <v>-25</v>
@@ -32690,7 +32690,7 @@
         <v>783</v>
       </c>
       <c r="I321" s="9" t="s">
-        <v>2217</v>
+        <v>2212</v>
       </c>
       <c r="K321" s="9">
         <v>-31</v>
@@ -32752,7 +32752,7 @@
         <v>784</v>
       </c>
       <c r="I322" s="9" t="s">
-        <v>2218</v>
+        <v>2213</v>
       </c>
       <c r="K322" s="9">
         <v>-31</v>
@@ -32814,7 +32814,7 @@
         <v>785</v>
       </c>
       <c r="I323" s="9" t="s">
-        <v>2219</v>
+        <v>2214</v>
       </c>
       <c r="K323" s="9">
         <v>-31</v>
@@ -32876,7 +32876,7 @@
         <v>786</v>
       </c>
       <c r="I324" s="9" t="s">
-        <v>2220</v>
+        <v>2215</v>
       </c>
       <c r="K324" s="9">
         <v>-31</v>
@@ -32938,7 +32938,7 @@
         <v>787</v>
       </c>
       <c r="I325" s="9" t="s">
-        <v>2221</v>
+        <v>2216</v>
       </c>
       <c r="K325" s="9">
         <v>-31</v>
@@ -33000,7 +33000,7 @@
         <v>794</v>
       </c>
       <c r="I326" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="K326" s="9">
         <v>-31</v>
@@ -33062,7 +33062,7 @@
         <v>795</v>
       </c>
       <c r="I327" s="9" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="K327" s="9">
         <v>-31</v>
@@ -33124,7 +33124,7 @@
         <v>796</v>
       </c>
       <c r="I328" s="9" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="K328" s="9">
         <v>-31</v>
@@ -33186,7 +33186,7 @@
         <v>797</v>
       </c>
       <c r="I329" s="9" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="K329" s="9">
         <v>-31</v>
@@ -33248,7 +33248,7 @@
         <v>809</v>
       </c>
       <c r="I330" s="9" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="K330" s="9">
         <v>-31</v>
@@ -33310,7 +33310,7 @@
         <v>802</v>
       </c>
       <c r="I331" s="9" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="K331" s="9">
         <v>-31</v>
@@ -33372,7 +33372,7 @@
         <v>814</v>
       </c>
       <c r="I332" s="9" t="s">
-        <v>2222</v>
+        <v>2217</v>
       </c>
       <c r="K332" s="9">
         <v>-25</v>
@@ -33434,7 +33434,7 @@
         <v>820</v>
       </c>
       <c r="I333" s="9" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="K333" s="9">
         <v>-25</v>
@@ -33496,7 +33496,7 @@
         <v>816</v>
       </c>
       <c r="I334" s="9" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="K334" s="9">
         <v>-25</v>
@@ -33558,7 +33558,7 @@
         <v>820</v>
       </c>
       <c r="I335" s="9" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="K335" s="9">
         <v>-25</v>
@@ -33620,7 +33620,7 @@
         <v>820</v>
       </c>
       <c r="I336" s="9" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="K336" s="9">
         <v>-25</v>
@@ -33682,7 +33682,7 @@
         <v>820</v>
       </c>
       <c r="I337" s="9" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="K337" s="9">
         <v>-25</v>
@@ -33744,7 +33744,7 @@
         <v>820</v>
       </c>
       <c r="I338" s="9" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="K338" s="9">
         <v>-25</v>
@@ -33806,7 +33806,7 @@
         <v>820</v>
       </c>
       <c r="I339" s="9" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="K339" s="9">
         <v>-25</v>
@@ -33868,7 +33868,7 @@
         <v>1058</v>
       </c>
       <c r="I340" s="36" t="s">
-        <v>2224</v>
+        <v>2219</v>
       </c>
       <c r="K340" s="36">
         <v>-31</v>
@@ -34066,7 +34066,7 @@
         <v>835</v>
       </c>
       <c r="I343" s="9" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
       <c r="K343" s="9">
         <v>-31</v>
@@ -34134,7 +34134,7 @@
         <v>836</v>
       </c>
       <c r="I344" s="9" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
       <c r="K344" s="9">
         <v>-31</v>
@@ -34202,7 +34202,7 @@
         <v>837</v>
       </c>
       <c r="I345" s="9" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
       <c r="K345" s="9">
         <v>-31</v>
@@ -34270,7 +34270,7 @@
         <v>838</v>
       </c>
       <c r="I346" s="9" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="K346" s="9">
         <v>-31</v>
@@ -34338,7 +34338,7 @@
         <v>839</v>
       </c>
       <c r="I347" s="9" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="K347" s="9">
         <v>-31</v>
@@ -34406,7 +34406,7 @@
         <v>840</v>
       </c>
       <c r="I348" s="9" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
       <c r="K348" s="9">
         <v>-31</v>
@@ -34474,7 +34474,7 @@
         <v>841</v>
       </c>
       <c r="I349" s="9" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
       <c r="K349" s="9">
         <v>-31</v>
@@ -34542,7 +34542,7 @@
         <v>842</v>
       </c>
       <c r="I350" s="9" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
       <c r="K350" s="9">
         <v>-31</v>
@@ -34610,7 +34610,7 @@
         <v>843</v>
       </c>
       <c r="I351" s="9" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
       <c r="K351" s="9">
         <v>-31</v>
@@ -34678,7 +34678,7 @@
         <v>844</v>
       </c>
       <c r="I352" s="9" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
       <c r="K352" s="9">
         <v>-31</v>
@@ -34746,7 +34746,7 @@
         <v>845</v>
       </c>
       <c r="I353" s="9" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
       <c r="K353" s="9">
         <v>-31</v>
@@ -34814,7 +34814,7 @@
         <v>846</v>
       </c>
       <c r="I354" s="9" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="K354" s="9">
         <v>-31</v>
@@ -34882,7 +34882,7 @@
         <v>847</v>
       </c>
       <c r="I355" s="9" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="K355" s="9">
         <v>-31</v>
@@ -34950,7 +34950,7 @@
         <v>848</v>
       </c>
       <c r="I356" s="9" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
       <c r="K356" s="9">
         <v>-31</v>
@@ -35018,7 +35018,7 @@
         <v>849</v>
       </c>
       <c r="I357" s="9" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
       <c r="K357" s="9">
         <v>-31</v>
@@ -35086,7 +35086,7 @@
         <v>850</v>
       </c>
       <c r="I358" s="9" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
       <c r="K358" s="9">
         <v>-31</v>
@@ -35154,7 +35154,7 @@
         <v>855</v>
       </c>
       <c r="I359" s="9" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
       <c r="K359" s="9">
         <v>-31</v>
@@ -35222,7 +35222,7 @@
         <v>856</v>
       </c>
       <c r="I360" s="9" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
       <c r="K360" s="9">
         <v>-31</v>
@@ -35473,7 +35473,7 @@
         <v>875</v>
       </c>
       <c r="I364" s="9" t="s">
-        <v>2234</v>
+        <v>2229</v>
       </c>
       <c r="K364" s="9">
         <v>-31</v>
@@ -35544,7 +35544,7 @@
         <v>876</v>
       </c>
       <c r="I365" s="9" t="s">
-        <v>2235</v>
+        <v>2230</v>
       </c>
       <c r="K365" s="9">
         <v>-31</v>
@@ -35615,7 +35615,7 @@
         <v>877</v>
       </c>
       <c r="I366" s="9" t="s">
-        <v>2236</v>
+        <v>2231</v>
       </c>
       <c r="K366" s="9">
         <v>-31</v>
@@ -35687,7 +35687,7 @@
         <v>1087</v>
       </c>
       <c r="I367" s="9" t="s">
-        <v>2237</v>
+        <v>2232</v>
       </c>
       <c r="K367" s="9">
         <v>-10</v>
@@ -35743,10 +35743,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="9" t="s">
-        <v>2238</v>
+        <v>2233</v>
       </c>
       <c r="I368" s="9" t="s">
-        <v>2239</v>
+        <v>2234</v>
       </c>
       <c r="K368" s="9">
         <v>-4</v>
@@ -35808,7 +35808,7 @@
         <v>957</v>
       </c>
       <c r="I369" s="36" t="s">
-        <v>2240</v>
+        <v>2235</v>
       </c>
       <c r="K369" s="36">
         <v>-31</v>
@@ -35879,7 +35879,7 @@
         <v>963</v>
       </c>
       <c r="I370" s="9" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
       <c r="K370" s="9">
         <v>-31</v>
@@ -35950,7 +35950,7 @@
         <v>967</v>
       </c>
       <c r="I371" s="9" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="K371" s="9">
         <v>-31</v>
@@ -36606,7 +36606,7 @@
         <v>1088</v>
       </c>
       <c r="I381" s="9" t="s">
-        <v>2242</v>
+        <v>2237</v>
       </c>
       <c r="K381" s="9">
         <v>-31</v>
@@ -36671,7 +36671,7 @@
         <v>1002</v>
       </c>
       <c r="I382" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="K382" s="9">
         <v>-31</v>
@@ -36736,7 +36736,7 @@
         <v>1003</v>
       </c>
       <c r="I383" s="9" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="K383" s="9">
         <v>-31</v>
@@ -36801,7 +36801,7 @@
         <v>1004</v>
       </c>
       <c r="I384" s="9" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="K384" s="9">
         <v>-31</v>
@@ -36866,7 +36866,7 @@
         <v>1004</v>
       </c>
       <c r="I385" s="9" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="K385" s="9">
         <v>-31</v>
@@ -36931,7 +36931,7 @@
         <v>1034</v>
       </c>
       <c r="I386" s="9" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="K386" s="9">
         <v>-31</v>
@@ -36999,7 +36999,7 @@
         <v>1035</v>
       </c>
       <c r="I387" s="9" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="K387" s="9">
         <v>-31</v>
@@ -37067,7 +37067,7 @@
         <v>1036</v>
       </c>
       <c r="I388" s="9" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="K388" s="9">
         <v>-31</v>
@@ -37135,7 +37135,7 @@
         <v>1037</v>
       </c>
       <c r="I389" s="9" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="K389" s="9">
         <v>-31</v>
@@ -37203,7 +37203,7 @@
         <v>1038</v>
       </c>
       <c r="I390" s="9" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="K390" s="9">
         <v>-31</v>
@@ -37271,7 +37271,7 @@
         <v>1089</v>
       </c>
       <c r="I391" s="9" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
       <c r="K391" s="9">
         <v>-31</v>
@@ -37342,7 +37342,7 @@
         <v>1047</v>
       </c>
       <c r="I392" s="9" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
       <c r="K392" s="9">
         <v>-31</v>
@@ -37413,7 +37413,7 @@
         <v>1048</v>
       </c>
       <c r="I393" s="9" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
       <c r="K393" s="9">
         <v>-31</v>
@@ -37484,7 +37484,7 @@
         <v>1054</v>
       </c>
       <c r="I394" s="9" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
       <c r="K394" s="9">
         <v>-31</v>
@@ -37567,7 +37567,7 @@
         <v>1728</v>
       </c>
       <c r="I395" s="9" t="s">
-        <v>2248</v>
+        <v>2243</v>
       </c>
       <c r="K395" s="9">
         <v>-31</v>
@@ -37635,7 +37635,7 @@
         <v>1728</v>
       </c>
       <c r="I396" s="9" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
       <c r="K396" s="9">
         <v>-31</v>
@@ -37703,7 +37703,7 @@
         <v>1728</v>
       </c>
       <c r="I397" s="9" t="s">
-        <v>2250</v>
+        <v>2245</v>
       </c>
       <c r="K397" s="9">
         <v>-31</v>
@@ -37771,7 +37771,7 @@
         <v>1729</v>
       </c>
       <c r="I398" s="9" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
       <c r="K398" s="9">
         <v>-31</v>
@@ -37839,7 +37839,7 @@
         <v>1730</v>
       </c>
       <c r="I399" s="9" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="K399" s="9">
         <v>-31</v>
@@ -37907,7 +37907,7 @@
         <v>1729</v>
       </c>
       <c r="I400" s="9" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
       <c r="K400" s="9">
         <v>-31</v>
@@ -37975,7 +37975,7 @@
         <v>1731</v>
       </c>
       <c r="I401" s="9" t="s">
-        <v>2254</v>
+        <v>2249</v>
       </c>
       <c r="K401" s="9">
         <v>-31</v>
@@ -38043,7 +38043,7 @@
         <v>1732</v>
       </c>
       <c r="I402" s="9" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
       <c r="K402" s="9">
         <v>-31</v>
@@ -38111,7 +38111,7 @@
         <v>1731</v>
       </c>
       <c r="I403" s="9" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
       <c r="K403" s="9">
         <v>-31</v>
@@ -38177,7 +38177,7 @@
       </c>
       <c r="H404" s="32"/>
       <c r="I404" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="K404" s="9">
         <v>-31</v>
@@ -38243,7 +38243,7 @@
       </c>
       <c r="H405" s="32"/>
       <c r="I405" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="K405" s="9">
         <v>-31</v>
@@ -38309,7 +38309,7 @@
       </c>
       <c r="H406" s="32"/>
       <c r="I406" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="K406" s="9">
         <v>-31</v>
@@ -38375,7 +38375,7 @@
       </c>
       <c r="H407" s="32"/>
       <c r="I407" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="K407" s="9">
         <v>-31</v>
@@ -38441,7 +38441,7 @@
       </c>
       <c r="H408" s="32"/>
       <c r="I408" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="K408" s="9">
         <v>-31</v>
@@ -38507,7 +38507,7 @@
       </c>
       <c r="H409" s="32"/>
       <c r="I409" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="K409" s="9">
         <v>-31</v>
@@ -38573,7 +38573,7 @@
       </c>
       <c r="H410" s="32"/>
       <c r="I410" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="K410" s="9">
         <v>-31</v>
@@ -38639,7 +38639,7 @@
       </c>
       <c r="H411" s="32"/>
       <c r="I411" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="K411" s="9">
         <v>-31</v>
@@ -38705,7 +38705,7 @@
       </c>
       <c r="H412" s="32"/>
       <c r="I412" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="K412" s="9">
         <v>-31</v>
@@ -38770,7 +38770,7 @@
         <v>1114</v>
       </c>
       <c r="I413" s="9" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
       <c r="K413" s="9">
         <v>-31</v>
@@ -38835,7 +38835,7 @@
         <v>1114</v>
       </c>
       <c r="I414" s="9" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
       <c r="K414" s="9">
         <v>-31</v>
@@ -38900,7 +38900,7 @@
         <v>1114</v>
       </c>
       <c r="I415" s="9" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="K415" s="9">
         <v>-31</v>
@@ -38965,7 +38965,7 @@
         <v>1115</v>
       </c>
       <c r="I416" s="9" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
       <c r="K416" s="9">
         <v>-31</v>
@@ -39030,7 +39030,7 @@
         <v>1115</v>
       </c>
       <c r="I417" s="9" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="K417" s="9">
         <v>-31</v>
@@ -39095,7 +39095,7 @@
         <v>1115</v>
       </c>
       <c r="I418" s="9" t="s">
-        <v>2263</v>
+        <v>2258</v>
       </c>
       <c r="K418" s="9">
         <v>-31</v>
@@ -39160,7 +39160,7 @@
         <v>1116</v>
       </c>
       <c r="I419" s="9" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
       <c r="K419" s="9">
         <v>-31</v>
@@ -39225,7 +39225,7 @@
         <v>1116</v>
       </c>
       <c r="I420" s="9" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
       <c r="K420" s="9">
         <v>-31</v>
@@ -39290,7 +39290,7 @@
         <v>1116</v>
       </c>
       <c r="I421" s="9" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
       <c r="K421" s="9">
         <v>-31</v>
@@ -39423,7 +39423,7 @@
         <v>1458</v>
       </c>
       <c r="I423" s="9" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="K423" s="9">
         <v>-31</v>
@@ -39491,7 +39491,7 @@
         <v>1458</v>
       </c>
       <c r="I424" s="9" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="K424" s="9">
         <v>-31</v>
@@ -39559,7 +39559,7 @@
         <v>1457</v>
       </c>
       <c r="I425" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="K425" s="9">
         <v>-31</v>
@@ -39627,7 +39627,7 @@
         <v>1457</v>
       </c>
       <c r="I426" s="9" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="K426" s="9">
         <v>-31</v>
@@ -39695,7 +39695,7 @@
         <v>1457</v>
       </c>
       <c r="I427" s="9" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
       <c r="K427" s="9">
         <v>-31</v>
@@ -39763,7 +39763,7 @@
         <v>1457</v>
       </c>
       <c r="I428" s="9" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="K428" s="9">
         <v>-31</v>
@@ -39831,7 +39831,7 @@
         <v>1457</v>
       </c>
       <c r="I429" s="9" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="K429" s="9">
         <v>-31</v>
@@ -39899,7 +39899,7 @@
         <v>1457</v>
       </c>
       <c r="I430" s="9" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="K430" s="9">
         <v>-31</v>
@@ -39967,7 +39967,7 @@
         <v>1457</v>
       </c>
       <c r="I431" s="9" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="K431" s="9">
         <v>-31</v>
@@ -40035,7 +40035,7 @@
         <v>1457</v>
       </c>
       <c r="I432" s="9" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="K432" s="9">
         <v>-31</v>
@@ -40103,7 +40103,7 @@
         <v>1457</v>
       </c>
       <c r="I433" s="9" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="K433" s="9">
         <v>-31</v>
@@ -40171,7 +40171,7 @@
         <v>1457</v>
       </c>
       <c r="I434" s="9" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
       <c r="K434" s="9">
         <v>-31</v>
@@ -40236,7 +40236,7 @@
         <v>1162</v>
       </c>
       <c r="I435" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="K435" s="9">
         <v>-31</v>
@@ -40298,7 +40298,7 @@
         <v>1162</v>
       </c>
       <c r="I436" s="9" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="K436" s="9">
         <v>-31</v>
@@ -40360,7 +40360,7 @@
         <v>1162</v>
       </c>
       <c r="I437" s="9" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="K437" s="9">
         <v>-31</v>
@@ -40422,7 +40422,7 @@
         <v>1162</v>
       </c>
       <c r="I438" s="9" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="K438" s="9">
         <v>-31</v>
@@ -40484,7 +40484,7 @@
         <v>1173</v>
       </c>
       <c r="I439" s="9" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="K439" s="9">
         <v>-31</v>
@@ -40549,7 +40549,7 @@
         <v>1173</v>
       </c>
       <c r="I440" s="9" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="K440" s="9">
         <v>-31</v>
@@ -40614,7 +40614,7 @@
         <v>1173</v>
       </c>
       <c r="I441" s="9" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="K441" s="9">
         <v>-31</v>
@@ -40679,7 +40679,7 @@
         <v>1174</v>
       </c>
       <c r="I442" s="9" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
       <c r="K442" s="9">
         <v>-31</v>
@@ -40744,7 +40744,7 @@
         <v>1174</v>
       </c>
       <c r="I443" s="9" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="K443" s="9">
         <v>-31</v>
@@ -40809,7 +40809,7 @@
         <v>1174</v>
       </c>
       <c r="I444" s="9" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="K444" s="9">
         <v>-31</v>
@@ -40874,7 +40874,7 @@
         <v>1175</v>
       </c>
       <c r="I445" s="9" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
       <c r="K445" s="9">
         <v>-31</v>
@@ -40939,7 +40939,7 @@
         <v>1175</v>
       </c>
       <c r="I446" s="9" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
       <c r="K446" s="9">
         <v>-31</v>
@@ -41004,7 +41004,7 @@
         <v>1175</v>
       </c>
       <c r="I447" s="9" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="K447" s="9">
         <v>-31</v>
@@ -41069,7 +41069,7 @@
         <v>1176</v>
       </c>
       <c r="I448" s="9" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
       <c r="K448" s="9">
         <v>-31</v>
@@ -41134,7 +41134,7 @@
         <v>1176</v>
       </c>
       <c r="I449" s="9" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="K449" s="9">
         <v>-31</v>
@@ -41199,7 +41199,7 @@
         <v>1176</v>
       </c>
       <c r="I450" s="9" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="K450" s="9">
         <v>-31</v>
@@ -41267,7 +41267,7 @@
         <v>1201</v>
       </c>
       <c r="I451" s="9" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="K451" s="9">
         <v>-31</v>
@@ -41335,7 +41335,7 @@
         <v>1201</v>
       </c>
       <c r="I452" s="9" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="K452" s="9">
         <v>-31</v>
@@ -41403,7 +41403,7 @@
         <v>1201</v>
       </c>
       <c r="I453" s="9" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="K453" s="9">
         <v>-31</v>
@@ -41471,7 +41471,7 @@
         <v>1202</v>
       </c>
       <c r="I454" s="9" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
       <c r="K454" s="9">
         <v>-31</v>
@@ -41539,7 +41539,7 @@
         <v>1202</v>
       </c>
       <c r="I455" s="9" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="K455" s="9">
         <v>-31</v>
@@ -41607,7 +41607,7 @@
         <v>1202</v>
       </c>
       <c r="I456" s="9" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="K456" s="9">
         <v>-31</v>
@@ -41675,7 +41675,7 @@
         <v>1203</v>
       </c>
       <c r="I457" s="9" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
       <c r="K457" s="9">
         <v>-31</v>
@@ -41743,7 +41743,7 @@
         <v>1203</v>
       </c>
       <c r="I458" s="9" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
       <c r="K458" s="9">
         <v>-31</v>
@@ -41811,7 +41811,7 @@
         <v>1203</v>
       </c>
       <c r="I459" s="9" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="K459" s="9">
         <v>-31</v>
@@ -41879,7 +41879,7 @@
         <v>1204</v>
       </c>
       <c r="I460" s="9" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
       <c r="K460" s="9">
         <v>-31</v>
@@ -41947,7 +41947,7 @@
         <v>1204</v>
       </c>
       <c r="I461" s="9" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="K461" s="9">
         <v>-31</v>
@@ -42015,7 +42015,7 @@
         <v>1204</v>
       </c>
       <c r="I462" s="9" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="K462" s="9">
         <v>-31</v>
@@ -42083,7 +42083,7 @@
         <v>1210</v>
       </c>
       <c r="I463" s="9" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
       <c r="K463" s="9">
         <v>-31</v>
@@ -42151,7 +42151,7 @@
         <v>1209</v>
       </c>
       <c r="I464" s="9" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
       <c r="K464" s="9">
         <v>-31</v>
@@ -42219,7 +42219,7 @@
         <v>1209</v>
       </c>
       <c r="I465" s="9" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
       <c r="K465" s="9">
         <v>-31</v>
@@ -42287,7 +42287,7 @@
         <v>1211</v>
       </c>
       <c r="I466" s="9" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="K466" s="9">
         <v>-31</v>
@@ -42355,7 +42355,7 @@
         <v>1211</v>
       </c>
       <c r="I467" s="9" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
       <c r="K467" s="9">
         <v>-31</v>
@@ -42423,7 +42423,7 @@
         <v>1211</v>
       </c>
       <c r="I468" s="9" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
       <c r="K468" s="9">
         <v>-31</v>
@@ -42491,7 +42491,7 @@
         <v>1212</v>
       </c>
       <c r="I469" s="9" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
       <c r="K469" s="9">
         <v>-31</v>
@@ -42559,7 +42559,7 @@
         <v>1212</v>
       </c>
       <c r="I470" s="9" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="K470" s="9">
         <v>-31</v>
@@ -42627,7 +42627,7 @@
         <v>1212</v>
       </c>
       <c r="I471" s="9" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
       <c r="K471" s="9">
         <v>-31</v>
@@ -42695,7 +42695,7 @@
         <v>1213</v>
       </c>
       <c r="I472" s="9" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="K472" s="9">
         <v>-31</v>
@@ -42763,7 +42763,7 @@
         <v>1213</v>
       </c>
       <c r="I473" s="9" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
       <c r="K473" s="9">
         <v>-31</v>
@@ -42831,7 +42831,7 @@
         <v>1213</v>
       </c>
       <c r="I474" s="9" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
       <c r="K474" s="9">
         <v>-31</v>
@@ -42896,7 +42896,7 @@
         <v>1229</v>
       </c>
       <c r="I475" s="9" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="K475" s="9">
         <v>-31</v>
@@ -42958,7 +42958,7 @@
         <v>1229</v>
       </c>
       <c r="I476" s="9" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="K476" s="9">
         <v>-31</v>
@@ -43020,7 +43020,7 @@
         <v>1235</v>
       </c>
       <c r="I477" s="9" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="K477" s="9">
         <v>-31</v>
@@ -43082,7 +43082,7 @@
         <v>1236</v>
       </c>
       <c r="I478" s="9" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="K478" s="9">
         <v>-31</v>
@@ -43144,7 +43144,7 @@
         <v>1237</v>
       </c>
       <c r="I479" s="9" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="K479" s="9">
         <v>-31</v>
@@ -43206,7 +43206,7 @@
         <v>1238</v>
       </c>
       <c r="I480" s="9" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="K480" s="9">
         <v>-31</v>
@@ -43268,7 +43268,7 @@
         <v>1239</v>
       </c>
       <c r="I481" s="9" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
       <c r="K481" s="9">
         <v>-31</v>
@@ -43330,7 +43330,7 @@
         <v>1240</v>
       </c>
       <c r="I482" s="9" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="K482" s="9">
         <v>-31</v>
@@ -43395,7 +43395,7 @@
         <v>1257</v>
       </c>
       <c r="I483" s="9" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
       <c r="K483" s="9">
         <v>-31</v>
@@ -43460,7 +43460,7 @@
         <v>1256</v>
       </c>
       <c r="I484" s="9" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
       <c r="K484" s="9">
         <v>-31</v>
@@ -43525,7 +43525,7 @@
         <v>1285</v>
       </c>
       <c r="I485" s="9" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="K485" s="9">
         <v>-31</v>
@@ -43593,7 +43593,7 @@
         <v>1286</v>
       </c>
       <c r="I486" s="9" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="K486" s="9">
         <v>-31</v>
@@ -43661,7 +43661,7 @@
         <v>1287</v>
       </c>
       <c r="I487" s="9" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
       <c r="K487" s="9">
         <v>-31</v>
@@ -43729,7 +43729,7 @@
         <v>1279</v>
       </c>
       <c r="I488" s="9" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
       <c r="K488" s="9">
         <v>-31</v>
@@ -43797,7 +43797,7 @@
         <v>1280</v>
       </c>
       <c r="I489" s="9" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
       <c r="K489" s="9">
         <v>-31</v>
@@ -43865,7 +43865,7 @@
         <v>1281</v>
       </c>
       <c r="I490" s="9" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="K490" s="9">
         <v>-31</v>
@@ -43933,7 +43933,7 @@
         <v>1282</v>
       </c>
       <c r="I491" s="9" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
       <c r="K491" s="9">
         <v>-31</v>
@@ -44001,7 +44001,7 @@
         <v>1283</v>
       </c>
       <c r="I492" s="9" t="s">
-        <v>2310</v>
+        <v>2305</v>
       </c>
       <c r="K492" s="9">
         <v>-31</v>
@@ -44069,7 +44069,7 @@
         <v>1284</v>
       </c>
       <c r="I493" s="9" t="s">
-        <v>2311</v>
+        <v>2306</v>
       </c>
       <c r="K493" s="9">
         <v>-31</v>
@@ -44137,7 +44137,7 @@
         <v>1301</v>
       </c>
       <c r="I494" s="9" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
       <c r="K494" s="9">
         <v>-31</v>
@@ -44205,7 +44205,7 @@
         <v>1301</v>
       </c>
       <c r="I495" s="9" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
       <c r="K495" s="9">
         <v>-31</v>
@@ -44273,7 +44273,7 @@
         <v>1301</v>
       </c>
       <c r="I496" s="9" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="K496" s="9">
         <v>-31</v>
@@ -44341,7 +44341,7 @@
         <v>1302</v>
       </c>
       <c r="I497" s="9" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
       <c r="K497" s="9">
         <v>-31</v>
@@ -44409,7 +44409,7 @@
         <v>1302</v>
       </c>
       <c r="I498" s="9" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="K498" s="9">
         <v>-31</v>
@@ -44477,7 +44477,7 @@
         <v>1302</v>
       </c>
       <c r="I499" s="9" t="s">
-        <v>2263</v>
+        <v>2258</v>
       </c>
       <c r="K499" s="9">
         <v>-31</v>
@@ -44545,7 +44545,7 @@
         <v>1303</v>
       </c>
       <c r="I500" s="9" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
       <c r="K500" s="9">
         <v>-31</v>
@@ -44613,7 +44613,7 @@
         <v>1303</v>
       </c>
       <c r="I501" s="9" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
       <c r="K501" s="9">
         <v>-31</v>
@@ -44681,7 +44681,7 @@
         <v>1303</v>
       </c>
       <c r="I502" s="9" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
       <c r="K502" s="9">
         <v>-31</v>
@@ -44749,7 +44749,7 @@
         <v>1582</v>
       </c>
       <c r="I503" s="36" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
       <c r="K503" s="36">
         <v>-31</v>
@@ -44823,7 +44823,7 @@
         <v>1311</v>
       </c>
       <c r="I504" s="9" t="s">
-        <v>2313</v>
+        <v>2308</v>
       </c>
       <c r="K504" s="9">
         <v>-31</v>
@@ -44888,7 +44888,7 @@
         <v>1312</v>
       </c>
       <c r="I505" s="9" t="s">
-        <v>2314</v>
+        <v>2309</v>
       </c>
       <c r="K505" s="9">
         <v>-31</v>
@@ -44953,7 +44953,7 @@
         <v>1313</v>
       </c>
       <c r="I506" s="9" t="s">
-        <v>2315</v>
+        <v>2310</v>
       </c>
       <c r="K506" s="9">
         <v>-31</v>
@@ -45018,7 +45018,7 @@
         <v>1314</v>
       </c>
       <c r="I507" s="9" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
       <c r="K507" s="9">
         <v>-31</v>
@@ -45083,7 +45083,7 @@
         <v>1315</v>
       </c>
       <c r="I508" s="9" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="K508" s="9">
         <v>-31</v>
@@ -45148,7 +45148,7 @@
         <v>1316</v>
       </c>
       <c r="I509" s="9" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
       <c r="K509" s="9">
         <v>-31</v>
@@ -45213,7 +45213,7 @@
         <v>1317</v>
       </c>
       <c r="I510" s="9" t="s">
-        <v>2319</v>
+        <v>2314</v>
       </c>
       <c r="K510" s="9">
         <v>-31</v>
@@ -45281,7 +45281,7 @@
         <v>1336</v>
       </c>
       <c r="I511" s="9" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="K511" s="9">
         <v>-31</v>
@@ -45349,7 +45349,7 @@
         <v>1336</v>
       </c>
       <c r="I512" s="9" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="K512" s="9">
         <v>-31</v>
@@ -45417,7 +45417,7 @@
         <v>1336</v>
       </c>
       <c r="I513" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="K513" s="9">
         <v>-31</v>
@@ -45485,7 +45485,7 @@
         <v>1337</v>
       </c>
       <c r="I514" s="9" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="K514" s="9">
         <v>-31</v>
@@ -45553,7 +45553,7 @@
         <v>1337</v>
       </c>
       <c r="I515" s="9" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
       <c r="K515" s="9">
         <v>-31</v>
@@ -45621,7 +45621,7 @@
         <v>1337</v>
       </c>
       <c r="I516" s="9" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="K516" s="9">
         <v>-31</v>
@@ -45689,7 +45689,7 @@
         <v>1338</v>
       </c>
       <c r="I517" s="9" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="K517" s="9">
         <v>-31</v>
@@ -45757,7 +45757,7 @@
         <v>1338</v>
       </c>
       <c r="I518" s="9" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="K518" s="9">
         <v>-31</v>
@@ -45825,7 +45825,7 @@
         <v>1338</v>
       </c>
       <c r="I519" s="9" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="K519" s="9">
         <v>-31</v>
@@ -45893,7 +45893,7 @@
         <v>1340</v>
       </c>
       <c r="I520" s="9" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="K520" s="9">
         <v>-31</v>
@@ -45961,7 +45961,7 @@
         <v>1339</v>
       </c>
       <c r="I521" s="9" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="K521" s="9">
         <v>-31</v>
@@ -46029,7 +46029,7 @@
         <v>1339</v>
       </c>
       <c r="I522" s="9" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
       <c r="K522" s="9">
         <v>-31</v>
@@ -46366,7 +46366,7 @@
         <v>1361</v>
       </c>
       <c r="I527" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="K527" s="9">
         <v>-31</v>
@@ -46431,7 +46431,7 @@
         <v>1361</v>
       </c>
       <c r="I528" s="9" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="K528" s="9">
         <v>-31</v>
@@ -46496,7 +46496,7 @@
         <v>1361</v>
       </c>
       <c r="I529" s="9" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="K529" s="9">
         <v>-31</v>
@@ -46561,7 +46561,7 @@
         <v>1361</v>
       </c>
       <c r="I530" s="9" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="K530" s="9">
         <v>-31</v>
@@ -46629,7 +46629,7 @@
         <v>1398</v>
       </c>
       <c r="I531" s="9" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="K531" s="9">
         <v>-31</v>
@@ -46697,7 +46697,7 @@
         <v>1398</v>
       </c>
       <c r="I532" s="9" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="K532" s="9">
         <v>-31</v>
@@ -46765,7 +46765,7 @@
         <v>1398</v>
       </c>
       <c r="I533" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="K533" s="9">
         <v>-31</v>
@@ -46833,7 +46833,7 @@
         <v>1337</v>
       </c>
       <c r="I534" s="9" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="K534" s="9">
         <v>-31</v>
@@ -46901,7 +46901,7 @@
         <v>1337</v>
       </c>
       <c r="I535" s="9" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
       <c r="K535" s="9">
         <v>-31</v>
@@ -46969,7 +46969,7 @@
         <v>1337</v>
       </c>
       <c r="I536" s="9" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="K536" s="9">
         <v>-31</v>
@@ -47037,7 +47037,7 @@
         <v>1302</v>
       </c>
       <c r="I537" s="9" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="K537" s="9">
         <v>-31</v>
@@ -47105,7 +47105,7 @@
         <v>1302</v>
       </c>
       <c r="I538" s="9" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="K538" s="9">
         <v>-31</v>
@@ -47173,7 +47173,7 @@
         <v>1302</v>
       </c>
       <c r="I539" s="9" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="K539" s="9">
         <v>-31</v>
@@ -47241,7 +47241,7 @@
         <v>1339</v>
       </c>
       <c r="I540" s="9" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="K540" s="9">
         <v>-31</v>
@@ -47309,7 +47309,7 @@
         <v>1339</v>
       </c>
       <c r="I541" s="9" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="K541" s="9">
         <v>-31</v>
@@ -47377,7 +47377,7 @@
         <v>1339</v>
       </c>
       <c r="I542" s="9" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
       <c r="K542" s="9">
         <v>-31</v>
@@ -47800,7 +47800,7 @@
         <v>1407</v>
       </c>
       <c r="I548" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="K548" s="9">
         <v>-31</v>
@@ -47868,7 +47868,7 @@
         <v>1407</v>
       </c>
       <c r="I549" s="9" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="K549" s="9">
         <v>-31</v>
@@ -47936,7 +47936,7 @@
         <v>1407</v>
       </c>
       <c r="I550" s="9" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="K550" s="9">
         <v>-31</v>
@@ -48004,7 +48004,7 @@
         <v>1422</v>
       </c>
       <c r="I551" s="9" t="s">
-        <v>2321</v>
+        <v>2316</v>
       </c>
       <c r="K551" s="9">
         <v>-31</v>
@@ -48072,7 +48072,7 @@
         <v>1422</v>
       </c>
       <c r="I552" s="9" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
       <c r="K552" s="9">
         <v>-31</v>
@@ -48140,7 +48140,7 @@
         <v>1422</v>
       </c>
       <c r="I553" s="9" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="K553" s="9">
         <v>-31</v>
@@ -48208,7 +48208,7 @@
         <v>1337</v>
       </c>
       <c r="I554" s="9" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
       <c r="K554" s="9">
         <v>-31</v>
@@ -48276,7 +48276,7 @@
         <v>1337</v>
       </c>
       <c r="I555" s="9" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="K555" s="9">
         <v>-31</v>
@@ -48344,7 +48344,7 @@
         <v>1337</v>
       </c>
       <c r="I556" s="9" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
       <c r="K556" s="9">
         <v>-31</v>
@@ -48412,7 +48412,7 @@
         <v>1302</v>
       </c>
       <c r="I557" s="9" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
       <c r="K557" s="9">
         <v>-31</v>
@@ -48480,7 +48480,7 @@
         <v>1302</v>
       </c>
       <c r="I558" s="9" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="K558" s="9">
         <v>-31</v>
@@ -48548,7 +48548,7 @@
         <v>1302</v>
       </c>
       <c r="I559" s="9" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
       <c r="K559" s="9">
         <v>-31</v>
@@ -48616,7 +48616,7 @@
         <v>1339</v>
       </c>
       <c r="I560" s="9" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="K560" s="9">
         <v>-31</v>
@@ -48684,7 +48684,7 @@
         <v>1339</v>
       </c>
       <c r="I561" s="9" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
       <c r="K561" s="9">
         <v>-31</v>
@@ -48752,7 +48752,7 @@
         <v>1339</v>
       </c>
       <c r="I562" s="9" t="s">
-        <v>2330</v>
+        <v>2325</v>
       </c>
       <c r="K562" s="9">
         <v>-31</v>
@@ -48820,7 +48820,7 @@
         <v>1336</v>
       </c>
       <c r="I563" s="9" t="s">
-        <v>2331</v>
+        <v>2326</v>
       </c>
       <c r="K563" s="9">
         <v>-31</v>
@@ -48888,7 +48888,7 @@
         <v>1336</v>
       </c>
       <c r="I564" s="9" t="s">
-        <v>2332</v>
+        <v>2327</v>
       </c>
       <c r="K564" s="9">
         <v>-31</v>
@@ -48956,7 +48956,7 @@
         <v>1336</v>
       </c>
       <c r="I565" s="9" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
       <c r="K565" s="9">
         <v>-31</v>
@@ -49024,7 +49024,7 @@
         <v>1337</v>
       </c>
       <c r="I566" s="9" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
       <c r="K566" s="9">
         <v>-31</v>
@@ -49092,7 +49092,7 @@
         <v>1337</v>
       </c>
       <c r="I567" s="9" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
       <c r="K567" s="9">
         <v>-31</v>
@@ -49160,7 +49160,7 @@
         <v>1337</v>
       </c>
       <c r="I568" s="9" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
       <c r="K568" s="9">
         <v>-31</v>
@@ -49228,7 +49228,7 @@
         <v>1302</v>
       </c>
       <c r="I569" s="9" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
       <c r="K569" s="9">
         <v>-31</v>
@@ -49296,7 +49296,7 @@
         <v>1302</v>
       </c>
       <c r="I570" s="9" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
       <c r="K570" s="9">
         <v>-31</v>
@@ -49364,7 +49364,7 @@
         <v>1302</v>
       </c>
       <c r="I571" s="9" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
       <c r="K571" s="9">
         <v>-31</v>
@@ -49432,7 +49432,7 @@
         <v>1339</v>
       </c>
       <c r="I572" s="9" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
       <c r="K572" s="9">
         <v>-31</v>
@@ -49500,7 +49500,7 @@
         <v>1339</v>
       </c>
       <c r="I573" s="9" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
       <c r="K573" s="9">
         <v>-31</v>
@@ -49568,7 +49568,7 @@
         <v>1339</v>
       </c>
       <c r="I574" s="9" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="K574" s="9">
         <v>-31</v>
@@ -49639,7 +49639,7 @@
         <v>1459</v>
       </c>
       <c r="I575" s="36" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="J575" s="36"/>
       <c r="K575" s="36">
@@ -49724,7 +49724,7 @@
         <v>1459</v>
       </c>
       <c r="I576" s="36" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="J576" s="36"/>
       <c r="K576" s="36">
@@ -49809,7 +49809,7 @@
         <v>1459</v>
       </c>
       <c r="I577" s="36" t="s">
-        <v>2343</v>
+        <v>2338</v>
       </c>
       <c r="J577" s="36"/>
       <c r="K577" s="36">
@@ -49894,7 +49894,7 @@
         <v>1463</v>
       </c>
       <c r="I578" s="36" t="s">
-        <v>2344</v>
+        <v>2339</v>
       </c>
       <c r="J578" s="36"/>
       <c r="K578" s="36">
@@ -49979,7 +49979,7 @@
         <v>1462</v>
       </c>
       <c r="I579" s="36" t="s">
-        <v>2345</v>
+        <v>2340</v>
       </c>
       <c r="J579" s="36"/>
       <c r="K579" s="36">
@@ -50064,7 +50064,7 @@
         <v>1467</v>
       </c>
       <c r="I580" s="36" t="s">
-        <v>2346</v>
+        <v>2341</v>
       </c>
       <c r="J580" s="36"/>
       <c r="K580" s="36">
@@ -50146,7 +50146,7 @@
         <v>1469</v>
       </c>
       <c r="I581" s="9" t="s">
-        <v>2347</v>
+        <v>2342</v>
       </c>
       <c r="K581" s="9">
         <v>-28</v>
@@ -50214,7 +50214,7 @@
         <v>1471</v>
       </c>
       <c r="I582" s="9" t="s">
-        <v>2348</v>
+        <v>2343</v>
       </c>
       <c r="K582" s="9">
         <v>-28</v>
@@ -50282,7 +50282,7 @@
         <v>1468</v>
       </c>
       <c r="I583" s="9" t="s">
-        <v>2349</v>
+        <v>2344</v>
       </c>
       <c r="K583" s="9">
         <v>-28</v>
@@ -50350,7 +50350,7 @@
         <v>1477</v>
       </c>
       <c r="I584" s="9" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="K584" s="9">
         <v>-28</v>
@@ -50418,7 +50418,7 @@
         <v>1476</v>
       </c>
       <c r="I585" s="9" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
       <c r="K585" s="9">
         <v>-28</v>
@@ -50486,7 +50486,7 @@
         <v>1477</v>
       </c>
       <c r="I586" s="9" t="s">
-        <v>2352</v>
+        <v>2347</v>
       </c>
       <c r="K586" s="9">
         <v>-28</v>
@@ -50554,7 +50554,7 @@
         <v>1482</v>
       </c>
       <c r="I587" s="9" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
       <c r="K587" s="9">
         <v>-28</v>
@@ -50622,7 +50622,7 @@
         <v>1482</v>
       </c>
       <c r="I588" s="9" t="s">
-        <v>2352</v>
+        <v>2347</v>
       </c>
       <c r="K588" s="9">
         <v>-28</v>
@@ -50690,7 +50690,7 @@
         <v>1482</v>
       </c>
       <c r="I589" s="9" t="s">
-        <v>2353</v>
+        <v>2348</v>
       </c>
       <c r="K589" s="9">
         <v>-28</v>
@@ -50758,7 +50758,7 @@
         <v>1488</v>
       </c>
       <c r="I590" s="9" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
       <c r="K590" s="9">
         <v>-20</v>
@@ -50826,7 +50826,7 @@
         <v>1583</v>
       </c>
       <c r="I591" s="36" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="K591" s="36">
         <v>-20</v>
@@ -50903,7 +50903,7 @@
         <v>1487</v>
       </c>
       <c r="I592" s="9" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="K592" s="9">
         <v>-20</v>
@@ -50983,7 +50983,7 @@
         <v>1498</v>
       </c>
       <c r="I593" s="40" t="s">
-        <v>2355</v>
+        <v>2350</v>
       </c>
       <c r="J593" s="36"/>
       <c r="K593" s="36">
@@ -51068,7 +51068,7 @@
         <v>1499</v>
       </c>
       <c r="I594" s="40" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
       <c r="J594" s="36"/>
       <c r="K594" s="36">
@@ -51153,7 +51153,7 @@
         <v>1500</v>
       </c>
       <c r="I595" s="40" t="s">
-        <v>2357</v>
+        <v>2352</v>
       </c>
       <c r="J595" s="36"/>
       <c r="K595" s="36">
@@ -51232,7 +51232,7 @@
         <v>1509</v>
       </c>
       <c r="I596" s="9" t="s">
-        <v>2358</v>
+        <v>2353</v>
       </c>
       <c r="K596" s="9">
         <v>-28</v>
@@ -51294,7 +51294,7 @@
         <v>1509</v>
       </c>
       <c r="I597" s="9" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
       <c r="K597" s="9">
         <v>-28</v>
@@ -51356,7 +51356,7 @@
         <v>1509</v>
       </c>
       <c r="I598" s="9" t="s">
-        <v>2360</v>
+        <v>2355</v>
       </c>
       <c r="K598" s="9">
         <v>-28</v>
@@ -51418,7 +51418,7 @@
         <v>1509</v>
       </c>
       <c r="I599" s="9" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="K599" s="9">
         <v>-28</v>
@@ -51480,7 +51480,7 @@
         <v>1509</v>
       </c>
       <c r="I600" s="9" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="K600" s="9">
         <v>-28</v>
@@ -51542,7 +51542,7 @@
         <v>1509</v>
       </c>
       <c r="I601" s="9" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
       <c r="K601" s="9">
         <v>-28</v>
@@ -51604,7 +51604,7 @@
         <v>1537</v>
       </c>
       <c r="I602" s="9" t="s">
-        <v>2364</v>
+        <v>2359</v>
       </c>
       <c r="K602" s="9">
         <v>-33</v>
@@ -51669,7 +51669,7 @@
         <v>1538</v>
       </c>
       <c r="I603" s="9" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="K603" s="9">
         <v>-33</v>
@@ -51734,7 +51734,7 @@
         <v>1539</v>
       </c>
       <c r="I604" s="9" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
       <c r="K604" s="9">
         <v>-33</v>
@@ -51799,7 +51799,7 @@
         <v>1540</v>
       </c>
       <c r="I605" s="9" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="K605" s="9">
         <v>-33</v>
@@ -51864,7 +51864,7 @@
         <v>1541</v>
       </c>
       <c r="I606" s="9" t="s">
-        <v>2368</v>
+        <v>2363</v>
       </c>
       <c r="K606" s="9">
         <v>-33</v>
@@ -51929,7 +51929,7 @@
         <v>1542</v>
       </c>
       <c r="I607" s="9" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
       <c r="K607" s="9">
         <v>-33</v>
@@ -51994,7 +51994,7 @@
         <v>1543</v>
       </c>
       <c r="I608" s="9" t="s">
-        <v>2370</v>
+        <v>2365</v>
       </c>
       <c r="K608" s="9">
         <v>-33</v>
@@ -52062,7 +52062,7 @@
         <v>1557</v>
       </c>
       <c r="I609" s="9" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="K609" s="9">
         <v>-33</v>
@@ -52127,7 +52127,7 @@
         <v>1558</v>
       </c>
       <c r="I610" s="9" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="K610" s="9">
         <v>-33</v>
@@ -52192,7 +52192,7 @@
         <v>1562</v>
       </c>
       <c r="I611" s="9" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
       <c r="K611" s="9">
         <v>-33</v>
@@ -52260,7 +52260,7 @@
         <v>1569</v>
       </c>
       <c r="I612" s="9" t="s">
-        <v>2208</v>
+        <v>2203</v>
       </c>
       <c r="K612" s="9">
         <v>-33</v>
@@ -52328,7 +52328,7 @@
         <v>1569</v>
       </c>
       <c r="I613" s="9" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="K613" s="9">
         <v>-33</v>
@@ -52396,7 +52396,7 @@
         <v>1569</v>
       </c>
       <c r="I614" s="9" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="K614" s="9">
         <v>-33</v>
@@ -52464,7 +52464,7 @@
         <v>1588</v>
       </c>
       <c r="I615" s="9" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="K615" s="9">
         <v>-33</v>
@@ -52532,7 +52532,7 @@
         <v>1588</v>
       </c>
       <c r="I616" s="9" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
       <c r="K616" s="9">
         <v>-33</v>
@@ -52600,7 +52600,7 @@
         <v>1589</v>
       </c>
       <c r="I617" s="9" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K617" s="9">
         <v>-33</v>
@@ -52668,7 +52668,7 @@
         <v>1590</v>
       </c>
       <c r="I618" s="9" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="K618" s="9">
         <v>-33</v>
@@ -52736,7 +52736,7 @@
         <v>1591</v>
       </c>
       <c r="I619" s="9" t="s">
-        <v>2379</v>
+        <v>2374</v>
       </c>
       <c r="K619" s="9">
         <v>-33</v>
@@ -52804,7 +52804,7 @@
         <v>1592</v>
       </c>
       <c r="I620" s="9" t="s">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="K620" s="9">
         <v>-33</v>
@@ -52872,7 +52872,7 @@
         <v>1593</v>
       </c>
       <c r="I621" s="9" t="s">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="K621" s="9">
         <v>-33</v>
@@ -52940,7 +52940,7 @@
         <v>1594</v>
       </c>
       <c r="I622" s="9" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K622" s="9">
         <v>-33</v>
@@ -53008,7 +53008,7 @@
         <v>1595</v>
       </c>
       <c r="I623" s="9" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
       <c r="K623" s="9">
         <v>-33</v>
@@ -53076,7 +53076,7 @@
         <v>1596</v>
       </c>
       <c r="I624" s="9" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K624" s="9">
         <v>-33</v>
@@ -53144,7 +53144,7 @@
         <v>1597</v>
       </c>
       <c r="I625" s="9" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
       <c r="K625" s="9">
         <v>-33</v>
@@ -53212,7 +53212,7 @@
         <v>1598</v>
       </c>
       <c r="I626" s="9" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="K626" s="9">
         <v>-33</v>
@@ -53280,7 +53280,7 @@
         <v>1588</v>
       </c>
       <c r="I627" s="9" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="K627" s="9">
         <v>-33</v>
@@ -53348,7 +53348,7 @@
         <v>1588</v>
       </c>
       <c r="I628" s="9" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="K628" s="9">
         <v>-33</v>
@@ -53416,7 +53416,7 @@
         <v>1588</v>
       </c>
       <c r="I629" s="9" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="K629" s="9">
         <v>-33</v>
@@ -53484,7 +53484,7 @@
         <v>1590</v>
       </c>
       <c r="I630" s="9" t="s">
-        <v>2387</v>
+        <v>2382</v>
       </c>
       <c r="K630" s="9">
         <v>-33</v>
@@ -53552,7 +53552,7 @@
         <v>1590</v>
       </c>
       <c r="I631" s="9" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
       <c r="K631" s="9">
         <v>-33</v>
@@ -53620,7 +53620,7 @@
         <v>1590</v>
       </c>
       <c r="I632" s="9" t="s">
-        <v>2389</v>
+        <v>2384</v>
       </c>
       <c r="K632" s="9">
         <v>-33</v>
@@ -53688,7 +53688,7 @@
         <v>1593</v>
       </c>
       <c r="I633" s="9" t="s">
-        <v>2389</v>
+        <v>2384</v>
       </c>
       <c r="K633" s="9">
         <v>-33</v>
@@ -53756,7 +53756,7 @@
         <v>1593</v>
       </c>
       <c r="I634" s="9" t="s">
-        <v>2390</v>
+        <v>2385</v>
       </c>
       <c r="K634" s="9">
         <v>-33</v>
@@ -53824,7 +53824,7 @@
         <v>1593</v>
       </c>
       <c r="I635" s="9" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
       <c r="K635" s="9">
         <v>-33</v>
@@ -53892,7 +53892,7 @@
         <v>1656</v>
       </c>
       <c r="I636" s="9" t="s">
-        <v>2390</v>
+        <v>2385</v>
       </c>
       <c r="K636" s="9">
         <v>-33</v>
@@ -53960,7 +53960,7 @@
         <v>1596</v>
       </c>
       <c r="I637" s="9" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
       <c r="K637" s="9">
         <v>-33</v>
@@ -54028,7 +54028,7 @@
         <v>1598</v>
       </c>
       <c r="I638" s="9" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
       <c r="K638" s="9">
         <v>-33</v>
@@ -54096,7 +54096,7 @@
         <v>1654</v>
       </c>
       <c r="I639" s="9" t="s">
-        <v>2393</v>
+        <v>2388</v>
       </c>
       <c r="K639" s="9">
         <v>-33</v>
@@ -54164,7 +54164,7 @@
         <v>1654</v>
       </c>
       <c r="I640" s="9" t="s">
-        <v>2394</v>
+        <v>2389</v>
       </c>
       <c r="K640" s="9">
         <v>-33</v>
@@ -54232,7 +54232,7 @@
         <v>1654</v>
       </c>
       <c r="I641" s="9" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="K641" s="9">
         <v>-33</v>
@@ -54300,7 +54300,7 @@
         <v>1654</v>
       </c>
       <c r="I642" s="9" t="s">
-        <v>2396</v>
+        <v>2391</v>
       </c>
       <c r="K642" s="9">
         <v>-33</v>
@@ -54368,7 +54368,7 @@
         <v>1655</v>
       </c>
       <c r="I643" s="9" t="s">
-        <v>2397</v>
+        <v>2392</v>
       </c>
       <c r="K643" s="9">
         <v>-33</v>
@@ -54436,7 +54436,7 @@
         <v>1655</v>
       </c>
       <c r="I644" s="9" t="s">
-        <v>2398</v>
+        <v>2393</v>
       </c>
       <c r="K644" s="9">
         <v>-33</v>
@@ -54504,7 +54504,7 @@
         <v>1655</v>
       </c>
       <c r="I645" s="9" t="s">
-        <v>2399</v>
+        <v>2394</v>
       </c>
       <c r="K645" s="9">
         <v>-33</v>
@@ -54572,7 +54572,7 @@
         <v>1655</v>
       </c>
       <c r="I646" s="9" t="s">
-        <v>2400</v>
+        <v>2395</v>
       </c>
       <c r="K646" s="9">
         <v>-33</v>
@@ -54640,7 +54640,7 @@
         <v>1657</v>
       </c>
       <c r="I647" s="9" t="s">
-        <v>2401</v>
+        <v>2396</v>
       </c>
       <c r="K647" s="9">
         <v>-33</v>
@@ -54708,7 +54708,7 @@
         <v>1657</v>
       </c>
       <c r="I648" s="9" t="s">
-        <v>2402</v>
+        <v>2397</v>
       </c>
       <c r="K648" s="9">
         <v>-33</v>
@@ -54776,7 +54776,7 @@
         <v>1657</v>
       </c>
       <c r="I649" s="9" t="s">
-        <v>2403</v>
+        <v>2398</v>
       </c>
       <c r="K649" s="9">
         <v>-33</v>
@@ -54844,7 +54844,7 @@
         <v>1657</v>
       </c>
       <c r="I650" s="9" t="s">
-        <v>2404</v>
+        <v>2399</v>
       </c>
       <c r="K650" s="9">
         <v>-33</v>
@@ -54912,7 +54912,7 @@
         <v>1588</v>
       </c>
       <c r="I651" s="9" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="K651" s="9">
         <v>-33</v>
@@ -54980,7 +54980,7 @@
         <v>1588</v>
       </c>
       <c r="I652" s="9" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
       <c r="K652" s="9">
         <v>-33</v>
@@ -55048,7 +55048,7 @@
         <v>1588</v>
       </c>
       <c r="I653" s="9" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K653" s="9">
         <v>-33</v>
@@ -55116,7 +55116,7 @@
         <v>1590</v>
       </c>
       <c r="I654" s="9" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="K654" s="9">
         <v>-33</v>
@@ -55184,7 +55184,7 @@
         <v>1590</v>
       </c>
       <c r="I655" s="9" t="s">
-        <v>2379</v>
+        <v>2374</v>
       </c>
       <c r="K655" s="9">
         <v>-33</v>
@@ -55252,7 +55252,7 @@
         <v>1590</v>
       </c>
       <c r="I656" s="9" t="s">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="K656" s="9">
         <v>-33</v>
@@ -55320,7 +55320,7 @@
         <v>1593</v>
       </c>
       <c r="I657" s="9" t="s">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="K657" s="9">
         <v>-33</v>
@@ -55388,7 +55388,7 @@
         <v>1593</v>
       </c>
       <c r="I658" s="9" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K658" s="9">
         <v>-33</v>
@@ -55456,7 +55456,7 @@
         <v>1593</v>
       </c>
       <c r="I659" s="9" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
       <c r="K659" s="9">
         <v>-33</v>
@@ -55524,7 +55524,7 @@
         <v>1596</v>
       </c>
       <c r="I660" s="9" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K660" s="9">
         <v>-33</v>
@@ -55592,7 +55592,7 @@
         <v>1596</v>
       </c>
       <c r="I661" s="9" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
       <c r="K661" s="9">
         <v>-33</v>
@@ -55660,7 +55660,7 @@
         <v>1596</v>
       </c>
       <c r="I662" s="9" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="K662" s="9">
         <v>-33</v>
@@ -55725,7 +55725,7 @@
         <v>1690</v>
       </c>
       <c r="I663" s="9" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
       <c r="K663" s="9">
         <v>-33</v>
@@ -55787,7 +55787,7 @@
         <v>1690</v>
       </c>
       <c r="I664" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="K664" s="9">
         <v>-33</v>
@@ -55849,7 +55849,7 @@
         <v>1690</v>
       </c>
       <c r="I665" s="9" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="K665" s="9">
         <v>-33</v>
@@ -55911,7 +55911,7 @@
         <v>1690</v>
       </c>
       <c r="I666" s="9" t="s">
-        <v>2407</v>
+        <v>2402</v>
       </c>
       <c r="K666" s="9">
         <v>-33</v>
@@ -55973,7 +55973,7 @@
         <v>1690</v>
       </c>
       <c r="I667" s="9" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="K667" s="9">
         <v>-33</v>
@@ -56038,7 +56038,7 @@
         <v>1705</v>
       </c>
       <c r="I668" s="9" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="K668" s="9">
         <v>-33</v>
@@ -56106,7 +56106,7 @@
         <v>1705</v>
       </c>
       <c r="I669" s="9" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="K669" s="9">
         <v>-33</v>
@@ -56174,7 +56174,7 @@
         <v>1705</v>
       </c>
       <c r="I670" s="9" t="s">
-        <v>2411</v>
+        <v>2406</v>
       </c>
       <c r="K670" s="9">
         <v>-33</v>
@@ -56242,7 +56242,7 @@
         <v>1590</v>
       </c>
       <c r="I671" s="9" t="s">
-        <v>2412</v>
+        <v>2407</v>
       </c>
       <c r="K671" s="9">
         <v>-33</v>
@@ -56310,7 +56310,7 @@
         <v>1590</v>
       </c>
       <c r="I672" s="9" t="s">
-        <v>2413</v>
+        <v>2408</v>
       </c>
       <c r="K672" s="9">
         <v>-33</v>
@@ -56378,7 +56378,7 @@
         <v>1590</v>
       </c>
       <c r="I673" s="9" t="s">
-        <v>2414</v>
+        <v>2409</v>
       </c>
       <c r="K673" s="9">
         <v>-33</v>
@@ -56446,7 +56446,7 @@
         <v>1593</v>
       </c>
       <c r="I674" s="9" t="s">
-        <v>2415</v>
+        <v>2410</v>
       </c>
       <c r="K674" s="9">
         <v>-33</v>
@@ -56514,7 +56514,7 @@
         <v>1593</v>
       </c>
       <c r="I675" s="9" t="s">
-        <v>2416</v>
+        <v>2411</v>
       </c>
       <c r="K675" s="9">
         <v>-33</v>
@@ -56582,7 +56582,7 @@
         <v>1593</v>
       </c>
       <c r="I676" s="9" t="s">
-        <v>2417</v>
+        <v>2412</v>
       </c>
       <c r="K676" s="9">
         <v>-33</v>
@@ -56650,7 +56650,7 @@
         <v>1596</v>
       </c>
       <c r="I677" s="9" t="s">
-        <v>2416</v>
+        <v>2411</v>
       </c>
       <c r="K677" s="9">
         <v>-33</v>
@@ -56718,7 +56718,7 @@
         <v>1596</v>
       </c>
       <c r="I678" s="9" t="s">
-        <v>2417</v>
+        <v>2412</v>
       </c>
       <c r="K678" s="9">
         <v>-33</v>
@@ -56786,7 +56786,7 @@
         <v>1596</v>
       </c>
       <c r="I679" s="9" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="K679" s="9">
         <v>-33</v>
@@ -56854,7 +56854,7 @@
         <v>1705</v>
       </c>
       <c r="I680" s="9" t="s">
-        <v>2419</v>
+        <v>2414</v>
       </c>
       <c r="K680" s="9">
         <v>-33</v>
@@ -56922,7 +56922,7 @@
         <v>1705</v>
       </c>
       <c r="I681" s="9" t="s">
-        <v>2420</v>
+        <v>2415</v>
       </c>
       <c r="K681" s="9">
         <v>-33</v>
@@ -56990,7 +56990,7 @@
         <v>1705</v>
       </c>
       <c r="I682" s="9" t="s">
-        <v>2421</v>
+        <v>2416</v>
       </c>
       <c r="K682" s="9">
         <v>-33</v>
@@ -57058,7 +57058,7 @@
         <v>1590</v>
       </c>
       <c r="I683" s="9" t="s">
-        <v>2422</v>
+        <v>2417</v>
       </c>
       <c r="K683" s="9">
         <v>-33</v>
@@ -57126,7 +57126,7 @@
         <v>1590</v>
       </c>
       <c r="I684" s="9" t="s">
-        <v>2423</v>
+        <v>2418</v>
       </c>
       <c r="K684" s="9">
         <v>-33</v>
@@ -57194,7 +57194,7 @@
         <v>1590</v>
       </c>
       <c r="I685" s="9" t="s">
-        <v>2424</v>
+        <v>2419</v>
       </c>
       <c r="K685" s="9">
         <v>-33</v>
@@ -57262,7 +57262,7 @@
         <v>1593</v>
       </c>
       <c r="I686" s="9" t="s">
-        <v>2424</v>
+        <v>2419</v>
       </c>
       <c r="K686" s="9">
         <v>-33</v>
@@ -57330,7 +57330,7 @@
         <v>1593</v>
       </c>
       <c r="I687" s="9" t="s">
-        <v>2425</v>
+        <v>2420</v>
       </c>
       <c r="K687" s="9">
         <v>-33</v>
@@ -57398,7 +57398,7 @@
         <v>1593</v>
       </c>
       <c r="I688" s="9" t="s">
-        <v>2426</v>
+        <v>2421</v>
       </c>
       <c r="K688" s="9">
         <v>-33</v>
@@ -57466,7 +57466,7 @@
         <v>1596</v>
       </c>
       <c r="I689" s="9" t="s">
-        <v>2425</v>
+        <v>2420</v>
       </c>
       <c r="K689" s="9">
         <v>-33</v>
@@ -57534,7 +57534,7 @@
         <v>1596</v>
       </c>
       <c r="I690" s="9" t="s">
-        <v>2426</v>
+        <v>2421</v>
       </c>
       <c r="K690" s="9">
         <v>-33</v>
@@ -57602,7 +57602,7 @@
         <v>1596</v>
       </c>
       <c r="I691" s="9" t="s">
-        <v>2427</v>
+        <v>2422</v>
       </c>
       <c r="K691" s="9">
         <v>-33</v>
@@ -57670,7 +57670,7 @@
         <v>1705</v>
       </c>
       <c r="I692" s="9" t="s">
-        <v>2428</v>
+        <v>2423</v>
       </c>
       <c r="K692" s="9">
         <v>-33</v>
@@ -57738,7 +57738,7 @@
         <v>1705</v>
       </c>
       <c r="I693" s="9" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
       <c r="K693" s="9">
         <v>-33</v>
@@ -57806,7 +57806,7 @@
         <v>1705</v>
       </c>
       <c r="I694" s="9" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
       <c r="K694" s="9">
         <v>-33</v>
@@ -57874,7 +57874,7 @@
         <v>1590</v>
       </c>
       <c r="I695" s="9" t="s">
-        <v>2431</v>
+        <v>2426</v>
       </c>
       <c r="K695" s="9">
         <v>-33</v>
@@ -57942,7 +57942,7 @@
         <v>1590</v>
       </c>
       <c r="I696" s="9" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="K696" s="9">
         <v>-33</v>
@@ -58010,7 +58010,7 @@
         <v>1590</v>
       </c>
       <c r="I697" s="9" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="K697" s="9">
         <v>-33</v>
@@ -58078,7 +58078,7 @@
         <v>1593</v>
       </c>
       <c r="I698" s="9" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="K698" s="9">
         <v>-33</v>
@@ -58146,7 +58146,7 @@
         <v>1593</v>
       </c>
       <c r="I699" s="9" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="K699" s="9">
         <v>-33</v>
@@ -58214,7 +58214,7 @@
         <v>1593</v>
       </c>
       <c r="I700" s="9" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="K700" s="9">
         <v>-33</v>
@@ -58282,7 +58282,7 @@
         <v>1596</v>
       </c>
       <c r="I701" s="9" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="K701" s="9">
         <v>-33</v>
@@ -58350,7 +58350,7 @@
         <v>1596</v>
       </c>
       <c r="I702" s="9" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="K702" s="9">
         <v>-33</v>
@@ -58418,7 +58418,7 @@
         <v>1596</v>
       </c>
       <c r="I703" s="9" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="K703" s="9">
         <v>-33</v>
@@ -58486,7 +58486,7 @@
         <v>1705</v>
       </c>
       <c r="I704" s="9" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="K704" s="9">
         <v>-33</v>
@@ -58554,7 +58554,7 @@
         <v>1705</v>
       </c>
       <c r="I705" s="9" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
       <c r="K705" s="9">
         <v>-33</v>
@@ -58622,7 +58622,7 @@
         <v>1705</v>
       </c>
       <c r="I706" s="9" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
       <c r="K706" s="9">
         <v>-33</v>
@@ -58690,7 +58690,7 @@
         <v>1590</v>
       </c>
       <c r="I707" s="9" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
       <c r="K707" s="9">
         <v>-33</v>
@@ -58758,7 +58758,7 @@
         <v>1590</v>
       </c>
       <c r="I708" s="9" t="s">
-        <v>2438</v>
+        <v>2433</v>
       </c>
       <c r="K708" s="9">
         <v>-33</v>
@@ -58826,7 +58826,7 @@
         <v>1590</v>
       </c>
       <c r="I709" s="9" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
       <c r="K709" s="9">
         <v>-33</v>
@@ -58894,7 +58894,7 @@
         <v>1593</v>
       </c>
       <c r="I710" s="9" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="K710" s="9">
         <v>-33</v>
@@ -58962,7 +58962,7 @@
         <v>1593</v>
       </c>
       <c r="I711" s="9" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="K711" s="9">
         <v>-33</v>
@@ -59030,7 +59030,7 @@
         <v>1593</v>
       </c>
       <c r="I712" s="9" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
       <c r="K712" s="9">
         <v>-33</v>
@@ -59098,7 +59098,7 @@
         <v>1596</v>
       </c>
       <c r="I713" s="9" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="K713" s="9">
         <v>-33</v>
@@ -59166,7 +59166,7 @@
         <v>1596</v>
       </c>
       <c r="I714" s="9" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="K714" s="9">
         <v>-33</v>
@@ -59234,7 +59234,7 @@
         <v>1596</v>
       </c>
       <c r="I715" s="9" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="K715" s="9">
         <v>-33</v>
@@ -59302,7 +59302,7 @@
         <v>1705</v>
       </c>
       <c r="I716" s="9" t="s">
-        <v>2428</v>
+        <v>2423</v>
       </c>
       <c r="K716" s="9">
         <v>-33</v>
@@ -59370,7 +59370,7 @@
         <v>1705</v>
       </c>
       <c r="I717" s="9" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
       <c r="K717" s="9">
         <v>-33</v>
@@ -59438,7 +59438,7 @@
         <v>1705</v>
       </c>
       <c r="I718" s="9" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
       <c r="K718" s="9">
         <v>-33</v>
@@ -59506,7 +59506,7 @@
         <v>1590</v>
       </c>
       <c r="I719" s="9" t="s">
-        <v>2431</v>
+        <v>2426</v>
       </c>
       <c r="K719" s="9">
         <v>-33</v>
@@ -59574,7 +59574,7 @@
         <v>1590</v>
       </c>
       <c r="I720" s="9" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="K720" s="9">
         <v>-33</v>
@@ -59642,7 +59642,7 @@
         <v>1590</v>
       </c>
       <c r="I721" s="9" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="K721" s="9">
         <v>-33</v>
@@ -59710,7 +59710,7 @@
         <v>1593</v>
       </c>
       <c r="I722" s="9" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="K722" s="9">
         <v>-33</v>
@@ -59778,7 +59778,7 @@
         <v>1593</v>
       </c>
       <c r="I723" s="9" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="K723" s="9">
         <v>-33</v>
@@ -59846,7 +59846,7 @@
         <v>1593</v>
       </c>
       <c r="I724" s="9" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="K724" s="9">
         <v>-33</v>
@@ -59914,7 +59914,7 @@
         <v>1596</v>
       </c>
       <c r="I725" s="9" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="K725" s="9">
         <v>-33</v>
@@ -59982,7 +59982,7 @@
         <v>1596</v>
       </c>
       <c r="I726" s="9" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="K726" s="9">
         <v>-33</v>
@@ -60050,7 +60050,7 @@
         <v>1596</v>
       </c>
       <c r="I727" s="9" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="K727" s="9">
         <v>-33</v>
@@ -60118,7 +60118,7 @@
         <v>1789</v>
       </c>
       <c r="I728" s="9" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="K728" s="9">
         <v>-33</v>
@@ -60183,7 +60183,7 @@
         <v>1789</v>
       </c>
       <c r="I729" s="9" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
       <c r="K729" s="9">
         <v>-33</v>
@@ -60248,7 +60248,7 @@
         <v>1789</v>
       </c>
       <c r="I730" s="9" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
       <c r="K730" s="9">
         <v>-33</v>
@@ -60313,7 +60313,7 @@
         <v>1789</v>
       </c>
       <c r="I731" s="9" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="K731" s="9">
         <v>-33</v>
@@ -60378,7 +60378,7 @@
         <v>1789</v>
       </c>
       <c r="I732" s="9" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="K732" s="9">
         <v>-33</v>
@@ -60443,7 +60443,7 @@
         <v>1789</v>
       </c>
       <c r="I733" s="9" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="K733" s="9">
         <v>-33</v>
@@ -60508,7 +60508,7 @@
         <v>1789</v>
       </c>
       <c r="I734" s="9" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
       <c r="K734" s="9">
         <v>-33</v>
@@ -60573,7 +60573,7 @@
         <v>1789</v>
       </c>
       <c r="I735" s="9" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="K735" s="9">
         <v>-33</v>
@@ -60638,7 +60638,7 @@
         <v>1705</v>
       </c>
       <c r="I736" s="9" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
       <c r="K736" s="9">
         <v>-33</v>
@@ -60706,7 +60706,7 @@
         <v>1705</v>
       </c>
       <c r="I737" s="9" t="s">
-        <v>2441</v>
+        <v>2436</v>
       </c>
       <c r="K737" s="9">
         <v>-33</v>
@@ -60774,7 +60774,7 @@
         <v>1705</v>
       </c>
       <c r="I738" s="9" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="K738" s="9">
         <v>-33</v>
@@ -60842,7 +60842,7 @@
         <v>1590</v>
       </c>
       <c r="I739" s="9" t="s">
-        <v>2443</v>
+        <v>2438</v>
       </c>
       <c r="K739" s="9">
         <v>-33</v>
@@ -60910,7 +60910,7 @@
         <v>1590</v>
       </c>
       <c r="I740" s="9" t="s">
-        <v>2444</v>
+        <v>2439</v>
       </c>
       <c r="K740" s="9">
         <v>-33</v>
@@ -60978,7 +60978,7 @@
         <v>1590</v>
       </c>
       <c r="I741" s="9" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
       <c r="K741" s="9">
         <v>-33</v>
@@ -61046,7 +61046,7 @@
         <v>1593</v>
       </c>
       <c r="I742" s="9" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
       <c r="K742" s="9">
         <v>-33</v>
@@ -61114,7 +61114,7 @@
         <v>1593</v>
       </c>
       <c r="I743" s="9" t="s">
-        <v>2446</v>
+        <v>2441</v>
       </c>
       <c r="K743" s="9">
         <v>-33</v>
@@ -61182,7 +61182,7 @@
         <v>1593</v>
       </c>
       <c r="I744" s="9" t="s">
-        <v>2447</v>
+        <v>2442</v>
       </c>
       <c r="K744" s="9">
         <v>-33</v>
@@ -61250,7 +61250,7 @@
         <v>1596</v>
       </c>
       <c r="I745" s="9" t="s">
-        <v>2446</v>
+        <v>2441</v>
       </c>
       <c r="K745" s="9">
         <v>-33</v>
@@ -61318,7 +61318,7 @@
         <v>1596</v>
       </c>
       <c r="I746" s="9" t="s">
-        <v>2447</v>
+        <v>2442</v>
       </c>
       <c r="K746" s="9">
         <v>-33</v>
@@ -61386,7 +61386,7 @@
         <v>1596</v>
       </c>
       <c r="I747" s="9" t="s">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="K747" s="9">
         <v>-33</v>
@@ -61454,7 +61454,7 @@
         <v>1705</v>
       </c>
       <c r="I748" s="9" t="s">
-        <v>2428</v>
+        <v>2423</v>
       </c>
       <c r="K748" s="9">
         <v>-33</v>
@@ -61522,7 +61522,7 @@
         <v>1705</v>
       </c>
       <c r="I749" s="9" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
       <c r="K749" s="9">
         <v>-33</v>
@@ -61590,7 +61590,7 @@
         <v>1705</v>
       </c>
       <c r="I750" s="9" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
       <c r="K750" s="9">
         <v>-33</v>
@@ -61658,7 +61658,7 @@
         <v>1590</v>
       </c>
       <c r="I751" s="9" t="s">
-        <v>2431</v>
+        <v>2426</v>
       </c>
       <c r="K751" s="9">
         <v>-33</v>
@@ -61726,7 +61726,7 @@
         <v>1590</v>
       </c>
       <c r="I752" s="9" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="K752" s="9">
         <v>-33</v>
@@ -61794,7 +61794,7 @@
         <v>1590</v>
       </c>
       <c r="I753" s="9" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="K753" s="9">
         <v>-33</v>
@@ -61862,7 +61862,7 @@
         <v>1593</v>
       </c>
       <c r="I754" s="9" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="K754" s="9">
         <v>-33</v>
@@ -61930,7 +61930,7 @@
         <v>1593</v>
       </c>
       <c r="I755" s="9" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="K755" s="9">
         <v>-33</v>
@@ -61998,7 +61998,7 @@
         <v>1593</v>
       </c>
       <c r="I756" s="9" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="K756" s="9">
         <v>-33</v>
@@ -62066,7 +62066,7 @@
         <v>1596</v>
       </c>
       <c r="I757" s="9" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="K757" s="9">
         <v>-33</v>
@@ -62134,7 +62134,7 @@
         <v>1596</v>
       </c>
       <c r="I758" s="9" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="K758" s="9">
         <v>-33</v>
@@ -62202,7 +62202,7 @@
         <v>1596</v>
       </c>
       <c r="I759" s="9" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="K759" s="9">
         <v>-33</v>
@@ -62270,7 +62270,7 @@
         <v>1705</v>
       </c>
       <c r="I760" s="9" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
       <c r="K760" s="9">
         <v>-33</v>
@@ -62338,7 +62338,7 @@
         <v>1705</v>
       </c>
       <c r="I761" s="9" t="s">
-        <v>2450</v>
+        <v>2445</v>
       </c>
       <c r="K761" s="9">
         <v>-33</v>
@@ -62406,7 +62406,7 @@
         <v>1705</v>
       </c>
       <c r="I762" s="9" t="s">
-        <v>2451</v>
+        <v>2446</v>
       </c>
       <c r="K762" s="9">
         <v>-33</v>
@@ -62474,7 +62474,7 @@
         <v>1590</v>
       </c>
       <c r="I763" s="9" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="K763" s="9">
         <v>-33</v>
@@ -62542,7 +62542,7 @@
         <v>1590</v>
       </c>
       <c r="I764" s="9" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="K764" s="9">
         <v>-33</v>
@@ -62610,7 +62610,7 @@
         <v>1590</v>
       </c>
       <c r="I765" s="9" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="K765" s="9">
         <v>-33</v>
@@ -62678,7 +62678,7 @@
         <v>1593</v>
       </c>
       <c r="I766" s="9" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="K766" s="9">
         <v>-33</v>
@@ -62746,7 +62746,7 @@
         <v>1593</v>
       </c>
       <c r="I767" s="9" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="K767" s="9">
         <v>-33</v>
@@ -62814,7 +62814,7 @@
         <v>1593</v>
       </c>
       <c r="I768" s="9" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
       <c r="K768" s="9">
         <v>-33</v>
@@ -62882,7 +62882,7 @@
         <v>1596</v>
       </c>
       <c r="I769" s="9" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="K769" s="9">
         <v>-33</v>
@@ -62950,7 +62950,7 @@
         <v>1596</v>
       </c>
       <c r="I770" s="9" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
       <c r="K770" s="9">
         <v>-33</v>
@@ -63018,7 +63018,7 @@
         <v>1596</v>
       </c>
       <c r="I771" s="9" t="s">
-        <v>2457</v>
+        <v>2452</v>
       </c>
       <c r="K771" s="9">
         <v>-33</v>
@@ -63086,7 +63086,7 @@
         <v>1705</v>
       </c>
       <c r="I772" s="9" t="s">
-        <v>2428</v>
+        <v>2423</v>
       </c>
       <c r="K772" s="9">
         <v>-33</v>
@@ -63154,7 +63154,7 @@
         <v>1705</v>
       </c>
       <c r="I773" s="9" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
       <c r="K773" s="9">
         <v>-33</v>
@@ -63222,7 +63222,7 @@
         <v>1705</v>
       </c>
       <c r="I774" s="9" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
       <c r="K774" s="9">
         <v>-33</v>
@@ -63290,7 +63290,7 @@
         <v>1590</v>
       </c>
       <c r="I775" s="9" t="s">
-        <v>2431</v>
+        <v>2426</v>
       </c>
       <c r="K775" s="9">
         <v>-33</v>
@@ -63358,7 +63358,7 @@
         <v>1590</v>
       </c>
       <c r="I776" s="9" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="K776" s="9">
         <v>-33</v>
@@ -63426,7 +63426,7 @@
         <v>1590</v>
       </c>
       <c r="I777" s="9" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="K777" s="9">
         <v>-33</v>
@@ -63494,7 +63494,7 @@
         <v>1593</v>
       </c>
       <c r="I778" s="9" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="K778" s="9">
         <v>-33</v>
@@ -63562,7 +63562,7 @@
         <v>1593</v>
       </c>
       <c r="I779" s="9" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="K779" s="9">
         <v>-33</v>
@@ -63630,7 +63630,7 @@
         <v>1593</v>
       </c>
       <c r="I780" s="9" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="K780" s="9">
         <v>-33</v>
@@ -63698,7 +63698,7 @@
         <v>1596</v>
       </c>
       <c r="I781" s="9" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="K781" s="9">
         <v>-33</v>
@@ -63766,7 +63766,7 @@
         <v>1596</v>
       </c>
       <c r="I782" s="9" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="K782" s="9">
         <v>-33</v>
@@ -63834,7 +63834,7 @@
         <v>1596</v>
       </c>
       <c r="I783" s="9" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="K783" s="9">
         <v>-33</v>
@@ -63902,7 +63902,7 @@
         <v>1705</v>
       </c>
       <c r="I784" s="9" t="s">
-        <v>2428</v>
+        <v>2423</v>
       </c>
       <c r="K784" s="9">
         <v>-33</v>
@@ -63970,7 +63970,7 @@
         <v>1705</v>
       </c>
       <c r="I785" s="9" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
       <c r="K785" s="9">
         <v>-33</v>
@@ -64038,7 +64038,7 @@
         <v>1705</v>
       </c>
       <c r="I786" s="9" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
       <c r="K786" s="9">
         <v>-33</v>
@@ -64106,7 +64106,7 @@
         <v>1590</v>
       </c>
       <c r="I787" s="9" t="s">
-        <v>2431</v>
+        <v>2426</v>
       </c>
       <c r="K787" s="9">
         <v>-33</v>
@@ -64174,7 +64174,7 @@
         <v>1590</v>
       </c>
       <c r="I788" s="9" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="K788" s="9">
         <v>-33</v>
@@ -64242,7 +64242,7 @@
         <v>1590</v>
       </c>
       <c r="I789" s="9" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="K789" s="9">
         <v>-33</v>
@@ -64310,7 +64310,7 @@
         <v>1593</v>
       </c>
       <c r="I790" s="9" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="K790" s="9">
         <v>-33</v>
@@ -64378,7 +64378,7 @@
         <v>1593</v>
       </c>
       <c r="I791" s="9" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="K791" s="9">
         <v>-33</v>
@@ -64446,7 +64446,7 @@
         <v>1593</v>
       </c>
       <c r="I792" s="9" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="K792" s="9">
         <v>-33</v>
@@ -64514,7 +64514,7 @@
         <v>1596</v>
       </c>
       <c r="I793" s="9" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="K793" s="9">
         <v>-33</v>
@@ -64582,7 +64582,7 @@
         <v>1596</v>
       </c>
       <c r="I794" s="9" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="K794" s="9">
         <v>-33</v>
@@ -64650,7 +64650,7 @@
         <v>1596</v>
       </c>
       <c r="I795" s="9" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="K795" s="9">
         <v>-33</v>
@@ -64718,7 +64718,7 @@
         <v>1705</v>
       </c>
       <c r="I796" s="9" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
       <c r="K796" s="9">
         <v>-33</v>
@@ -64786,7 +64786,7 @@
         <v>1705</v>
       </c>
       <c r="I797" s="9" t="s">
-        <v>2450</v>
+        <v>2445</v>
       </c>
       <c r="K797" s="9">
         <v>-33</v>
@@ -64854,7 +64854,7 @@
         <v>1705</v>
       </c>
       <c r="I798" s="9" t="s">
-        <v>2451</v>
+        <v>2446</v>
       </c>
       <c r="K798" s="9">
         <v>-33</v>
@@ -64922,7 +64922,7 @@
         <v>1590</v>
       </c>
       <c r="I799" s="9" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="K799" s="9">
         <v>-33</v>
@@ -64990,7 +64990,7 @@
         <v>1590</v>
       </c>
       <c r="I800" s="9" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="K800" s="9">
         <v>-33</v>
@@ -65058,7 +65058,7 @@
         <v>1590</v>
       </c>
       <c r="I801" s="9" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="K801" s="9">
         <v>-33</v>
@@ -65126,7 +65126,7 @@
         <v>1593</v>
       </c>
       <c r="I802" s="9" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="K802" s="9">
         <v>-33</v>
@@ -65194,7 +65194,7 @@
         <v>1593</v>
       </c>
       <c r="I803" s="9" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="K803" s="9">
         <v>-33</v>
@@ -65262,7 +65262,7 @@
         <v>1593</v>
       </c>
       <c r="I804" s="9" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
       <c r="K804" s="9">
         <v>-33</v>
@@ -65330,7 +65330,7 @@
         <v>1596</v>
       </c>
       <c r="I805" s="9" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="K805" s="9">
         <v>-33</v>
@@ -65398,7 +65398,7 @@
         <v>1596</v>
       </c>
       <c r="I806" s="9" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
       <c r="K806" s="9">
         <v>-33</v>
@@ -65466,7 +65466,7 @@
         <v>1596</v>
       </c>
       <c r="I807" s="9" t="s">
-        <v>2457</v>
+        <v>2452</v>
       </c>
       <c r="K807" s="9">
         <v>-33</v>
@@ -65531,7 +65531,7 @@
         <v>1818</v>
       </c>
       <c r="I808" s="9" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="K808" s="9">
         <v>-33</v>
@@ -65596,7 +65596,7 @@
         <v>1705</v>
       </c>
       <c r="I809" s="9" t="s">
-        <v>2458</v>
+        <v>2453</v>
       </c>
       <c r="K809" s="9">
         <v>-33</v>
@@ -65664,7 +65664,7 @@
         <v>1705</v>
       </c>
       <c r="I810" s="9" t="s">
-        <v>2459</v>
+        <v>2454</v>
       </c>
       <c r="K810" s="9">
         <v>-33</v>
@@ -65732,7 +65732,7 @@
         <v>1705</v>
       </c>
       <c r="I811" s="9" t="s">
-        <v>2460</v>
+        <v>2455</v>
       </c>
       <c r="K811" s="9">
         <v>-33</v>
@@ -65800,7 +65800,7 @@
         <v>1590</v>
       </c>
       <c r="I812" s="9" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
       <c r="K812" s="9">
         <v>-33</v>
@@ -65868,7 +65868,7 @@
         <v>1590</v>
       </c>
       <c r="I813" s="9" t="s">
-        <v>2462</v>
+        <v>2457</v>
       </c>
       <c r="K813" s="9">
         <v>-33</v>
@@ -65936,7 +65936,7 @@
         <v>1590</v>
       </c>
       <c r="I814" s="9" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="K814" s="9">
         <v>-33</v>
@@ -66004,7 +66004,7 @@
         <v>1593</v>
       </c>
       <c r="I815" s="9" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="K815" s="9">
         <v>-33</v>
@@ -66072,7 +66072,7 @@
         <v>1593</v>
       </c>
       <c r="I816" s="9" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="K816" s="9">
         <v>-33</v>
@@ -66140,7 +66140,7 @@
         <v>1593</v>
       </c>
       <c r="I817" s="9" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="K817" s="9">
         <v>-33</v>
@@ -66208,7 +66208,7 @@
         <v>1596</v>
       </c>
       <c r="I818" s="9" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="K818" s="9">
         <v>-33</v>
@@ -66276,7 +66276,7 @@
         <v>1596</v>
       </c>
       <c r="I819" s="9" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="K819" s="9">
         <v>-33</v>
@@ -66344,7 +66344,7 @@
         <v>1596</v>
       </c>
       <c r="I820" s="9" t="s">
-        <v>2466</v>
+        <v>2461</v>
       </c>
       <c r="K820" s="9">
         <v>-33</v>
@@ -66412,7 +66412,7 @@
         <v>1705</v>
       </c>
       <c r="I821" s="9" t="s">
-        <v>2458</v>
+        <v>2453</v>
       </c>
       <c r="K821" s="9">
         <v>-33</v>
@@ -66480,7 +66480,7 @@
         <v>1705</v>
       </c>
       <c r="I822" s="9" t="s">
-        <v>2459</v>
+        <v>2454</v>
       </c>
       <c r="K822" s="9">
         <v>-33</v>
@@ -66548,7 +66548,7 @@
         <v>1705</v>
       </c>
       <c r="I823" s="9" t="s">
-        <v>2460</v>
+        <v>2455</v>
       </c>
       <c r="K823" s="9">
         <v>-33</v>
@@ -66616,7 +66616,7 @@
         <v>1590</v>
       </c>
       <c r="I824" s="9" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
       <c r="K824" s="9">
         <v>-33</v>
@@ -66684,7 +66684,7 @@
         <v>1590</v>
       </c>
       <c r="I825" s="9" t="s">
-        <v>2462</v>
+        <v>2457</v>
       </c>
       <c r="K825" s="9">
         <v>-33</v>
@@ -66752,7 +66752,7 @@
         <v>1590</v>
       </c>
       <c r="I826" s="9" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="K826" s="9">
         <v>-33</v>
@@ -66820,7 +66820,7 @@
         <v>1593</v>
       </c>
       <c r="I827" s="9" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="K827" s="9">
         <v>-33</v>
@@ -66888,7 +66888,7 @@
         <v>1593</v>
       </c>
       <c r="I828" s="9" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="K828" s="9">
         <v>-33</v>
@@ -66956,7 +66956,7 @@
         <v>1593</v>
       </c>
       <c r="I829" s="9" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="K829" s="9">
         <v>-33</v>
@@ -67024,7 +67024,7 @@
         <v>1596</v>
       </c>
       <c r="I830" s="9" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="K830" s="9">
         <v>-33</v>
@@ -67092,7 +67092,7 @@
         <v>1596</v>
       </c>
       <c r="I831" s="9" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="K831" s="9">
         <v>-33</v>
@@ -67160,7 +67160,7 @@
         <v>1596</v>
       </c>
       <c r="I832" s="9" t="s">
-        <v>2466</v>
+        <v>2461</v>
       </c>
       <c r="K832" s="9">
         <v>-33</v>
@@ -67225,7 +67225,7 @@
         <v>1824</v>
       </c>
       <c r="I833" s="9" t="s">
-        <v>2467</v>
+        <v>2462</v>
       </c>
       <c r="K833" s="9">
         <v>-33</v>
@@ -67287,7 +67287,7 @@
         <v>1824</v>
       </c>
       <c r="I834" s="9" t="s">
-        <v>2467</v>
+        <v>2462</v>
       </c>
       <c r="K834" s="9">
         <v>-33</v>
@@ -67352,7 +67352,7 @@
         <v>1705</v>
       </c>
       <c r="I835" s="9" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
       <c r="K835" s="9">
         <v>-33</v>
@@ -67420,7 +67420,7 @@
         <v>1705</v>
       </c>
       <c r="I836" s="9" t="s">
-        <v>2450</v>
+        <v>2445</v>
       </c>
       <c r="K836" s="9">
         <v>-33</v>
@@ -67488,7 +67488,7 @@
         <v>1705</v>
       </c>
       <c r="I837" s="9" t="s">
-        <v>2451</v>
+        <v>2446</v>
       </c>
       <c r="K837" s="9">
         <v>-33</v>
@@ -67556,7 +67556,7 @@
         <v>1590</v>
       </c>
       <c r="I838" s="9" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="K838" s="9">
         <v>-33</v>
@@ -67624,7 +67624,7 @@
         <v>1590</v>
       </c>
       <c r="I839" s="9" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="K839" s="9">
         <v>-33</v>
@@ -67692,7 +67692,7 @@
         <v>1590</v>
       </c>
       <c r="I840" s="9" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="K840" s="9">
         <v>-33</v>
@@ -67760,7 +67760,7 @@
         <v>1593</v>
       </c>
       <c r="I841" s="9" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="K841" s="9">
         <v>-33</v>
@@ -67828,7 +67828,7 @@
         <v>1593</v>
       </c>
       <c r="I842" s="9" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="K842" s="9">
         <v>-33</v>
@@ -67896,7 +67896,7 @@
         <v>1593</v>
       </c>
       <c r="I843" s="9" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
       <c r="K843" s="9">
         <v>-33</v>
@@ -67964,7 +67964,7 @@
         <v>1596</v>
       </c>
       <c r="I844" s="9" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="K844" s="9">
         <v>-33</v>
@@ -68032,7 +68032,7 @@
         <v>1596</v>
       </c>
       <c r="I845" s="9" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
       <c r="K845" s="9">
         <v>-33</v>
@@ -68100,7 +68100,7 @@
         <v>1596</v>
       </c>
       <c r="I846" s="9" t="s">
-        <v>2457</v>
+        <v>2452</v>
       </c>
       <c r="K846" s="9">
         <v>-33</v>
@@ -71210,7 +71210,7 @@
         <v>1831</v>
       </c>
       <c r="Q892" s="48" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="V892" s="36" t="s">
         <v>680</v>
@@ -71228,7 +71228,7 @@
         <v>149</v>
       </c>
       <c r="AB892" s="36" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="AG892" s="36">
         <v>1</v>
@@ -71257,7 +71257,7 @@
         <v>1980</v>
       </c>
       <c r="I893" s="36" t="s">
-        <v>1987</v>
+        <v>2511</v>
       </c>
       <c r="K893" s="36">
         <v>-31</v>
@@ -71272,13 +71272,13 @@
         <v>139</v>
       </c>
       <c r="O893" s="36">
-        <v>19800</v>
+        <v>10000</v>
       </c>
       <c r="P893" s="36" t="s">
         <v>1831</v>
       </c>
       <c r="Q893" s="48" t="s">
-        <v>1991</v>
+        <v>2512</v>
       </c>
       <c r="V893" s="36" t="s">
         <v>680</v>
@@ -71329,7 +71329,7 @@
       </c>
       <c r="H894" s="36"/>
       <c r="I894" s="36" t="s">
-        <v>1989</v>
+        <v>2513</v>
       </c>
       <c r="J894" s="36"/>
       <c r="K894" s="36">
@@ -71345,13 +71345,13 @@
         <v>139</v>
       </c>
       <c r="O894" s="36">
-        <v>30000</v>
+        <v>19800</v>
       </c>
       <c r="P894" s="36" t="s">
         <v>1831</v>
       </c>
       <c r="Q894" s="48" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="R894" s="36"/>
       <c r="S894" s="36"/>
@@ -71413,7 +71413,7 @@
       </c>
       <c r="H895" s="36"/>
       <c r="I895" s="36" t="s">
-        <v>1988</v>
+        <v>2514</v>
       </c>
       <c r="J895" s="36"/>
       <c r="K895" s="36">
@@ -71429,13 +71429,13 @@
         <v>139</v>
       </c>
       <c r="O895" s="36">
-        <v>78000</v>
+        <v>70000</v>
       </c>
       <c r="P895" s="36" t="s">
         <v>1831</v>
       </c>
       <c r="Q895" s="48" t="s">
-        <v>1993</v>
+        <v>2515</v>
       </c>
       <c r="R895" s="36"/>
       <c r="S895" s="36"/>
@@ -71493,10 +71493,10 @@
         <v>1817</v>
       </c>
       <c r="H896" s="9" t="s">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="I896" s="9" t="s">
-        <v>2458</v>
+        <v>2453</v>
       </c>
       <c r="K896" s="9">
         <v>-33</v>
@@ -71508,7 +71508,7 @@
         <v>0</v>
       </c>
       <c r="N896" s="9" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="O896" s="9">
         <v>600</v>
@@ -71517,10 +71517,10 @@
         <v>425</v>
       </c>
       <c r="Q896" s="9" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="V896" s="9" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="W896" s="9">
         <v>99999999</v>
@@ -71561,10 +71561,10 @@
         <v>1817</v>
       </c>
       <c r="H897" s="9" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="I897" s="9" t="s">
-        <v>2459</v>
+        <v>2454</v>
       </c>
       <c r="K897" s="9">
         <v>-33</v>
@@ -71576,7 +71576,7 @@
         <v>0</v>
       </c>
       <c r="N897" s="9" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="O897" s="9">
         <v>1000</v>
@@ -71585,10 +71585,10 @@
         <v>425</v>
       </c>
       <c r="Q897" s="9" t="s">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="V897" s="9" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="W897" s="9">
         <v>99999999</v>
@@ -71629,10 +71629,10 @@
         <v>1817</v>
       </c>
       <c r="H898" s="9" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="I898" s="9" t="s">
-        <v>2460</v>
+        <v>2455</v>
       </c>
       <c r="K898" s="9">
         <v>-33</v>
@@ -71644,7 +71644,7 @@
         <v>0</v>
       </c>
       <c r="N898" s="9" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="O898" s="9">
         <v>1800</v>
@@ -71653,10 +71653,10 @@
         <v>425</v>
       </c>
       <c r="Q898" s="9" t="s">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="V898" s="9" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="W898" s="9">
         <v>99999999</v>
@@ -71697,10 +71697,10 @@
         <v>1817</v>
       </c>
       <c r="H899" s="9" t="s">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="I899" s="9" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
       <c r="K899" s="9">
         <v>-33</v>
@@ -71712,7 +71712,7 @@
         <v>0</v>
       </c>
       <c r="N899" s="9" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="O899" s="9">
         <v>1800</v>
@@ -71721,10 +71721,10 @@
         <v>425</v>
       </c>
       <c r="Q899" s="9" t="s">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="V899" s="9" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="W899" s="9">
         <v>99999999</v>
@@ -71765,10 +71765,10 @@
         <v>1817</v>
       </c>
       <c r="H900" s="9" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="I900" s="9" t="s">
-        <v>2462</v>
+        <v>2457</v>
       </c>
       <c r="K900" s="9">
         <v>-33</v>
@@ -71780,7 +71780,7 @@
         <v>0</v>
       </c>
       <c r="N900" s="9" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="O900" s="9">
         <v>3000</v>
@@ -71789,10 +71789,10 @@
         <v>425</v>
       </c>
       <c r="Q900" s="9" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="V900" s="9" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="W900" s="9">
         <v>99999999</v>
@@ -71833,10 +71833,10 @@
         <v>1817</v>
       </c>
       <c r="H901" s="9" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="I901" s="9" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="K901" s="9">
         <v>-33</v>
@@ -71848,7 +71848,7 @@
         <v>0</v>
       </c>
       <c r="N901" s="9" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="O901" s="9">
         <v>4800</v>
@@ -71857,10 +71857,10 @@
         <v>425</v>
       </c>
       <c r="Q901" s="9" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="V901" s="9" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="W901" s="9">
         <v>99999999</v>
@@ -71901,10 +71901,10 @@
         <v>1817</v>
       </c>
       <c r="H902" s="9" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="I902" s="9" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="K902" s="9">
         <v>-33</v>
@@ -71916,7 +71916,7 @@
         <v>0</v>
       </c>
       <c r="N902" s="9" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="O902" s="9">
         <v>4800</v>
@@ -71925,10 +71925,10 @@
         <v>425</v>
       </c>
       <c r="Q902" s="9" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="V902" s="9" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="W902" s="9">
         <v>99999999</v>
@@ -71969,10 +71969,10 @@
         <v>1817</v>
       </c>
       <c r="H903" s="9" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="I903" s="9" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="K903" s="9">
         <v>-33</v>
@@ -71984,7 +71984,7 @@
         <v>0</v>
       </c>
       <c r="N903" s="9" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="O903" s="9">
         <v>9800</v>
@@ -71993,10 +71993,10 @@
         <v>425</v>
       </c>
       <c r="Q903" s="9" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="V903" s="9" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="W903" s="9">
         <v>99999999</v>
@@ -72037,10 +72037,10 @@
         <v>1817</v>
       </c>
       <c r="H904" s="9" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="I904" s="9" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="K904" s="9">
         <v>-33</v>
@@ -72052,7 +72052,7 @@
         <v>0</v>
       </c>
       <c r="N904" s="9" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="O904" s="9">
         <v>19800</v>
@@ -72061,10 +72061,10 @@
         <v>425</v>
       </c>
       <c r="Q904" s="9" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="V904" s="9" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="W904" s="9">
         <v>99999999</v>
@@ -72105,10 +72105,10 @@
         <v>1817</v>
       </c>
       <c r="H905" s="9" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="I905" s="9" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="K905" s="9">
         <v>-33</v>
@@ -72120,7 +72120,7 @@
         <v>0</v>
       </c>
       <c r="N905" s="9" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="O905" s="9">
         <v>9800</v>
@@ -72129,10 +72129,10 @@
         <v>425</v>
       </c>
       <c r="Q905" s="9" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="V905" s="9" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="W905" s="9">
         <v>99999999</v>
@@ -72173,10 +72173,10 @@
         <v>1817</v>
       </c>
       <c r="H906" s="9" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="I906" s="9" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="K906" s="9">
         <v>-33</v>
@@ -72188,7 +72188,7 @@
         <v>0</v>
       </c>
       <c r="N906" s="9" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="O906" s="9">
         <v>19800</v>
@@ -72197,10 +72197,10 @@
         <v>425</v>
       </c>
       <c r="Q906" s="9" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="V906" s="9" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="W906" s="9">
         <v>99999999</v>
@@ -72241,10 +72241,10 @@
         <v>1817</v>
       </c>
       <c r="H907" s="9" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="I907" s="9" t="s">
-        <v>2466</v>
+        <v>2461</v>
       </c>
       <c r="K907" s="9">
         <v>-33</v>
@@ -72256,7 +72256,7 @@
         <v>0</v>
       </c>
       <c r="N907" s="9" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="O907" s="9">
         <v>49800</v>
@@ -72265,10 +72265,10 @@
         <v>425</v>
       </c>
       <c r="Q907" s="9" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="V907" s="9" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="W907" s="9">
         <v>99999999</v>
@@ -72306,10 +72306,10 @@
         <v>1</v>
       </c>
       <c r="G908" s="51" t="s">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="I908" s="51" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="K908" s="51">
         <v>-31</v>
@@ -72330,7 +72330,7 @@
         <v>111</v>
       </c>
       <c r="Q908" s="52" t="s">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="V908" s="51" t="s">
         <v>682</v>
@@ -72371,11 +72371,11 @@
         <v>1</v>
       </c>
       <c r="G909" s="51" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="H909" s="51"/>
       <c r="I909" s="51" t="s">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="J909" s="51"/>
       <c r="K909" s="51">
@@ -72394,10 +72394,10 @@
         <v>600</v>
       </c>
       <c r="P909" s="51" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q909" s="52" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="R909" s="51"/>
       <c r="S909" s="51"/>
@@ -72453,11 +72453,11 @@
         <v>1</v>
       </c>
       <c r="G910" s="51" t="s">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="H910" s="51"/>
       <c r="I910" s="51" t="s">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="J910" s="51"/>
       <c r="K910" s="51">
@@ -72476,10 +72476,10 @@
         <v>2800</v>
       </c>
       <c r="P910" s="51" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q910" s="52" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="R910" s="51"/>
       <c r="S910" s="51"/>
@@ -72535,11 +72535,11 @@
         <v>1</v>
       </c>
       <c r="G911" s="51" t="s">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="H911" s="51"/>
       <c r="I911" s="51" t="s">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="J911" s="51"/>
       <c r="K911" s="51">
@@ -72558,10 +72558,10 @@
         <v>4800</v>
       </c>
       <c r="P911" s="51" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q911" s="52" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="R911" s="51"/>
       <c r="S911" s="51"/>
@@ -72617,11 +72617,11 @@
         <v>1</v>
       </c>
       <c r="G912" s="51" t="s">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="H912" s="51"/>
       <c r="I912" s="51" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="J912" s="51"/>
       <c r="K912" s="51">
@@ -72640,10 +72640,10 @@
         <v>9900</v>
       </c>
       <c r="P912" s="51" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q912" s="52" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="R912" s="51"/>
       <c r="S912" s="51"/>
@@ -72699,11 +72699,11 @@
         <v>1</v>
       </c>
       <c r="G913" s="51" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="H913" s="51"/>
       <c r="I913" s="51" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="J913" s="51"/>
       <c r="K913" s="51">
@@ -72722,10 +72722,10 @@
         <v>19800</v>
       </c>
       <c r="P913" s="51" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q913" s="52" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="R913" s="51"/>
       <c r="S913" s="51"/>
@@ -72781,11 +72781,11 @@
         <v>1</v>
       </c>
       <c r="G914" s="51" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="H914" s="51"/>
       <c r="I914" s="51" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="J914" s="51"/>
       <c r="K914" s="51">
@@ -72804,10 +72804,10 @@
         <v>29800</v>
       </c>
       <c r="P914" s="51" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q914" s="52" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="R914" s="51"/>
       <c r="S914" s="51"/>
@@ -72863,11 +72863,11 @@
         <v>1</v>
       </c>
       <c r="G915" s="51" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="H915" s="51"/>
       <c r="I915" s="51" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="J915" s="51"/>
       <c r="K915" s="51">
@@ -72886,10 +72886,10 @@
         <v>39800</v>
       </c>
       <c r="P915" s="51" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q915" s="52" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="R915" s="51"/>
       <c r="S915" s="51"/>
@@ -72945,11 +72945,11 @@
         <v>1</v>
       </c>
       <c r="G916" s="51" t="s">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="H916" s="51"/>
       <c r="I916" s="51" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="J916" s="51"/>
       <c r="K916" s="51">
@@ -72968,10 +72968,10 @@
         <v>49800</v>
       </c>
       <c r="P916" s="51" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q916" s="52" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="R916" s="51"/>
       <c r="S916" s="51"/>
@@ -73027,11 +73027,11 @@
         <v>1</v>
       </c>
       <c r="G917" s="51" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="H917" s="51"/>
       <c r="I917" s="51" t="s">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="J917" s="51"/>
       <c r="K917" s="51">
@@ -73050,10 +73050,10 @@
         <v>59800</v>
       </c>
       <c r="P917" s="51" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q917" s="52" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="R917" s="51"/>
       <c r="S917" s="51"/>
@@ -73109,11 +73109,11 @@
         <v>1</v>
       </c>
       <c r="G918" s="51" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="H918" s="51"/>
       <c r="I918" s="51" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="J918" s="51"/>
       <c r="K918" s="51">
@@ -73132,10 +73132,10 @@
         <v>69800</v>
       </c>
       <c r="P918" s="51" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q918" s="52" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="R918" s="51"/>
       <c r="S918" s="51"/>
@@ -73188,10 +73188,10 @@
         <v>1</v>
       </c>
       <c r="G919" s="54" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="I919" s="54" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="K919" s="54">
         <v>-31</v>
@@ -73209,10 +73209,10 @@
         <v>79800</v>
       </c>
       <c r="P919" s="54" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q919" s="55" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="V919" s="54" t="s">
         <v>680</v>
@@ -73253,10 +73253,10 @@
         <v>1</v>
       </c>
       <c r="G920" s="54" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="I920" s="54" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="K920" s="54">
         <v>-31</v>
@@ -73274,10 +73274,10 @@
         <v>89800</v>
       </c>
       <c r="P920" s="54" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="Q920" s="55" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="V920" s="54" t="s">
         <v>680</v>
@@ -73318,10 +73318,10 @@
         <v>1</v>
       </c>
       <c r="G921" s="54" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="I921" s="54" t="s">
-        <v>2485</v>
+        <v>2480</v>
       </c>
       <c r="K921" s="54">
         <v>-31</v>
@@ -73339,7 +73339,7 @@
         <v>49800</v>
       </c>
       <c r="P921" s="54" t="s">
-        <v>2486</v>
+        <v>2481</v>
       </c>
       <c r="Q921" s="50" t="s">
         <v>198</v>
@@ -73374,10 +73374,10 @@
         <v>1</v>
       </c>
       <c r="G922" s="54" t="s">
-        <v>2487</v>
+        <v>2482</v>
       </c>
       <c r="I922" s="54" t="s">
-        <v>2488</v>
+        <v>2483</v>
       </c>
       <c r="K922" s="54">
         <v>-31</v>
@@ -73395,7 +73395,7 @@
         <v>19800</v>
       </c>
       <c r="P922" s="54" t="s">
-        <v>2489</v>
+        <v>2484</v>
       </c>
       <c r="Q922" s="50" t="s">
         <v>198</v>
@@ -73430,10 +73430,10 @@
         <v>1</v>
       </c>
       <c r="G923" s="54" t="s">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="I923" s="54" t="s">
-        <v>2491</v>
+        <v>2486</v>
       </c>
       <c r="K923" s="54">
         <v>-31</v>
@@ -73451,7 +73451,7 @@
         <v>9800</v>
       </c>
       <c r="P923" s="54" t="s">
-        <v>2492</v>
+        <v>2487</v>
       </c>
       <c r="Q923" s="50" t="s">
         <v>198</v>
@@ -73486,10 +73486,10 @@
         <v>1</v>
       </c>
       <c r="G924" s="54" t="s">
-        <v>2493</v>
+        <v>2488</v>
       </c>
       <c r="I924" s="54" t="s">
-        <v>2494</v>
+        <v>2489</v>
       </c>
       <c r="K924" s="54">
         <v>-31</v>
@@ -73507,7 +73507,7 @@
         <v>9800</v>
       </c>
       <c r="P924" s="54" t="s">
-        <v>2495</v>
+        <v>2490</v>
       </c>
       <c r="Q924" s="50" t="s">
         <v>198</v>
@@ -73542,10 +73542,10 @@
         <v>1</v>
       </c>
       <c r="G925" s="54" t="s">
-        <v>2496</v>
+        <v>2491</v>
       </c>
       <c r="I925" s="54" t="s">
-        <v>2497</v>
+        <v>2492</v>
       </c>
       <c r="K925" s="54">
         <v>-31</v>
@@ -73563,7 +73563,7 @@
         <v>4800</v>
       </c>
       <c r="P925" s="54" t="s">
-        <v>2498</v>
+        <v>2493</v>
       </c>
       <c r="Q925" s="50" t="s">
         <v>198</v>
@@ -73601,7 +73601,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
@@ -75247,7 +75247,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="C117" s="20">
         <v>1</v>
@@ -75261,7 +75261,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="C118" s="20">
         <v>1</v>
@@ -75275,7 +75275,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="C119" s="20">
         <v>1</v>
@@ -75289,7 +75289,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="C120" s="20">
         <v>1</v>
@@ -75303,7 +75303,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="C121" s="20">
         <v>1</v>
@@ -75317,7 +75317,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="C122" s="20">
         <v>1</v>
@@ -75331,7 +75331,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="C123" s="20">
         <v>1</v>
@@ -75345,7 +75345,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="C124" s="20">
         <v>1</v>
@@ -75359,7 +75359,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="C125" s="20">
         <v>1</v>
@@ -75373,7 +75373,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="C126" s="20">
         <v>1</v>
@@ -75387,7 +75387,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="C127" s="20">
         <v>1</v>
@@ -75401,7 +75401,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="C128" s="20">
         <v>1</v>
@@ -75415,7 +75415,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="C129" s="20">
         <v>1</v>
@@ -75429,7 +75429,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="C130" s="20">
         <v>1</v>
@@ -75505,10 +75505,10 @@
         <v>515</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2468</v>
+        <v>2463</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2469</v>
+        <v>2464</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>20</v>
@@ -75609,10 +75609,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>49</v>
@@ -75676,10 +75676,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>54</v>
@@ -75743,10 +75743,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>58</v>
@@ -75813,10 +75813,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>62</v>
@@ -75883,10 +75883,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T6" s="28" t="s">
         <v>66</v>
@@ -75951,10 +75951,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>70</v>
@@ -76015,10 +76015,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>2471</v>
+        <v>2466</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>49</v>
@@ -76079,7 +76079,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="T9" s="4">
         <v>50</v>
@@ -76099,7 +76099,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="4" t="s">
-        <v>2472</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -76143,7 +76143,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="T10" s="4">
         <v>10</v>
@@ -76163,7 +76163,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="4" t="s">
-        <v>2473</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -76207,10 +76207,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>54</v>
@@ -76274,10 +76274,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>74</v>
@@ -76344,10 +76344,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>2474</v>
+        <v>2469</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T13" s="19" t="s">
         <v>527</v>
@@ -76412,10 +76412,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>2475</v>
+        <v>2470</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T14" s="19" t="s">
         <v>529</v>
@@ -76477,7 +76477,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="32" t="s">
-        <v>2471</v>
+        <v>2466</v>
       </c>
       <c r="T15" s="19">
         <v>1</v>
@@ -76495,7 +76495,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="19" t="s">
-        <v>2476</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -76542,10 +76542,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
       <c r="S16" s="19" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T16" s="19" t="s">
         <v>88</v>
@@ -76604,10 +76604,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>2478</v>
+        <v>2473</v>
       </c>
       <c r="S17" s="19" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T17" s="19" t="s">
         <v>92</v>
@@ -76666,10 +76666,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>2479</v>
+        <v>2474</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T18" s="19" t="s">
         <v>96</v>
@@ -76728,10 +76728,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>2480</v>
+        <v>2475</v>
       </c>
       <c r="S19" s="19" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T19" s="19" t="s">
         <v>101</v>
@@ -76790,10 +76790,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>2481</v>
+        <v>2476</v>
       </c>
       <c r="S20" s="19" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T20" s="19" t="s">
         <v>106</v>
@@ -76852,10 +76852,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>2471</v>
+        <v>2466</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T21" s="19" t="s">
         <v>110</v>
@@ -76914,7 +76914,7 @@
         <v>2</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="T22" s="19">
         <v>50</v>
@@ -76973,7 +76973,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="32" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="T23" s="19">
         <v>10</v>
@@ -77035,7 +77035,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="32" t="s">
-        <v>2471</v>
+        <v>2466</v>
       </c>
       <c r="T24" s="19">
         <v>1</v>
@@ -77053,7 +77053,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="19" t="s">
-        <v>2476</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -77103,10 +77103,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>2482</v>
+        <v>2477</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="T25" s="32" t="s">
         <v>676</v>
@@ -77138,7 +77138,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -77582,7 +77582,7 @@
         <v>555</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>2483</v>
+        <v>2478</v>
       </c>
       <c r="S8" s="20" t="s">
         <v>540</v>
@@ -78232,10 +78232,10 @@
         <v>31</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>2502</v>
+        <v>2497</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>2503</v>
+        <v>2498</v>
       </c>
       <c r="F25" s="20">
         <v>1</v>
@@ -78250,13 +78250,13 @@
         <v>1</v>
       </c>
       <c r="Q25" s="41" t="s">
-        <v>2504</v>
+        <v>2499</v>
       </c>
       <c r="T25" s="20">
         <v>1</v>
       </c>
       <c r="U25" s="26" t="s">
-        <v>2505</v>
+        <v>2500</v>
       </c>
       <c r="V25" s="30" t="s">
         <v>598</v>
@@ -78270,10 +78270,10 @@
         <v>32</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>2506</v>
+        <v>2501</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>2503</v>
+        <v>2498</v>
       </c>
       <c r="F26" s="20">
         <v>10</v>
@@ -78288,16 +78288,16 @@
         <v>1</v>
       </c>
       <c r="Q26" s="41" t="s">
-        <v>2493</v>
+        <v>2488</v>
       </c>
       <c r="T26" s="20">
         <v>10</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>2507</v>
+        <v>2502</v>
       </c>
       <c r="V26" s="30" t="s">
-        <v>2508</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -78308,10 +78308,10 @@
         <v>33</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>2509</v>
+        <v>2504</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>2503</v>
+        <v>2498</v>
       </c>
       <c r="F27" s="20">
         <v>50</v>
@@ -78326,13 +78326,13 @@
         <v>1</v>
       </c>
       <c r="Q27" s="41" t="s">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="T27" s="20">
         <v>50</v>
       </c>
       <c r="U27" s="26" t="s">
-        <v>2510</v>
+        <v>2505</v>
       </c>
       <c r="V27" s="30" t="s">
         <v>598</v>
@@ -78346,10 +78346,10 @@
         <v>34</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>2511</v>
+        <v>2506</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>2503</v>
+        <v>2498</v>
       </c>
       <c r="F28" s="20">
         <v>60</v>
@@ -78364,16 +78364,16 @@
         <v>1</v>
       </c>
       <c r="Q28" s="41" t="s">
-        <v>2512</v>
+        <v>2507</v>
       </c>
       <c r="T28" s="20">
         <v>60</v>
       </c>
       <c r="U28" s="26" t="s">
-        <v>2513</v>
+        <v>2508</v>
       </c>
       <c r="V28" s="30" t="s">
-        <v>2508</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -78384,10 +78384,10 @@
         <v>35</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>2514</v>
+        <v>2509</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>2503</v>
+        <v>2498</v>
       </c>
       <c r="F29" s="20">
         <v>100</v>
@@ -78402,16 +78402,16 @@
         <v>1</v>
       </c>
       <c r="Q29" s="41" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="T29" s="20">
         <v>100</v>
       </c>
       <c r="U29" s="26" t="s">
-        <v>2515</v>
+        <v>2510</v>
       </c>
       <c r="V29" s="30" t="s">
-        <v>2508</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -78423,7 +78423,7 @@
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="59" t="s">
-        <v>2499</v>
+        <v>2494</v>
       </c>
       <c r="E30" s="59" t="s">
         <v>11</v>
@@ -78448,7 +78448,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="59" t="s">
-        <v>2500</v>
+        <v>2495</v>
       </c>
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
@@ -78456,7 +78456,7 @@
         <v>300000</v>
       </c>
       <c r="U30" s="59" t="s">
-        <v>2501</v>
+        <v>2496</v>
       </c>
       <c r="V30" s="59" t="s">
         <v>519</v>

--- a/config_hlw/shoping_config.xlsx
+++ b/config_hlw/shoping_config.xlsx
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7084" uniqueCount="2516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7180" uniqueCount="2564">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -10159,6 +10159,186 @@
   </si>
   <si>
     <t>7000000,200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元-首日</t>
+  </si>
+  <si>
+    <t>6元-次日</t>
+  </si>
+  <si>
+    <t>6元-三日</t>
+  </si>
+  <si>
+    <t>48元-首日</t>
+  </si>
+  <si>
+    <t>48元-次日</t>
+  </si>
+  <si>
+    <t>48元-三日</t>
+  </si>
+  <si>
+    <t>98元-首日</t>
+  </si>
+  <si>
+    <t>98元-次日</t>
+  </si>
+  <si>
+    <t>98元-三日</t>
+  </si>
+  <si>
+    <t>198元-首日</t>
+  </si>
+  <si>
+    <t>198元-次日</t>
+  </si>
+  <si>
+    <t>198元-三日</t>
+  </si>
+  <si>
+    <t>"6万金币","锁定*1","最高1万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"198万金币","锁定*6","最高50万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"198万金币","锁定*5","最高40万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"198万金币","锁定*4","最高33万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"98万金币","锁定*5","最高24.8万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"98万金币","锁定*4","最高20万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"98万金币","锁定*3","最高17万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"48万金币","锁定*4","最高12万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"48万金币","锁定*3","最高9.6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"48万金币","锁定*2","最高8万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6万金币","锁定*3","最高1.5万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6万金币","锁定*2","最高1.2万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>480000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>480000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>480000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>980000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>980000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>980000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980000,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1500,2100,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2200,2600,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2700,3300,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{12200,16600,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{17400,21000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{22000,26000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{27600,31200,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{36200,42200,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{46000,52000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{55500,63300,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{76200,82200,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{96000,102000,100},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -12986,13 +13166,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AM925"/>
+  <dimension ref="A1:AM937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H878" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H911" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I895" sqref="I895"/>
+      <selection pane="bottomRight" activeCell="H932" sqref="H932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -73587,6 +73767,858 @@
         <v>1</v>
       </c>
     </row>
+    <row r="926" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A926" s="9">
+        <v>925</v>
+      </c>
+      <c r="B926" s="51">
+        <v>10851</v>
+      </c>
+      <c r="F926" s="9">
+        <v>1</v>
+      </c>
+      <c r="G926" s="9" t="s">
+        <v>2516</v>
+      </c>
+      <c r="I926" s="9" t="s">
+        <v>2528</v>
+      </c>
+      <c r="K926" s="9">
+        <v>-31</v>
+      </c>
+      <c r="L926" s="9">
+        <v>0</v>
+      </c>
+      <c r="M926" s="9">
+        <v>0</v>
+      </c>
+      <c r="N926" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O926" s="9">
+        <v>600</v>
+      </c>
+      <c r="P926" s="9" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q926" s="14" t="s">
+        <v>2540</v>
+      </c>
+      <c r="V926" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="W926" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X926" s="9">
+        <v>1585609200</v>
+      </c>
+      <c r="Y926" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z926" s="9">
+        <v>26</v>
+      </c>
+      <c r="AA926" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB926" s="9" t="s">
+        <v>2552</v>
+      </c>
+      <c r="AG926" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH926" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK926" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL926" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A927" s="9">
+        <v>926</v>
+      </c>
+      <c r="B927" s="51">
+        <v>10852</v>
+      </c>
+      <c r="F927" s="9">
+        <v>1</v>
+      </c>
+      <c r="G927" s="9" t="s">
+        <v>2517</v>
+      </c>
+      <c r="I927" s="9" t="s">
+        <v>2539</v>
+      </c>
+      <c r="K927" s="9">
+        <v>-31</v>
+      </c>
+      <c r="L927" s="9">
+        <v>0</v>
+      </c>
+      <c r="M927" s="9">
+        <v>0</v>
+      </c>
+      <c r="N927" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O927" s="9">
+        <v>600</v>
+      </c>
+      <c r="P927" s="9" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q927" s="14" t="s">
+        <v>2541</v>
+      </c>
+      <c r="V927" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="W927" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X927" s="9">
+        <v>1585609200</v>
+      </c>
+      <c r="Y927" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z927" s="9">
+        <v>27</v>
+      </c>
+      <c r="AA927" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB927" s="9" t="s">
+        <v>2553</v>
+      </c>
+      <c r="AG927" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH927" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK927" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL927" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A928" s="9">
+        <v>927</v>
+      </c>
+      <c r="B928" s="51">
+        <v>10853</v>
+      </c>
+      <c r="F928" s="9">
+        <v>1</v>
+      </c>
+      <c r="G928" s="9" t="s">
+        <v>2518</v>
+      </c>
+      <c r="I928" s="9" t="s">
+        <v>2538</v>
+      </c>
+      <c r="K928" s="9">
+        <v>-31</v>
+      </c>
+      <c r="L928" s="9">
+        <v>0</v>
+      </c>
+      <c r="M928" s="9">
+        <v>0</v>
+      </c>
+      <c r="N928" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O928" s="9">
+        <v>600</v>
+      </c>
+      <c r="P928" s="9" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q928" s="14" t="s">
+        <v>2542</v>
+      </c>
+      <c r="V928" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="W928" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X928" s="9">
+        <v>1585609200</v>
+      </c>
+      <c r="Y928" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z928" s="9">
+        <v>28</v>
+      </c>
+      <c r="AA928" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB928" s="9" t="s">
+        <v>2554</v>
+      </c>
+      <c r="AG928" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH928" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK928" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL928" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A929" s="9">
+        <v>928</v>
+      </c>
+      <c r="B929" s="51">
+        <v>10854</v>
+      </c>
+      <c r="F929" s="9">
+        <v>1</v>
+      </c>
+      <c r="G929" s="9" t="s">
+        <v>2519</v>
+      </c>
+      <c r="I929" s="9" t="s">
+        <v>2537</v>
+      </c>
+      <c r="K929" s="9">
+        <v>-31</v>
+      </c>
+      <c r="L929" s="9">
+        <v>0</v>
+      </c>
+      <c r="M929" s="9">
+        <v>0</v>
+      </c>
+      <c r="N929" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O929" s="9">
+        <v>4800</v>
+      </c>
+      <c r="P929" s="9" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q929" s="14" t="s">
+        <v>2543</v>
+      </c>
+      <c r="V929" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="W929" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X929" s="9">
+        <v>1585609200</v>
+      </c>
+      <c r="Y929" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z929" s="9">
+        <v>29</v>
+      </c>
+      <c r="AA929" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB929" s="9" t="s">
+        <v>2555</v>
+      </c>
+      <c r="AG929" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH929" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK929" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL929" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A930" s="9">
+        <v>929</v>
+      </c>
+      <c r="B930" s="51">
+        <v>10855</v>
+      </c>
+      <c r="F930" s="9">
+        <v>1</v>
+      </c>
+      <c r="G930" s="9" t="s">
+        <v>2520</v>
+      </c>
+      <c r="I930" s="9" t="s">
+        <v>2536</v>
+      </c>
+      <c r="K930" s="9">
+        <v>-31</v>
+      </c>
+      <c r="L930" s="9">
+        <v>0</v>
+      </c>
+      <c r="M930" s="9">
+        <v>0</v>
+      </c>
+      <c r="N930" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O930" s="9">
+        <v>4800</v>
+      </c>
+      <c r="P930" s="9" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q930" s="14" t="s">
+        <v>2544</v>
+      </c>
+      <c r="V930" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="W930" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X930" s="9">
+        <v>1585609200</v>
+      </c>
+      <c r="Y930" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z930" s="9">
+        <v>30</v>
+      </c>
+      <c r="AA930" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB930" s="9" t="s">
+        <v>2556</v>
+      </c>
+      <c r="AG930" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH930" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK930" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL930" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A931" s="9">
+        <v>930</v>
+      </c>
+      <c r="B931" s="51">
+        <v>10856</v>
+      </c>
+      <c r="F931" s="9">
+        <v>1</v>
+      </c>
+      <c r="G931" s="9" t="s">
+        <v>2521</v>
+      </c>
+      <c r="I931" s="9" t="s">
+        <v>2535</v>
+      </c>
+      <c r="K931" s="9">
+        <v>-31</v>
+      </c>
+      <c r="L931" s="9">
+        <v>0</v>
+      </c>
+      <c r="M931" s="9">
+        <v>0</v>
+      </c>
+      <c r="N931" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O931" s="9">
+        <v>4800</v>
+      </c>
+      <c r="P931" s="9" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q931" s="14" t="s">
+        <v>2545</v>
+      </c>
+      <c r="V931" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="W931" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X931" s="9">
+        <v>1585609200</v>
+      </c>
+      <c r="Y931" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z931" s="9">
+        <v>31</v>
+      </c>
+      <c r="AA931" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB931" s="9" t="s">
+        <v>2557</v>
+      </c>
+      <c r="AG931" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH931" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK931" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL931" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A932" s="9">
+        <v>931</v>
+      </c>
+      <c r="B932" s="51">
+        <v>10857</v>
+      </c>
+      <c r="F932" s="9">
+        <v>1</v>
+      </c>
+      <c r="G932" s="9" t="s">
+        <v>2522</v>
+      </c>
+      <c r="I932" s="9" t="s">
+        <v>2534</v>
+      </c>
+      <c r="K932" s="9">
+        <v>-31</v>
+      </c>
+      <c r="L932" s="9">
+        <v>0</v>
+      </c>
+      <c r="M932" s="9">
+        <v>0</v>
+      </c>
+      <c r="N932" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O932" s="9">
+        <v>9800</v>
+      </c>
+      <c r="P932" s="9" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q932" s="14" t="s">
+        <v>2546</v>
+      </c>
+      <c r="V932" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="W932" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X932" s="9">
+        <v>1585609200</v>
+      </c>
+      <c r="Y932" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z932" s="9">
+        <v>32</v>
+      </c>
+      <c r="AA932" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB932" s="9" t="s">
+        <v>2558</v>
+      </c>
+      <c r="AG932" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH932" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK932" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL932" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A933" s="9">
+        <v>932</v>
+      </c>
+      <c r="B933" s="51">
+        <v>10858</v>
+      </c>
+      <c r="F933" s="9">
+        <v>1</v>
+      </c>
+      <c r="G933" s="9" t="s">
+        <v>2523</v>
+      </c>
+      <c r="I933" s="9" t="s">
+        <v>2533</v>
+      </c>
+      <c r="K933" s="9">
+        <v>-31</v>
+      </c>
+      <c r="L933" s="9">
+        <v>0</v>
+      </c>
+      <c r="M933" s="9">
+        <v>0</v>
+      </c>
+      <c r="N933" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O933" s="9">
+        <v>9800</v>
+      </c>
+      <c r="P933" s="9" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q933" s="14" t="s">
+        <v>2547</v>
+      </c>
+      <c r="V933" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="W933" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X933" s="9">
+        <v>1585609200</v>
+      </c>
+      <c r="Y933" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z933" s="9">
+        <v>33</v>
+      </c>
+      <c r="AA933" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB933" s="9" t="s">
+        <v>2559</v>
+      </c>
+      <c r="AG933" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH933" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK933" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL933" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A934" s="9">
+        <v>933</v>
+      </c>
+      <c r="B934" s="51">
+        <v>10859</v>
+      </c>
+      <c r="F934" s="9">
+        <v>1</v>
+      </c>
+      <c r="G934" s="9" t="s">
+        <v>2524</v>
+      </c>
+      <c r="I934" s="9" t="s">
+        <v>2532</v>
+      </c>
+      <c r="K934" s="9">
+        <v>-31</v>
+      </c>
+      <c r="L934" s="9">
+        <v>0</v>
+      </c>
+      <c r="M934" s="9">
+        <v>0</v>
+      </c>
+      <c r="N934" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O934" s="9">
+        <v>9800</v>
+      </c>
+      <c r="P934" s="9" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q934" s="14" t="s">
+        <v>2548</v>
+      </c>
+      <c r="V934" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="W934" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X934" s="9">
+        <v>1585609200</v>
+      </c>
+      <c r="Y934" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z934" s="9">
+        <v>34</v>
+      </c>
+      <c r="AA934" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB934" s="9" t="s">
+        <v>2560</v>
+      </c>
+      <c r="AG934" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH934" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK934" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL934" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A935" s="9">
+        <v>934</v>
+      </c>
+      <c r="B935" s="51">
+        <v>10860</v>
+      </c>
+      <c r="F935" s="9">
+        <v>1</v>
+      </c>
+      <c r="G935" s="9" t="s">
+        <v>2525</v>
+      </c>
+      <c r="I935" s="9" t="s">
+        <v>2531</v>
+      </c>
+      <c r="K935" s="9">
+        <v>-31</v>
+      </c>
+      <c r="L935" s="9">
+        <v>0</v>
+      </c>
+      <c r="M935" s="9">
+        <v>0</v>
+      </c>
+      <c r="N935" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O935" s="9">
+        <v>19800</v>
+      </c>
+      <c r="P935" s="9" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q935" s="14" t="s">
+        <v>2549</v>
+      </c>
+      <c r="V935" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="W935" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X935" s="9">
+        <v>1585609200</v>
+      </c>
+      <c r="Y935" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z935" s="9">
+        <v>35</v>
+      </c>
+      <c r="AA935" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB935" s="9" t="s">
+        <v>2561</v>
+      </c>
+      <c r="AG935" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH935" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK935" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL935" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A936" s="9">
+        <v>935</v>
+      </c>
+      <c r="B936" s="51">
+        <v>10861</v>
+      </c>
+      <c r="F936" s="9">
+        <v>1</v>
+      </c>
+      <c r="G936" s="9" t="s">
+        <v>2526</v>
+      </c>
+      <c r="I936" s="9" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K936" s="9">
+        <v>-31</v>
+      </c>
+      <c r="L936" s="9">
+        <v>0</v>
+      </c>
+      <c r="M936" s="9">
+        <v>0</v>
+      </c>
+      <c r="N936" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O936" s="9">
+        <v>19800</v>
+      </c>
+      <c r="P936" s="9" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q936" s="14" t="s">
+        <v>2550</v>
+      </c>
+      <c r="V936" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="W936" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X936" s="9">
+        <v>1585609200</v>
+      </c>
+      <c r="Y936" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z936" s="9">
+        <v>36</v>
+      </c>
+      <c r="AA936" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB936" s="9" t="s">
+        <v>2562</v>
+      </c>
+      <c r="AG936" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH936" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK936" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL936" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A937" s="9">
+        <v>936</v>
+      </c>
+      <c r="B937" s="51">
+        <v>10862</v>
+      </c>
+      <c r="F937" s="9">
+        <v>1</v>
+      </c>
+      <c r="G937" s="9" t="s">
+        <v>2527</v>
+      </c>
+      <c r="I937" s="9" t="s">
+        <v>2529</v>
+      </c>
+      <c r="K937" s="9">
+        <v>-31</v>
+      </c>
+      <c r="L937" s="9">
+        <v>0</v>
+      </c>
+      <c r="M937" s="9">
+        <v>0</v>
+      </c>
+      <c r="N937" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O937" s="9">
+        <v>19800</v>
+      </c>
+      <c r="P937" s="9" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q937" s="14" t="s">
+        <v>2551</v>
+      </c>
+      <c r="V937" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="W937" s="9">
+        <v>9999999</v>
+      </c>
+      <c r="X937" s="9">
+        <v>1585609200</v>
+      </c>
+      <c r="Y937" s="9">
+        <v>2552233600</v>
+      </c>
+      <c r="Z937" s="9">
+        <v>37</v>
+      </c>
+      <c r="AA937" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB937" s="9" t="s">
+        <v>2563</v>
+      </c>
+      <c r="AG937" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH937" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK937" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL937" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM614"/>
   <phoneticPr fontId="8" type="noConversion"/>
